--- a/sql-project-eo/sql-data-model.xlsx
+++ b/sql-project-eo/sql-data-model.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ericolsson/Library/Mobile Documents/com~apple~CloudDocs/👨🏻‍💻KeepCoding/Lesson Files/L15-18 SQL/sql-project-eo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b583adb79786bf1a/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC259FC7-53FB-2E40-8BA1-231B1501D9A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="55" documentId="8_{FC603C9C-DD6B-EF42-803C-4077544C46EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CD5A4A12-E00E-944F-AA38-A7F20C245DD4}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="9440" xr2:uid="{57367D1F-08BC-D04B-80DE-952ACD0124DA}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14140" xr2:uid="{57367D1F-08BC-D04B-80DE-952ACD0124DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
   <si>
     <t>model_make</t>
   </si>
@@ -54,13 +54,85 @@
   </si>
   <si>
     <t>make</t>
+  </si>
+  <si>
+    <t>car_color</t>
+  </si>
+  <si>
+    <t>idColor</t>
+  </si>
+  <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t>black</t>
+  </si>
+  <si>
+    <t>blue</t>
+  </si>
+  <si>
+    <t>business_group</t>
+  </si>
+  <si>
+    <t>idGroup</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>SEAT</t>
+  </si>
+  <si>
+    <t>VAN</t>
+  </si>
+  <si>
+    <t>GroupX</t>
+  </si>
+  <si>
+    <t>car_table</t>
+  </si>
+  <si>
+    <t>idCar</t>
+  </si>
+  <si>
+    <t>idModel</t>
+  </si>
+  <si>
+    <t>Accord</t>
+  </si>
+  <si>
+    <t>license_plate</t>
+  </si>
+  <si>
+    <t>total_km</t>
+  </si>
+  <si>
+    <t>ins_policy_num</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>color_name</t>
+  </si>
+  <si>
+    <t>idMake-FK</t>
+  </si>
+  <si>
+    <t>honda_models</t>
+  </si>
+  <si>
+    <t>Civic</t>
+  </si>
+  <si>
+    <t>Odyssey</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -73,8 +145,20 @@
       <color theme="1"/>
       <name val="ArialMT"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="ArialMT"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="ArialMT"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -85,6 +169,12 @@
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBDD7EE"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -100,7 +190,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -109,6 +199,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -425,55 +524,206 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A25108A8-FD73-E34C-9782-50DCFCB93E9F}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="7" width="10.83203125" style="1"/>
+    <col min="8" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" style="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11">
+      <c r="A1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="4"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="3" t="s">
+      <c r="D9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="4"/>
+      <c r="J9" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1">
+      <c r="D10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1">
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="4">
+        <v>1</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11" s="4">
+        <v>1</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1">
+      <c r="D12" s="1">
+        <v>2</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="4">
+        <v>2</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" s="4">
+        <v>2</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="D13" s="1">
+        <v>3</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="4">
+        <v>3</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" s="4">
+        <v>3</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/sql-project-eo/sql-data-model.xlsx
+++ b/sql-project-eo/sql-data-model.xlsx
@@ -5,17 +5,21 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b583adb79786bf1a/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ericolsson/Library/Mobile Documents/com~apple~CloudDocs/👨🏻‍💻KeepCoding/Lesson Files/L15-18 SQL/sql-project-repo/sql-project-eo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="55" documentId="8_{FC603C9C-DD6B-EF42-803C-4077544C46EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CD5A4A12-E00E-944F-AA38-A7F20C245DD4}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{555AE76B-D65A-E54B-902B-A8A8FFD66E05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14140" xr2:uid="{57367D1F-08BC-D04B-80DE-952ACD0124DA}"/>
+    <workbookView xWindow="11600" yWindow="29560" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{57367D1F-08BC-D04B-80DE-952ACD0124DA}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="data_model" sheetId="1" r:id="rId1"/>
+    <sheet name="InsertScriptBuilder" sheetId="5" r:id="rId2"/>
+    <sheet name="RandomData" sheetId="4" r:id="rId3"/>
+    <sheet name="grp-make" sheetId="2" r:id="rId4"/>
+    <sheet name="Dates" sheetId="3" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,13 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
-  <si>
-    <t>model_make</t>
-  </si>
-  <si>
-    <t>idMake</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="137">
   <si>
     <t>Honda</t>
   </si>
@@ -53,12 +51,6 @@
     <t>Audi</t>
   </si>
   <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>car_color</t>
-  </si>
-  <si>
     <t>idColor</t>
   </si>
   <si>
@@ -71,68 +63,405 @@
     <t>blue</t>
   </si>
   <si>
-    <t>business_group</t>
-  </si>
-  <si>
     <t>idGroup</t>
   </si>
   <si>
-    <t>group</t>
-  </si>
-  <si>
-    <t>SEAT</t>
-  </si>
-  <si>
-    <t>VAN</t>
-  </si>
-  <si>
-    <t>GroupX</t>
-  </si>
-  <si>
     <t>car_table</t>
   </si>
   <si>
-    <t>idCar</t>
-  </si>
-  <si>
-    <t>idModel</t>
-  </si>
-  <si>
     <t>Accord</t>
   </si>
   <si>
     <t>license_plate</t>
   </si>
   <si>
-    <t>total_km</t>
-  </si>
-  <si>
-    <t>ins_policy_num</t>
-  </si>
-  <si>
-    <t>currency</t>
-  </si>
-  <si>
     <t>color_name</t>
   </si>
   <si>
-    <t>idMake-FK</t>
-  </si>
-  <si>
-    <t>honda_models</t>
-  </si>
-  <si>
     <t>Civic</t>
   </si>
   <si>
-    <t>Odyssey</t>
+    <t>service_table</t>
+  </si>
+  <si>
+    <t>idCar-FK</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>InsGrp1</t>
+  </si>
+  <si>
+    <t>InsGrp2</t>
+  </si>
+  <si>
+    <t>InsGrp3</t>
+  </si>
+  <si>
+    <t>insurance_policy_table</t>
+  </si>
+  <si>
+    <t>ins_policy</t>
+  </si>
+  <si>
+    <t>A123</t>
+  </si>
+  <si>
+    <t>B456</t>
+  </si>
+  <si>
+    <t>C789</t>
+  </si>
+  <si>
+    <t>insurance_company_table</t>
+  </si>
+  <si>
+    <t>ins_company</t>
+  </si>
+  <si>
+    <t>ins_company-FK</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>JPY</t>
+  </si>
+  <si>
+    <t>currency_table</t>
+  </si>
+  <si>
+    <t>make_table</t>
+  </si>
+  <si>
+    <t>model_table</t>
+  </si>
+  <si>
+    <t>color_table</t>
+  </si>
+  <si>
+    <t>US123</t>
+  </si>
+  <si>
+    <t>ES456</t>
+  </si>
+  <si>
+    <t>FR789</t>
+  </si>
+  <si>
+    <t>dt_service</t>
+  </si>
+  <si>
+    <t>dt_purchased</t>
+  </si>
+  <si>
+    <t>service_amount</t>
+  </si>
+  <si>
+    <t>odometer_km</t>
+  </si>
+  <si>
+    <t>status_table</t>
+  </si>
+  <si>
+    <t>dt_ins_start</t>
+  </si>
+  <si>
+    <t>dt_ins_end</t>
+  </si>
+  <si>
+    <t>dt_ins_end-FK</t>
+  </si>
+  <si>
+    <t>registration_table</t>
+  </si>
+  <si>
+    <t>dt_reg_start</t>
+  </si>
+  <si>
+    <t>dt_reg_end</t>
+  </si>
+  <si>
+    <t>registration_amount</t>
+  </si>
+  <si>
+    <t>idCurrency-FK</t>
+  </si>
+  <si>
+    <t>model_name</t>
+  </si>
+  <si>
+    <t>make_name</t>
+  </si>
+  <si>
+    <t>service_discription</t>
+  </si>
+  <si>
+    <t>service_packs</t>
+  </si>
+  <si>
+    <t>idServicePack-FK</t>
+  </si>
+  <si>
+    <t>currency_name</t>
+  </si>
+  <si>
+    <t>GM</t>
+  </si>
+  <si>
+    <t>Bently</t>
+  </si>
+  <si>
+    <t>Acura</t>
+  </si>
+  <si>
+    <t>Buick</t>
+  </si>
+  <si>
+    <t>Cadillac</t>
+  </si>
+  <si>
+    <t>Chevorlet</t>
+  </si>
+  <si>
+    <t>Honda Motor Company</t>
+  </si>
+  <si>
+    <t>Afeela</t>
+  </si>
+  <si>
+    <t>Sony Honda Mobility</t>
+  </si>
+  <si>
+    <t>Alfa Romeo</t>
+  </si>
+  <si>
+    <t>Stellantis</t>
+  </si>
+  <si>
+    <t>Volkswagen Group</t>
+  </si>
+  <si>
+    <t>BMW</t>
+  </si>
+  <si>
+    <t>BMW Group</t>
+  </si>
+  <si>
+    <t>Bentley</t>
+  </si>
+  <si>
+    <t>General Motors</t>
+  </si>
+  <si>
+    <t>Chevrolet</t>
+  </si>
+  <si>
+    <t>Chrysler</t>
+  </si>
+  <si>
+    <t>Dodge</t>
+  </si>
+  <si>
+    <t>Fiat</t>
+  </si>
+  <si>
+    <t>Lexus</t>
+  </si>
+  <si>
+    <t>Toyota Motor Corp.</t>
+  </si>
+  <si>
+    <t>Lincoln</t>
+  </si>
+  <si>
+    <t>Ford Motor Co.</t>
+  </si>
+  <si>
+    <t>Mercedes-Benz</t>
+  </si>
+  <si>
+    <t>Daimler AG</t>
+  </si>
+  <si>
+    <t>Mercury</t>
+  </si>
+  <si>
+    <t>Pontiac</t>
+  </si>
+  <si>
+    <t>Porsche</t>
+  </si>
+  <si>
+    <t>Rolls-Royce</t>
+  </si>
+  <si>
+    <t>Saturn</t>
+  </si>
+  <si>
+    <t>Volkswagen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volkswagen AG. </t>
+  </si>
+  <si>
+    <t>Ford</t>
+  </si>
+  <si>
+    <t>GMC</t>
+  </si>
+  <si>
+    <t>Genesis</t>
+  </si>
+  <si>
+    <t>Hyundai Motor Group</t>
+  </si>
+  <si>
+    <t>Honda Motor Co.</t>
+  </si>
+  <si>
+    <t>Hyundai</t>
+  </si>
+  <si>
+    <t>Mini</t>
+  </si>
+  <si>
+    <t>Toyota</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>Make</t>
+  </si>
+  <si>
+    <t>Date1</t>
+  </si>
+  <si>
+    <t>Date2</t>
+  </si>
+  <si>
+    <t>Random Start</t>
+  </si>
+  <si>
+    <t>End</t>
+  </si>
+  <si>
+    <t>fleet_table</t>
+  </si>
+  <si>
+    <t>parent_corp_table</t>
+  </si>
+  <si>
+    <t>corp_name</t>
+  </si>
+  <si>
+    <t>car_id</t>
+  </si>
+  <si>
+    <t>par_corp_id</t>
+  </si>
+  <si>
+    <t>reg_id</t>
+  </si>
+  <si>
+    <t>service_id</t>
+  </si>
+  <si>
+    <t>ins_pol_id</t>
+  </si>
+  <si>
+    <t>make_id</t>
+  </si>
+  <si>
+    <t>model_id</t>
+  </si>
+  <si>
+    <t>color_id</t>
+  </si>
+  <si>
+    <t>serv_pk_id</t>
+  </si>
+  <si>
+    <t>ins_co_id</t>
+  </si>
+  <si>
+    <t>curr_id</t>
+  </si>
+  <si>
+    <t>car_id_fk</t>
+  </si>
+  <si>
+    <t>curr_id_fk</t>
+  </si>
+  <si>
+    <t>model_id_fk</t>
+  </si>
+  <si>
+    <t>make_id_fk</t>
+  </si>
+  <si>
+    <t>License_plate</t>
+  </si>
+  <si>
+    <t>Script lines</t>
+  </si>
+  <si>
+    <t>MDX</t>
+  </si>
+  <si>
+    <t>TLX</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>Continental GT</t>
+  </si>
+  <si>
+    <t>Flying Spur</t>
+  </si>
+  <si>
+    <t>Enclave</t>
+  </si>
+  <si>
+    <t>Encore</t>
+  </si>
+  <si>
+    <t>Escalade</t>
+  </si>
+  <si>
+    <t>XT5</t>
+  </si>
+  <si>
+    <t>Corvette</t>
+  </si>
+  <si>
+    <t>Camero</t>
+  </si>
+  <si>
+    <t>FK</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <numFmts count="2">
+    <numFmt numFmtId="170" formatCode="&quot;Updated&quot;\ [$-409]m/d\ hh:mm;@"/>
+    <numFmt numFmtId="172" formatCode="yyyy\-mm\-dd"/>
+  </numFmts>
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -156,6 +485,30 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="ArialMT"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="ArialMT"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="28"/>
+      <color theme="1"/>
+      <name val="ArialMT"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -190,7 +543,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -210,11 +563,31 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="170" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -225,6 +598,21 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BD40ED6D-4D60-DA49-8AE2-B85D26136582}" name="Table1" displayName="Table1" ref="A1:C29" totalsRowShown="0">
+  <autoFilter ref="A1:C29" xr:uid="{BD40ED6D-4D60-DA49-8AE2-B85D26136582}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C29">
+    <sortCondition ref="B1:B29"/>
+  </sortState>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{6CAADADA-AD4D-B349-88C6-5216AA6FF0D5}" name="ID" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{3A159D60-4FA8-9B48-AB71-EF72D70E5BFC}" name="Group"/>
+    <tableColumn id="3" xr3:uid="{027C51E1-084E-C846-BAFD-448B8756BA2B}" name="Make"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -524,206 +912,2119 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A25108A8-FD73-E34C-9782-50DCFCB93E9F}">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:M59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17:J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="7" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="13.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.83203125" style="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="10.83203125" style="1"/>
+    <col min="10" max="10" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="10.83203125" style="1"/>
+    <col min="14" max="14" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.83203125" style="1"/>
+    <col min="16" max="16" width="19" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:7" ht="35">
+      <c r="A1" s="10">
+        <f ca="1">NOW()</f>
+        <v>44957.008990509261</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="7" customFormat="1">
+      <c r="A10" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="8"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="4">
+        <v>1</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="4">
+        <v>2</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="4">
+        <v>3</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" s="7" customFormat="1">
+      <c r="A17" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="D17" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="4">
+        <v>1</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H19" s="4">
+        <v>1</v>
+      </c>
+      <c r="I19" s="1">
+        <v>1</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L19" s="1">
+        <v>1</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="4">
+        <v>2</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1">
+        <v>2</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H20" s="4">
+        <v>2</v>
+      </c>
+      <c r="I20" s="1">
+        <v>1</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L20" s="1">
+        <v>2</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="4">
+        <v>3</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="1">
+        <v>3</v>
+      </c>
+      <c r="E21" s="1">
+        <v>2</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H21" s="4">
+        <v>3</v>
+      </c>
+      <c r="I21" s="1">
+        <v>2</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="L21" s="1">
+        <v>3</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="D22" s="1">
+        <v>4</v>
+      </c>
+      <c r="E22" s="1">
+        <v>2</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H22" s="4">
+        <v>4</v>
+      </c>
+      <c r="I22" s="4">
+        <v>2</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="D23" s="1">
+        <v>5</v>
+      </c>
+      <c r="E23" s="1">
+        <v>3</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H23" s="4">
+        <v>5</v>
+      </c>
+      <c r="I23" s="4">
+        <v>3</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="D24" s="1">
+        <v>6</v>
+      </c>
+      <c r="E24" s="1">
+        <v>3</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H24" s="4">
+        <v>6</v>
+      </c>
+      <c r="I24" s="4">
+        <v>3</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="D25" s="1">
+        <v>7</v>
+      </c>
+      <c r="E25" s="1">
+        <v>3</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H25" s="4">
+        <v>7</v>
+      </c>
+      <c r="I25" s="1">
+        <v>4</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="H26" s="4">
+        <v>8</v>
+      </c>
+      <c r="I26" s="1">
+        <v>4</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="H27" s="4">
+        <v>9</v>
+      </c>
+      <c r="I27" s="1">
+        <v>5</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="H28" s="4">
+        <v>10</v>
+      </c>
+      <c r="I28" s="1">
+        <v>5</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="H29" s="4">
+        <v>11</v>
+      </c>
+      <c r="I29" s="1">
+        <v>6</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="H30" s="4">
+        <v>12</v>
+      </c>
+      <c r="I30" s="1">
+        <v>6</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="H31" s="4">
+        <v>13</v>
+      </c>
+      <c r="I31" s="1">
+        <v>7</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="H32" s="4">
+        <v>14</v>
+      </c>
+      <c r="I32" s="1">
+        <v>7</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="I41" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I42" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="J42" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I48" s="7"/>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="I49" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="1">
+        <v>1</v>
+      </c>
+      <c r="C50" s="1">
+        <v>1</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E50" s="1">
+        <v>20230101</v>
+      </c>
+      <c r="F50" s="1">
+        <f>E50+10000</f>
+        <v>20240101</v>
+      </c>
+      <c r="H50" s="1">
+        <v>1</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="1">
+        <v>2</v>
+      </c>
+      <c r="C51" s="1">
+        <v>2</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E51" s="1">
+        <v>20220115</v>
+      </c>
+      <c r="F51" s="1">
+        <f t="shared" ref="F51:F52" si="0">E51+10000</f>
+        <v>20230115</v>
+      </c>
+      <c r="H51" s="1">
+        <v>2</v>
+      </c>
+      <c r="I51" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="4"/>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="5" t="s">
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="1">
+        <v>3</v>
+      </c>
+      <c r="C52" s="1">
+        <v>3</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E52" s="1">
+        <v>20220704</v>
+      </c>
+      <c r="F52" s="1">
+        <f t="shared" si="0"/>
+        <v>20230704</v>
+      </c>
+      <c r="H52" s="1">
+        <v>3</v>
+      </c>
+      <c r="I52" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>26</v>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H55" s="7"/>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="H56" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="1">
+        <v>1</v>
+      </c>
+      <c r="G57" s="1">
+        <v>1</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="1">
+        <v>0</v>
+      </c>
+      <c r="G58" s="1">
+        <v>2</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="1">
+        <v>1</v>
+      </c>
+      <c r="G59" s="1">
+        <v>3</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEF6DDA2-8713-044D-B08C-7FAD064AA1E7}">
+  <dimension ref="A1:D34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <cols>
+    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="80.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="B1" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" s="8"/>
+      <c r="D1" t="str">
+        <f>CONCATENATE("insert into kc_car_fleet_dll.",B1," (",B2,", ",C2,") ")</f>
+        <v xml:space="preserve">insert into kc_car_fleet_dll.parent_corp_table (par_corp_id, corp_name) </v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="B2" s="5" t="s">
+        <v>108</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="str">
+        <f>CONCATENATE($D$1,"values('",B3,"','",C3,"');")</f>
+        <v>insert into kc_car_fleet_dll.parent_corp_table (par_corp_id, corp_name) values('1','Honda');</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="B4" s="4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" ref="D4:D5" si="0">CONCATENATE($D$1,"values('",B4,"','",C4,"');")</f>
+        <v>insert into kc_car_fleet_dll.parent_corp_table (par_corp_id, corp_name) values('2','VW');</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="B5" s="4">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into kc_car_fleet_dll.parent_corp_table (par_corp_id, corp_name) values('3','GM');</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D8" t="str">
+        <f>CONCATENATE("insert into kc_car_fleet_dll.",A8," (",A9,", ",B9,", ",C9,") ")</f>
+        <v xml:space="preserve">insert into kc_car_fleet_dll.make_table (make_id, par_corp_id, make_name) </v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1">
+        <v>1</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" t="str">
+        <f>CONCATENATE($D$8,"values('",A10,"','",B10,"','",C10,"');")</f>
+        <v>insert into kc_car_fleet_dll.make_table (make_id, par_corp_id, make_name) values('1','1','Honda');</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1">
+        <v>2</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" ref="D11:D16" si="1">CONCATENATE($D$8,"values('",A11,"','",B11,"','",C11,"');")</f>
+        <v>insert into kc_car_fleet_dll.make_table (make_id, par_corp_id, make_name) values('2','1','Acura');</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1">
+        <v>3</v>
+      </c>
+      <c r="B12" s="1">
+        <v>2</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into kc_car_fleet_dll.make_table (make_id, par_corp_id, make_name) values('3','2','Audi');</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1">
+        <v>4</v>
+      </c>
+      <c r="B13" s="1">
+        <v>2</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into kc_car_fleet_dll.make_table (make_id, par_corp_id, make_name) values('4','2','Bently');</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1">
+        <v>5</v>
+      </c>
+      <c r="B14" s="1">
+        <v>3</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into kc_car_fleet_dll.make_table (make_id, par_corp_id, make_name) values('5','3','Buick');</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1">
+        <v>6</v>
+      </c>
+      <c r="B15" s="1">
+        <v>3</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into kc_car_fleet_dll.make_table (make_id, par_corp_id, make_name) values('6','3','Cadillac');</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1">
         <v>7</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="B16" s="1">
+        <v>3</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into kc_car_fleet_dll.make_table (make_id, par_corp_id, make_name) values('7','3','Chevorlet');</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="D19" t="str">
+        <f>CONCATENATE("insert into kc_car_fleet_dll.",A19," (",A20,", ",B20,", ",C20,") ")</f>
+        <v xml:space="preserve">insert into kc_car_fleet_dll.model_table (model_id, make_id, model_name) </v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="4">
+        <v>1</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" t="str">
+        <f>CONCATENATE($D$19,"values('",A21,"','",B21,"','",C21,"');")</f>
+        <v>insert into kc_car_fleet_dll.model_table (model_id, make_id, model_name) values('1','1','Accord');</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="4">
+        <v>2</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="4">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4">
+      <c r="D22" t="str">
+        <f t="shared" ref="D22:D34" si="2">CONCATENATE($D$19,"values('",A22,"','",B22,"','",C22,"');")</f>
+        <v>insert into kc_car_fleet_dll.model_table (model_id, make_id, model_name) values('2','1','Civic');</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="4">
         <v>3</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1">
+      <c r="B23" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="4">
+      <c r="C23" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into kc_car_fleet_dll.model_table (model_id, make_id, model_name) values('3','2','MDX');</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="4">
+        <v>4</v>
+      </c>
+      <c r="B24" s="4">
         <v>2</v>
       </c>
-      <c r="B4" s="4"/>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="4">
+      <c r="C24" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into kc_car_fleet_dll.model_table (model_id, make_id, model_name) values('4','2','TLX');</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="4">
+        <v>5</v>
+      </c>
+      <c r="B25" s="4">
         <v>3</v>
       </c>
-      <c r="B5" s="4"/>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9" s="1" t="s">
+      <c r="C25" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into kc_car_fleet_dll.model_table (model_id, make_id, model_name) values('5','3','A4');</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="4">
         <v>6</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="B26" s="4">
+        <v>3</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into kc_car_fleet_dll.model_table (model_id, make_id, model_name) values('6','3','A5');</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="4">
+        <v>7</v>
+      </c>
+      <c r="B27" s="1">
+        <v>4</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into kc_car_fleet_dll.model_table (model_id, make_id, model_name) values('7','4','Continental GT');</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="4">
+        <v>8</v>
+      </c>
+      <c r="B28" s="1">
+        <v>4</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into kc_car_fleet_dll.model_table (model_id, make_id, model_name) values('8','4','Flying Spur');</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="4">
+        <v>9</v>
+      </c>
+      <c r="B29" s="1">
+        <v>5</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into kc_car_fleet_dll.model_table (model_id, make_id, model_name) values('9','5','Enclave');</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="4">
+        <v>10</v>
+      </c>
+      <c r="B30" s="1">
+        <v>5</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into kc_car_fleet_dll.model_table (model_id, make_id, model_name) values('10','5','Encore');</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="4">
         <v>11</v>
       </c>
-      <c r="H9" s="4"/>
-      <c r="J9" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="3" t="s">
+      <c r="B31" s="1">
+        <v>6</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into kc_car_fleet_dll.model_table (model_id, make_id, model_name) values('11','6','Escalade');</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="4">
+        <v>12</v>
+      </c>
+      <c r="B32" s="1">
+        <v>6</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into kc_car_fleet_dll.model_table (model_id, make_id, model_name) values('12','6','XT5');</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="4">
+        <v>13</v>
+      </c>
+      <c r="B33" s="1">
         <v>7</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K10" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="1">
-        <v>1</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G11" s="4">
-        <v>1</v>
-      </c>
-      <c r="H11" s="4" t="s">
+      <c r="C33" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D33" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into kc_car_fleet_dll.model_table (model_id, make_id, model_name) values('13','7','Corvette');</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="4">
         <v>14</v>
       </c>
-      <c r="J11" s="4">
-        <v>1</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="1">
-        <v>2</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="1">
-        <v>2</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" s="4">
-        <v>2</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J12" s="4">
-        <v>2</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="1">
-        <v>3</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="1">
-        <v>3</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" s="4">
-        <v>3</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J13" s="4">
-        <v>3</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>29</v>
+      <c r="B34" s="1">
+        <v>7</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D34" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into kc_car_fleet_dll.model_table (model_id, make_id, model_name) values('14','7','Camero');</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{304935D2-0CBF-5044-B3DC-3854351AD42F}">
+  <dimension ref="A1:A41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <cols>
+    <col min="1" max="1" width="17.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="15">
+      <c r="A1" s="14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="15">
+      <c r="A2" s="13" t="str">
+        <f ca="1">CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;RANDBETWEEN(0,99)&amp;RANDBETWEEN(10,99)</f>
+        <v>XEJ7521</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="15">
+      <c r="A3" s="13" t="str">
+        <f t="shared" ref="A3:A41" ca="1" si="0">CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;RANDBETWEEN(0,99)&amp;RANDBETWEEN(10,99)</f>
+        <v>RNO7833</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="15">
+      <c r="A4" s="13" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>BPC7980</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="15">
+      <c r="A5" s="13" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>TKS4493</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="15">
+      <c r="A6" s="13" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>GUQ4252</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="15">
+      <c r="A7" s="13" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>MTF1348</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="15">
+      <c r="A8" s="13" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>MNA8744</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="15">
+      <c r="A9" s="13" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>FSW6835</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="15">
+      <c r="A10" s="13" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>UKI2777</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="15">
+      <c r="A11" s="13" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>TWO9921</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="15">
+      <c r="A12" s="13" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>JAU5289</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="15">
+      <c r="A13" s="13" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>WAF3465</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="15">
+      <c r="A14" s="13" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>RBK1623</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="15">
+      <c r="A15" s="13" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>TXK2770</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="15">
+      <c r="A16" s="13" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>KQY3860</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="15">
+      <c r="A17" s="13" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>QHI3484</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="15">
+      <c r="A18" s="13" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>IBI6941</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="15">
+      <c r="A19" s="13" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>SPQ1595</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="15">
+      <c r="A20" s="13" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>RPI4085</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="15">
+      <c r="A21" s="13" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>NRQ2524</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="15">
+      <c r="A22" s="13" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>OJC9195</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="15">
+      <c r="A23" s="13" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>BNS1582</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="15">
+      <c r="A24" s="13" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>AYE1932</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="15">
+      <c r="A25" s="13" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>GEF7943</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="15">
+      <c r="A26" s="13" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>EIP6655</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="15">
+      <c r="A27" s="13" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>XCZ2575</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="15">
+      <c r="A28" s="13" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>LGD8436</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="15">
+      <c r="A29" s="13" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>FBM7065</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="15">
+      <c r="A30" s="13" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>ZKI3811</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="15">
+      <c r="A31" s="13" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>VVV1059</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="15">
+      <c r="A32" s="13" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>FBV3664</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="15">
+      <c r="A33" s="13" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>SDE9690</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="15">
+      <c r="A34" s="13" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>XLP2467</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="15">
+      <c r="A35" s="13" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>QWS4685</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="15">
+      <c r="A36" s="13" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>TNX9669</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="15">
+      <c r="A37" s="13" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>OLF1011</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="15">
+      <c r="A38" s="13" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>ZOB9311</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="15">
+      <c r="A39" s="13" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>ZIR1182</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="15">
+      <c r="A40" s="13" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>IJP1441</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="15">
+      <c r="A41" s="13" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>PPA1316</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9456F312-5C60-8A4D-86F3-CA9C92ECA3B8}">
+  <dimension ref="A1:C29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C9:C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <cols>
+    <col min="1" max="1" width="4.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>92</v>
+      </c>
+      <c r="C17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>2</v>
+      </c>
+      <c r="B19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>3</v>
+      </c>
+      <c r="B20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>10</v>
+      </c>
+      <c r="B21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>11</v>
+      </c>
+      <c r="B22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>12</v>
+      </c>
+      <c r="B23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>18</v>
+      </c>
+      <c r="B24" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>27</v>
+      </c>
+      <c r="B25" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>28</v>
+      </c>
+      <c r="B26" t="s">
+        <v>88</v>
+      </c>
+      <c r="C26" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>4</v>
+      </c>
+      <c r="B27" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>6</v>
+      </c>
+      <c r="B28" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B587B91C-7535-604D-82CF-0374AE861634}">
+  <dimension ref="A1:C37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <cols>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="12">
+        <v>43101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" s="12">
+        <v>44956</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="B5" s="12">
+        <f ca="1">RANDBETWEEN($B$1,$B$2)</f>
+        <v>43910</v>
+      </c>
+      <c r="C5" s="12">
+        <f ca="1">B5+364</f>
+        <v>44274</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="B6" s="12">
+        <f t="shared" ref="B6:B37" ca="1" si="0">RANDBETWEEN($B$1,$B$2)</f>
+        <v>43248</v>
+      </c>
+      <c r="C6" s="12">
+        <f t="shared" ref="C6:C37" ca="1" si="1">B6+364</f>
+        <v>43612</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="B7" s="12">
+        <f t="shared" ca="1" si="0"/>
+        <v>43793</v>
+      </c>
+      <c r="C7" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>44157</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="B8" s="12">
+        <f t="shared" ca="1" si="0"/>
+        <v>43860</v>
+      </c>
+      <c r="C8" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>44224</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="B9" s="12">
+        <f t="shared" ca="1" si="0"/>
+        <v>44112</v>
+      </c>
+      <c r="C9" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>44476</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="B10" s="12">
+        <f t="shared" ca="1" si="0"/>
+        <v>43270</v>
+      </c>
+      <c r="C10" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>43634</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="B11" s="12">
+        <f t="shared" ca="1" si="0"/>
+        <v>44581</v>
+      </c>
+      <c r="C11" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>44945</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="B12" s="12">
+        <f t="shared" ca="1" si="0"/>
+        <v>44195</v>
+      </c>
+      <c r="C12" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>44559</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13" s="12">
+        <f t="shared" ca="1" si="0"/>
+        <v>44827</v>
+      </c>
+      <c r="C13" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>45191</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14" s="12">
+        <f t="shared" ca="1" si="0"/>
+        <v>43927</v>
+      </c>
+      <c r="C14" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>44291</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15" s="12">
+        <f t="shared" ca="1" si="0"/>
+        <v>44587</v>
+      </c>
+      <c r="C15" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>44951</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16" s="12">
+        <f t="shared" ca="1" si="0"/>
+        <v>43281</v>
+      </c>
+      <c r="C16" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>43645</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17" s="12">
+        <f t="shared" ca="1" si="0"/>
+        <v>43684</v>
+      </c>
+      <c r="C17" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>44048</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18" s="12">
+        <f t="shared" ca="1" si="0"/>
+        <v>43301</v>
+      </c>
+      <c r="C18" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>43665</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19" s="12">
+        <f t="shared" ca="1" si="0"/>
+        <v>43905</v>
+      </c>
+      <c r="C19" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>44269</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20" s="12">
+        <f t="shared" ca="1" si="0"/>
+        <v>43801</v>
+      </c>
+      <c r="C20" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>44165</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21" s="12">
+        <f t="shared" ca="1" si="0"/>
+        <v>44561</v>
+      </c>
+      <c r="C21" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>44925</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22" s="12">
+        <f t="shared" ca="1" si="0"/>
+        <v>44136</v>
+      </c>
+      <c r="C22" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>44500</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="12">
+        <f t="shared" ca="1" si="0"/>
+        <v>44756</v>
+      </c>
+      <c r="C23" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>45120</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" s="12">
+        <f t="shared" ca="1" si="0"/>
+        <v>43308</v>
+      </c>
+      <c r="C24" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>43672</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" s="12">
+        <f t="shared" ca="1" si="0"/>
+        <v>43801</v>
+      </c>
+      <c r="C25" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>44165</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26" s="12">
+        <f t="shared" ca="1" si="0"/>
+        <v>44705</v>
+      </c>
+      <c r="C26" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>45069</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3">
+      <c r="B27" s="12">
+        <f t="shared" ca="1" si="0"/>
+        <v>44426</v>
+      </c>
+      <c r="C27" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>44790</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3">
+      <c r="B28" s="12">
+        <f t="shared" ca="1" si="0"/>
+        <v>43132</v>
+      </c>
+      <c r="C28" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>43496</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3">
+      <c r="B29" s="12">
+        <f t="shared" ca="1" si="0"/>
+        <v>43588</v>
+      </c>
+      <c r="C29" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>43952</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3">
+      <c r="B30" s="12">
+        <f t="shared" ca="1" si="0"/>
+        <v>43756</v>
+      </c>
+      <c r="C30" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>44120</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3">
+      <c r="B31" s="12">
+        <f t="shared" ca="1" si="0"/>
+        <v>43979</v>
+      </c>
+      <c r="C31" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>44343</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3">
+      <c r="B32" s="12">
+        <f t="shared" ca="1" si="0"/>
+        <v>44743</v>
+      </c>
+      <c r="C32" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>45107</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3">
+      <c r="B33" s="12">
+        <f t="shared" ca="1" si="0"/>
+        <v>43890</v>
+      </c>
+      <c r="C33" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>44254</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3">
+      <c r="B34" s="12">
+        <f t="shared" ca="1" si="0"/>
+        <v>43442</v>
+      </c>
+      <c r="C34" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>43806</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3">
+      <c r="B35" s="12">
+        <f t="shared" ca="1" si="0"/>
+        <v>44278</v>
+      </c>
+      <c r="C35" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>44642</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3">
+      <c r="B36" s="12">
+        <f t="shared" ca="1" si="0"/>
+        <v>44371</v>
+      </c>
+      <c r="C36" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>44735</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3">
+      <c r="B37" s="12">
+        <f t="shared" ca="1" si="0"/>
+        <v>43967</v>
+      </c>
+      <c r="C37" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>44331</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/sql-project-eo/sql-data-model.xlsx
+++ b/sql-project-eo/sql-data-model.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ericolsson/Library/Mobile Documents/com~apple~CloudDocs/👨🏻‍💻KeepCoding/Lesson Files/L15-18 SQL/sql-project-repo/sql-project-eo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33621916-AD80-734F-8003-D3CFB4C3A047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F234429E-72DD-CA41-9DF1-DC7855C39E89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="23720" windowHeight="18880" xr2:uid="{57367D1F-08BC-D04B-80DE-952ACD0124DA}"/>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{1278AF20-DA0E-D845-9634-9431A143D690}"/>
+    <workbookView xWindow="11600" yWindow="29560" windowWidth="23720" windowHeight="18880" activeTab="2" xr2:uid="{57367D1F-08BC-D04B-80DE-952ACD0124DA}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" activeTab="1" xr2:uid="{1278AF20-DA0E-D845-9634-9431A143D690}"/>
   </bookViews>
   <sheets>
     <sheet name="data_model" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="230">
   <si>
     <t>Honda</t>
   </si>
@@ -747,6 +747,12 @@
   </si>
   <si>
     <t>FK to service_table</t>
+  </si>
+  <si>
+    <t>total_km</t>
+  </si>
+  <si>
+    <t>make last service amt?</t>
   </si>
 </sst>
 </file>
@@ -1252,8 +1258,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A25108A8-FD73-E34C-9782-50DCFCB93E9F}">
   <dimension ref="A1:M92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:B21"/>
+    <sheetView topLeftCell="A19" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
     <sheetView workbookViewId="1">
       <selection sqref="A1:D1"/>
@@ -1279,21 +1285,21 @@
     <col min="17" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="35">
+    <row r="1" spans="1:9" ht="35">
       <c r="A1" s="14">
         <f ca="1">NOW()</f>
-        <v>44957.996531712961</v>
+        <v>44958.960784143521</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
       <c r="D1" s="14"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="7" customFormat="1">
+    <row r="10" spans="1:9" s="7" customFormat="1">
       <c r="A10" s="8" t="s">
         <v>6</v>
       </c>
@@ -1316,8 +1322,11 @@
       <c r="H10" s="1" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="5" t="s">
         <v>89</v>
       </c>
@@ -1342,8 +1351,11 @@
       <c r="H11" s="6" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11" s="6" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="4">
         <v>1</v>
       </c>
@@ -1351,7 +1363,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:9">
       <c r="A13" s="4">
         <v>2</v>
       </c>
@@ -1359,7 +1371,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:9">
       <c r="A14" s="4">
         <v>3</v>
       </c>
@@ -1367,7 +1379,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:9">
       <c r="A15" s="4">
         <v>4</v>
       </c>
@@ -1375,7 +1387,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:9">
       <c r="A16" s="4">
         <v>5</v>
       </c>
@@ -2366,15 +2378,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEF6DDA2-8713-044D-B08C-7FAD064AA1E7}">
-  <dimension ref="B1:I147"/>
+  <dimension ref="A1:I149"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
-    <sheetView tabSelected="1" topLeftCell="A92" zoomScale="110" zoomScaleNormal="110" workbookViewId="1">
-      <pane ySplit="10200" topLeftCell="A122" activePane="bottomLeft"/>
-      <selection activeCell="C107" sqref="C107:C116"/>
-      <selection pane="bottomLeft" activeCell="H126" sqref="H126:H135"/>
+    <sheetView tabSelected="1" topLeftCell="A95" zoomScale="110" zoomScaleNormal="110" workbookViewId="1">
+      <selection activeCell="I128" sqref="I128:I137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" outlineLevelRow="1"/>
@@ -2385,7 +2395,7 @@
     <col min="6" max="6" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="118.5" customWidth="1"/>
+    <col min="9" max="9" width="144.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:9">
@@ -3077,7 +3087,7 @@
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
-      <c r="H65" s="21" t="s">
+      <c r="H65" s="20" t="s">
         <v>219</v>
       </c>
       <c r="I65" s="22" t="str">
@@ -3356,7 +3366,7 @@
         <f>_xlfn.CONCAT("
 alter table kc_car_fleet_dll.",C65," 
 add constraint ",D66,"_FK foreign key (",D66,") 
-references kc_car_fleet_dll.",B124,"(",D66,")"
+references kc_car_fleet_dll.",A126,"(",D66,")"
 )</f>
         <v xml:space="preserve">
 alter table kc_car_fleet_dll.registration_table 
@@ -3365,7 +3375,7 @@
       </c>
     </row>
     <row r="81" spans="4:9">
-      <c r="H81" s="21" t="s">
+      <c r="H81" s="20" t="s">
         <v>219</v>
       </c>
       <c r="I81" t="str">
@@ -3389,7 +3399,7 @@
 G86," date not null, ",
 H86," date not null, 
 constraint ",D86,"_pk primary key(",D86,"));")</f>
-        <v>create table kc_car_fleet_dll.insurance_policy_table (ins_pol_id varchar(10) not null, car_id varchar(100)  not null, ins_co varchar(100)  not null, dt_ins_start date not null, dt_ins_end date not null, 
+        <v>create table kc_car_fleet_dll.insurance_policy_table (ins_pol_id varchar(10) not null, car_id varchar(100)  not null, ins_co_id varchar(100)  not null, dt_ins_start date not null, dt_ins_end date not null, 
 constraint ins_pol_id_pk primary key(ins_pol_id));</v>
       </c>
     </row>
@@ -3409,7 +3419,7 @@
       <c r="H85" s="7"/>
       <c r="I85" s="22" t="str">
         <f>CONCATENATE("insert into kc_car_fleet_dll.",D85," (",D86,", ",E86,", ",F86,", ",G86,", ",H86,") ")</f>
-        <v xml:space="preserve">insert into kc_car_fleet_dll.insurance_policy_table (ins_pol_id, car_id, ins_co, dt_ins_start, dt_ins_end) </v>
+        <v xml:space="preserve">insert into kc_car_fleet_dll.insurance_policy_table (ins_pol_id, car_id, ins_co_id, dt_ins_start, dt_ins_end) </v>
       </c>
     </row>
     <row r="86" spans="4:9">
@@ -3420,7 +3430,7 @@
         <v>89</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="G86" s="6" t="s">
         <v>28</v>
@@ -3450,7 +3460,7 @@
       </c>
       <c r="I87" t="str">
         <f>CONCATENATE($I$85,"values('",D87,"','",E87,"','",F87,"','",G87,"','",H87,"');")</f>
-        <v>insert into kc_car_fleet_dll.insurance_policy_table (ins_pol_id, car_id, ins_co, dt_ins_start, dt_ins_end) values('P83723','2','3','2022-08-02','2023-08-01');</v>
+        <v>insert into kc_car_fleet_dll.insurance_policy_table (ins_pol_id, car_id, ins_co_id, dt_ins_start, dt_ins_end) values('P83723','2','3','2022-08-02','2023-08-01');</v>
       </c>
     </row>
     <row r="88" spans="4:9" ht="15" outlineLevel="1">
@@ -3471,7 +3481,7 @@
       </c>
       <c r="I88" t="str">
         <f t="shared" ref="I88:I96" si="6">CONCATENATE($I$85,"values('",D88,"','",E88,"','",F88,"','",G88,"','",H88,"');")</f>
-        <v>insert into kc_car_fleet_dll.insurance_policy_table (ins_pol_id, car_id, ins_co, dt_ins_start, dt_ins_end) values('P32508','10','2','2022-01-19','2023-01-18');</v>
+        <v>insert into kc_car_fleet_dll.insurance_policy_table (ins_pol_id, car_id, ins_co_id, dt_ins_start, dt_ins_end) values('P32508','10','2','2022-01-19','2023-01-18');</v>
       </c>
     </row>
     <row r="89" spans="4:9" ht="15" outlineLevel="1">
@@ -3492,7 +3502,7 @@
       </c>
       <c r="I89" t="str">
         <f t="shared" si="6"/>
-        <v>insert into kc_car_fleet_dll.insurance_policy_table (ins_pol_id, car_id, ins_co, dt_ins_start, dt_ins_end) values('P25409','8','3','2022-11-13','2023-11-12');</v>
+        <v>insert into kc_car_fleet_dll.insurance_policy_table (ins_pol_id, car_id, ins_co_id, dt_ins_start, dt_ins_end) values('P25409','8','3','2022-11-13','2023-11-12');</v>
       </c>
     </row>
     <row r="90" spans="4:9" ht="15" outlineLevel="1">
@@ -3513,7 +3523,7 @@
       </c>
       <c r="I90" t="str">
         <f t="shared" si="6"/>
-        <v>insert into kc_car_fleet_dll.insurance_policy_table (ins_pol_id, car_id, ins_co, dt_ins_start, dt_ins_end) values('P71722','9','1','2022-01-14','2023-01-13');</v>
+        <v>insert into kc_car_fleet_dll.insurance_policy_table (ins_pol_id, car_id, ins_co_id, dt_ins_start, dt_ins_end) values('P71722','9','1','2022-01-14','2023-01-13');</v>
       </c>
     </row>
     <row r="91" spans="4:9" ht="15" outlineLevel="1">
@@ -3534,7 +3544,7 @@
       </c>
       <c r="I91" t="str">
         <f t="shared" si="6"/>
-        <v>insert into kc_car_fleet_dll.insurance_policy_table (ins_pol_id, car_id, ins_co, dt_ins_start, dt_ins_end) values('P36494','7','2','2022-07-25','2023-07-24');</v>
+        <v>insert into kc_car_fleet_dll.insurance_policy_table (ins_pol_id, car_id, ins_co_id, dt_ins_start, dt_ins_end) values('P36494','7','2','2022-07-25','2023-07-24');</v>
       </c>
     </row>
     <row r="92" spans="4:9" ht="15" outlineLevel="1">
@@ -3555,7 +3565,7 @@
       </c>
       <c r="I92" t="str">
         <f t="shared" si="6"/>
-        <v>insert into kc_car_fleet_dll.insurance_policy_table (ins_pol_id, car_id, ins_co, dt_ins_start, dt_ins_end) values('P31162','1','2','2022-07-25','2023-07-24');</v>
+        <v>insert into kc_car_fleet_dll.insurance_policy_table (ins_pol_id, car_id, ins_co_id, dt_ins_start, dt_ins_end) values('P31162','1','2','2022-07-25','2023-07-24');</v>
       </c>
     </row>
     <row r="93" spans="4:9" ht="15" outlineLevel="1">
@@ -3576,7 +3586,7 @@
       </c>
       <c r="I93" t="str">
         <f t="shared" si="6"/>
-        <v>insert into kc_car_fleet_dll.insurance_policy_table (ins_pol_id, car_id, ins_co, dt_ins_start, dt_ins_end) values('P73660','3','2','2022-01-29','2023-01-28');</v>
+        <v>insert into kc_car_fleet_dll.insurance_policy_table (ins_pol_id, car_id, ins_co_id, dt_ins_start, dt_ins_end) values('P73660','3','2','2022-01-29','2023-01-28');</v>
       </c>
     </row>
     <row r="94" spans="4:9" ht="15" outlineLevel="1">
@@ -3597,7 +3607,7 @@
       </c>
       <c r="I94" t="str">
         <f t="shared" si="6"/>
-        <v>insert into kc_car_fleet_dll.insurance_policy_table (ins_pol_id, car_id, ins_co, dt_ins_start, dt_ins_end) values('P85940','4','2','2022-07-28','2023-07-27');</v>
+        <v>insert into kc_car_fleet_dll.insurance_policy_table (ins_pol_id, car_id, ins_co_id, dt_ins_start, dt_ins_end) values('P85940','4','2','2022-07-28','2023-07-27');</v>
       </c>
     </row>
     <row r="95" spans="4:9" ht="15" outlineLevel="1">
@@ -3618,7 +3628,7 @@
       </c>
       <c r="I95" t="str">
         <f t="shared" si="6"/>
-        <v>insert into kc_car_fleet_dll.insurance_policy_table (ins_pol_id, car_id, ins_co, dt_ins_start, dt_ins_end) values('P43571','6','3','2022-02-08','2023-02-07');</v>
+        <v>insert into kc_car_fleet_dll.insurance_policy_table (ins_pol_id, car_id, ins_co_id, dt_ins_start, dt_ins_end) values('P43571','6','3','2022-02-08','2023-02-07');</v>
       </c>
     </row>
     <row r="96" spans="4:9" ht="15" outlineLevel="1">
@@ -3639,7 +3649,7 @@
       </c>
       <c r="I96" t="str">
         <f t="shared" si="6"/>
-        <v>insert into kc_car_fleet_dll.insurance_policy_table (ins_pol_id, car_id, ins_co, dt_ins_start, dt_ins_end) values('P31802','5','2','2022-08-14','2023-08-13');</v>
+        <v>insert into kc_car_fleet_dll.insurance_policy_table (ins_pol_id, car_id, ins_co_id, dt_ins_start, dt_ins_end) values('P31802','5','2','2022-08-14','2023-08-13');</v>
       </c>
     </row>
     <row r="99" spans="3:9">
@@ -3650,7 +3660,7 @@
         <f>_xlfn.CONCAT("
 alter table kc_car_fleet_dll.",D85," 
 add constraint ",E86,"_FK foreign key (",E86,") 
-references kc_car_fleet_dll.",B124,"(",E86,")"
+references kc_car_fleet_dll.",A126,"(",E86,")"
 )</f>
         <v xml:space="preserve">
 alter table kc_car_fleet_dll.insurance_policy_table 
@@ -3659,7 +3669,7 @@
       </c>
     </row>
     <row r="100" spans="3:9">
-      <c r="H100" s="21" t="s">
+      <c r="H100" s="20" t="s">
         <v>220</v>
       </c>
       <c r="I100" t="str">
@@ -3670,8 +3680,8 @@
 )</f>
         <v xml:space="preserve">
 alter table kc_car_fleet_dll.insurance_policy_table 
-add constraint ins_co_FK foreign key (ins_co) 
-references kc_car_fleet_dll.insurance_company_table(ins_co)</v>
+add constraint ins_co_id_FK foreign key (ins_co_id) 
+references kc_car_fleet_dll.insurance_company_table(ins_co_id)</v>
       </c>
     </row>
     <row r="104" spans="3:9">
@@ -3747,11 +3757,11 @@
       </c>
       <c r="H107" s="1">
         <f ca="1">RANDBETWEEN(1,3)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I107" t="str">
         <f ca="1">CONCATENATE($I$105,"values('",C107,"','",D107,"','",E107,"','",F107,"','",G107,"','",H107,"');")</f>
-        <v>insert into kc_car_fleet_dll.service_table (service_id, car_id, odometer_km, dt_service, service_amount, curr_id) values('S009','1','38229','2022-08-30','564','2');</v>
+        <v>insert into kc_car_fleet_dll.service_table (service_id, car_id, odometer_km, dt_service, service_amount, curr_id) values('S009','1','38229','2022-08-30','564','3');</v>
       </c>
     </row>
     <row r="108" spans="3:9" outlineLevel="1">
@@ -3874,7 +3884,7 @@
         <v>insert into kc_car_fleet_dll.service_table (service_id, car_id, odometer_km, dt_service, service_amount, curr_id) values('S006','6','46120','2022-10-15','590','2');</v>
       </c>
     </row>
-    <row r="113" spans="2:9" outlineLevel="1">
+    <row r="113" spans="1:9" outlineLevel="1">
       <c r="C113" s="1" t="s">
         <v>204</v>
       </c>
@@ -3898,7 +3908,7 @@
         <v>insert into kc_car_fleet_dll.service_table (service_id, car_id, odometer_km, dt_service, service_amount, curr_id) values('S004','7','61918','2022-09-22','343','1');</v>
       </c>
     </row>
-    <row r="114" spans="2:9" outlineLevel="1">
+    <row r="114" spans="1:9" outlineLevel="1">
       <c r="C114" s="1" t="s">
         <v>205</v>
       </c>
@@ -3922,7 +3932,7 @@
         <v>insert into kc_car_fleet_dll.service_table (service_id, car_id, odometer_km, dt_service, service_amount, curr_id) values('S005','8','41353','2022-10-13','296','1');</v>
       </c>
     </row>
-    <row r="115" spans="2:9" outlineLevel="1">
+    <row r="115" spans="1:9" outlineLevel="1">
       <c r="C115" s="1" t="s">
         <v>206</v>
       </c>
@@ -3946,7 +3956,7 @@
         <v>insert into kc_car_fleet_dll.service_table (service_id, car_id, odometer_km, dt_service, service_amount, curr_id) values('S003','9','28804','2022-05-26','499','2');</v>
       </c>
     </row>
-    <row r="116" spans="2:9" outlineLevel="1">
+    <row r="116" spans="1:9" outlineLevel="1">
       <c r="C116" s="1" t="s">
         <v>207</v>
       </c>
@@ -3970,12 +3980,12 @@
         <v>insert into kc_car_fleet_dll.service_table (service_id, car_id, odometer_km, dt_service, service_amount, curr_id) values('S001','10','36878','2022-11-29','201','1');</v>
       </c>
     </row>
-    <row r="119" spans="2:9">
+    <row r="119" spans="1:9">
       <c r="I119" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="120" spans="2:9">
+    <row r="120" spans="1:9">
       <c r="H120" s="21" t="s">
         <v>218</v>
       </c>
@@ -3983,7 +3993,7 @@
         <f>_xlfn.CONCAT("
 alter table kc_car_fleet_dll.",C105," 
 add constraint ",D106,"_FK foreign key (",D106,") 
-references kc_car_fleet_dll.",B124,"(",D106,")"
+references kc_car_fleet_dll.",A126,"(",D106,")"
 )</f>
         <v xml:space="preserve">
 alter table kc_car_fleet_dll.service_table 
@@ -3991,8 +4001,8 @@
 references kc_car_fleet_dll.car_table(car_id)</v>
       </c>
     </row>
-    <row r="121" spans="2:9">
-      <c r="H121" s="21" t="s">
+    <row r="121" spans="1:9">
+      <c r="H121" s="20" t="s">
         <v>219</v>
       </c>
       <c r="I121" t="str">
@@ -4007,320 +4017,438 @@
 references kc_car_fleet_dll.currency_table(curr_id)</v>
       </c>
     </row>
-    <row r="124" spans="2:9">
-      <c r="B124" s="8" t="s">
+    <row r="125" spans="1:9">
+      <c r="I125" t="str">
+        <f>CONCATENATE("create table kc_car_fleet_dll.",A126," (",
+A127," varchar(10) not null, ",
+B127," date not null, ",
+C127," varchar(10) not null, ",
+D127," varchar(10) not null, ",
+E127," varchar(100) not null, ",
+F127," varchar(100) not null, ",
+G127," varchar(10) not null, ",
+H127," varchar(10) not null, constraint ",A127,"_pk primary key(",A127,"));")</f>
+        <v>create table kc_car_fleet_dll.car_table (car_id varchar(10) not null, dt_purchased date not null, model_id varchar(10) not null, color_id varchar(10) not null, license_plate_id varchar(100) not null, ins_pol_id varchar(100) not null, service_id varchar(10) not null, total_km varchar(10) not null, constraint car_id_pk primary key(car_id));</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
+      <c r="A126" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C124" s="8"/>
-      <c r="D124" s="21" t="s">
+      <c r="B126" s="8"/>
+      <c r="C126" s="21" t="s">
         <v>223</v>
       </c>
-      <c r="E124" s="21" t="s">
+      <c r="D126" s="21" t="s">
         <v>224</v>
       </c>
-      <c r="F124" s="21" t="s">
+      <c r="E126" s="21" t="s">
         <v>225</v>
       </c>
-      <c r="G124" s="21" t="s">
+      <c r="F126" s="21" t="s">
         <v>226</v>
       </c>
-      <c r="H124" s="21" t="s">
+      <c r="G126" s="21" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="125" spans="2:9">
-      <c r="B125" s="5" t="s">
+      <c r="I126" s="22" t="str">
+        <f>CONCATENATE("insert into kc_car_fleet_dll.",A126," (",A127,", ",B127,", ",C127,", ",D127,", ",E127,", ",F127,", ",G127,", ",H127,") ")</f>
+        <v xml:space="preserve">insert into kc_car_fleet_dll.car_table (car_id, dt_purchased, model_id, color_id, license_plate_id, ins_pol_id, service_id, total_km) </v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
+      <c r="A127" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C125" s="6" t="s">
+      <c r="B127" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D125" s="6" t="s">
+      <c r="C127" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="E125" s="6" t="s">
+      <c r="D127" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="F125" s="6" t="s">
+      <c r="E127" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="G125" s="19" t="s">
+      <c r="F127" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="H125" s="6" t="s">
+      <c r="G127" s="6" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="126" spans="2:9" ht="15">
-      <c r="B126" s="1">
-        <v>1</v>
-      </c>
-      <c r="C126" s="17" t="s">
+      <c r="H127" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="I127" s="10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" ht="15">
+      <c r="A128" s="1">
+        <v>1</v>
+      </c>
+      <c r="B128" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="D126" s="1">
+      <c r="C128" s="1">
         <f ca="1">RANDBETWEEN(1,14)</f>
-        <v>13</v>
-      </c>
-      <c r="E126" s="1">
+        <v>10</v>
+      </c>
+      <c r="D128" s="1">
         <f ca="1">RANDBETWEEN(1,4)</f>
         <v>4</v>
       </c>
-      <c r="F126" s="1" t="s">
+      <c r="E128" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="G126" s="16" t="s">
+      <c r="F128" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="H126" s="1" t="s">
+      <c r="G128" s="1" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="127" spans="2:9" ht="15">
-      <c r="B127" s="1">
-        <v>2</v>
-      </c>
-      <c r="C127" s="17" t="s">
+      <c r="H128" s="1">
+        <v>49657</v>
+      </c>
+      <c r="I128" t="str">
+        <f ca="1">CONCATENATE($I$126,"values('",A128,"','",B128,"','",C128,"','",D128,"','",E128,"','",F128,"','",G128,"','",H128,"');")</f>
+        <v>insert into kc_car_fleet_dll.car_table (car_id, dt_purchased, model_id, color_id, license_plate_id, ins_pol_id, service_id, total_km) values('1','2018-10-26','10','4','BGM937','P31162','S009','49657');</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" ht="15">
+      <c r="A129" s="1">
+        <v>2</v>
+      </c>
+      <c r="B129" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="D127" s="1">
-        <f t="shared" ref="D127:D135" ca="1" si="8">RANDBETWEEN(1,14)</f>
+      <c r="C129" s="1">
+        <f t="shared" ref="C129:C137" ca="1" si="8">RANDBETWEEN(1,14)</f>
+        <v>7</v>
+      </c>
+      <c r="D129" s="1">
+        <f t="shared" ref="D129:D137" ca="1" si="9">RANDBETWEEN(1,4)</f>
+        <v>2</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F129" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="H129" s="1">
+        <v>64896</v>
+      </c>
+      <c r="I129" t="str">
+        <f t="shared" ref="I129:I137" ca="1" si="10">CONCATENATE($I$126,"values('",A129,"','",B129,"','",C129,"','",D129,"','",E129,"','",F129,"','",G129,"','",H129,"');")</f>
+        <v>insert into kc_car_fleet_dll.car_table (car_id, dt_purchased, model_id, color_id, license_plate_id, ins_pol_id, service_id, total_km) values('2','2018-05-29','7','2','TYC246','P83723','S007','64896');</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" ht="15">
+      <c r="A130" s="1">
+        <v>3</v>
+      </c>
+      <c r="B130" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="C130" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="D130" s="1">
+        <f t="shared" ca="1" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F130" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="H130" s="1">
+        <v>52524</v>
+      </c>
+      <c r="I130" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>insert into kc_car_fleet_dll.car_table (car_id, dt_purchased, model_id, color_id, license_plate_id, ins_pol_id, service_id, total_km) values('3','2018-09-10','5','4','VXK5925','P73660','S008','52524');</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" ht="15">
+      <c r="A131" s="1">
+        <v>4</v>
+      </c>
+      <c r="B131" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="C131" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="D131" s="1">
+        <f t="shared" ca="1" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F131" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="H131" s="1">
+        <v>77935</v>
+      </c>
+      <c r="I131" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>insert into kc_car_fleet_dll.car_table (car_id, dt_purchased, model_id, color_id, license_plate_id, ins_pol_id, service_id, total_km) values('4','2018-03-13','6','2','UQO8298','P85940','S010','77935');</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" ht="15">
+      <c r="A132" s="1">
+        <v>5</v>
+      </c>
+      <c r="B132" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="C132" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="D132" s="1">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F132" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="H132" s="1">
+        <v>49589</v>
+      </c>
+      <c r="I132" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>insert into kc_car_fleet_dll.car_table (car_id, dt_purchased, model_id, color_id, license_plate_id, ins_pol_id, service_id, total_km) values('5','2016-03-22','7','1','ELO2020','P31802','S002','49589');</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" ht="15">
+      <c r="A133" s="1">
+        <v>6</v>
+      </c>
+      <c r="B133" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="C133" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="D133" s="1">
+        <f t="shared" ca="1" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F133" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="H133" s="1">
+        <v>66840</v>
+      </c>
+      <c r="I133" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>insert into kc_car_fleet_dll.car_table (car_id, dt_purchased, model_id, color_id, license_plate_id, ins_pol_id, service_id, total_km) values('6','2018-06-23','2','3','ZTW2748','P43571','S006','66840');</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" ht="15">
+      <c r="A134" s="1">
+        <v>7</v>
+      </c>
+      <c r="B134" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="C134" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="D134" s="1">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F134" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="G134" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="H134" s="1">
+        <v>79469</v>
+      </c>
+      <c r="I134" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>insert into kc_car_fleet_dll.car_table (car_id, dt_purchased, model_id, color_id, license_plate_id, ins_pol_id, service_id, total_km) values('7','2020-02-02','2','1','RSP6195','P36494','S004','79469');</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" ht="15">
+      <c r="A135" s="1">
         <v>8</v>
       </c>
-      <c r="E127" s="1">
-        <f t="shared" ref="E127:E135" ca="1" si="9">RANDBETWEEN(1,4)</f>
-        <v>4</v>
-      </c>
-      <c r="F127" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="G127" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="H127" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="128" spans="2:9" ht="15">
-      <c r="B128" s="1">
-        <v>3</v>
-      </c>
-      <c r="C128" s="17" t="s">
-        <v>189</v>
-      </c>
-      <c r="D128" s="1">
+      <c r="B135" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="C135" s="1">
         <f t="shared" ca="1" si="8"/>
         <v>8</v>
       </c>
-      <c r="E128" s="1">
+      <c r="D135" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>3</v>
-      </c>
-      <c r="F128" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="G128" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="H128" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="129" spans="2:8" ht="15">
-      <c r="B129" s="1">
-        <v>4</v>
-      </c>
-      <c r="C129" s="17" t="s">
-        <v>190</v>
-      </c>
-      <c r="D129" s="1">
+        <v>2</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F135" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="G135" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="H135" s="1">
+        <v>42893</v>
+      </c>
+      <c r="I135" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>insert into kc_car_fleet_dll.car_table (car_id, dt_purchased, model_id, color_id, license_plate_id, ins_pol_id, service_id, total_km) values('8','2016-11-10','8','2','LUH4314','P25409','S005','42893');</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" ht="15">
+      <c r="A136" s="1">
+        <v>9</v>
+      </c>
+      <c r="B136" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="C136" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
-      </c>
-      <c r="E129" s="1">
+        <v>7</v>
+      </c>
+      <c r="D136" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="F129" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G129" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="H129" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="130" spans="2:8" ht="15">
-      <c r="B130" s="1">
-        <v>5</v>
-      </c>
-      <c r="C130" s="17" t="s">
-        <v>191</v>
-      </c>
-      <c r="D130" s="1">
+        <v>1</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F136" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="G136" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="H136" s="1">
+        <v>31526</v>
+      </c>
+      <c r="I136" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>insert into kc_car_fleet_dll.car_table (car_id, dt_purchased, model_id, color_id, license_plate_id, ins_pol_id, service_id, total_km) values('9','2019-08-09','7','1','HZI6923','P71722','S003','31526');</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" ht="15">
+      <c r="A137" s="1">
+        <v>10</v>
+      </c>
+      <c r="B137" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="C137" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="E130" s="1">
+        <v>9</v>
+      </c>
+      <c r="D137" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>3</v>
-      </c>
-      <c r="F130" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="G130" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="H130" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="131" spans="2:8" ht="15">
-      <c r="B131" s="1">
-        <v>6</v>
-      </c>
-      <c r="C131" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="D131" s="1">
-        <f t="shared" ca="1" si="8"/>
-        <v>4</v>
-      </c>
-      <c r="E131" s="1">
-        <f t="shared" ca="1" si="9"/>
-        <v>3</v>
-      </c>
-      <c r="F131" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="G131" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="H131" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="132" spans="2:8" ht="15">
-      <c r="B132" s="1">
-        <v>7</v>
-      </c>
-      <c r="C132" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="D132" s="1">
-        <f t="shared" ca="1" si="8"/>
-        <v>12</v>
-      </c>
-      <c r="E132" s="1">
-        <f t="shared" ca="1" si="9"/>
-        <v>3</v>
-      </c>
-      <c r="F132" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="G132" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="H132" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="133" spans="2:8" ht="15">
-      <c r="B133" s="1">
-        <v>8</v>
-      </c>
-      <c r="C133" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="D133" s="1">
-        <f t="shared" ca="1" si="8"/>
-        <v>6</v>
-      </c>
-      <c r="E133" s="1">
-        <f t="shared" ca="1" si="9"/>
-        <v>4</v>
-      </c>
-      <c r="F133" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="G133" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="H133" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="134" spans="2:8" ht="15">
-      <c r="B134" s="1">
-        <v>9</v>
-      </c>
-      <c r="C134" s="17" t="s">
-        <v>194</v>
-      </c>
-      <c r="D134" s="1">
-        <f t="shared" ca="1" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="E134" s="1">
-        <f t="shared" ca="1" si="9"/>
-        <v>4</v>
-      </c>
-      <c r="F134" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="G134" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="H134" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="135" spans="2:8" ht="15">
-      <c r="B135" s="1">
-        <v>10</v>
-      </c>
-      <c r="C135" s="17" t="s">
-        <v>195</v>
-      </c>
-      <c r="D135" s="1">
-        <f t="shared" ca="1" si="8"/>
-        <v>8</v>
-      </c>
-      <c r="E135" s="1">
-        <f t="shared" ca="1" si="9"/>
-        <v>4</v>
-      </c>
-      <c r="F135" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E137" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="G135" s="16" t="s">
+      <c r="F137" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="H135" s="1" t="s">
+      <c r="G137" s="1" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="138" spans="2:8">
-      <c r="H138" s="1"/>
-    </row>
-    <row r="139" spans="2:8">
-      <c r="H139" s="1"/>
-    </row>
-    <row r="140" spans="2:8">
-      <c r="H140" s="1"/>
-    </row>
-    <row r="141" spans="2:8">
-      <c r="H141" s="1"/>
-    </row>
-    <row r="142" spans="2:8">
-      <c r="H142" s="1"/>
-    </row>
-    <row r="143" spans="2:8">
-      <c r="H143" s="1"/>
-    </row>
-    <row r="144" spans="2:8">
-      <c r="H144" s="1"/>
+      <c r="H137" s="1">
+        <v>37321</v>
+      </c>
+      <c r="I137" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>insert into kc_car_fleet_dll.car_table (car_id, dt_purchased, model_id, color_id, license_plate_id, ins_pol_id, service_id, total_km) values('10','2016-02-26','9','2','ZLO5123','P32508','S001','37321');</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
+      <c r="H140" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="I140" t="str">
+        <f>_xlfn.CONCAT("alter table kc_car_fleet_dll.",A126," add constraint ",C127,"_FK foreign key (",C127,") references kc_car_fleet_dll.",F21,"(",C127,");")</f>
+        <v>alter table kc_car_fleet_dll.car_table add constraint model_id_FK foreign key (model_id) references kc_car_fleet_dll.model_table(model_id);</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
+      <c r="H141" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="I141" t="str">
+        <f>_xlfn.CONCAT("alter table kc_car_fleet_dll.",A126," add constraint ",D127,"_FK foreign key (",D127,") references kc_car_fleet_dll.",G39,"(",D127,");")</f>
+        <v>alter table kc_car_fleet_dll.car_table add constraint color_id_FK foreign key (color_id) references kc_car_fleet_dll.color_table(color_id);</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
+      <c r="H142" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="I142" t="str">
+        <f>_xlfn.CONCAT("alter table kc_car_fleet_dll.",A126," add constraint ",E127,"_FK foreign key (",E127,") references kc_car_fleet_dll.",C65,"(",E127,");")</f>
+        <v>alter table kc_car_fleet_dll.car_table add constraint license_plate_id_FK foreign key (license_plate_id) references kc_car_fleet_dll.registration_table(license_plate_id);</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
+      <c r="H143" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="I143" t="str">
+        <f>_xlfn.CONCAT("alter table kc_car_fleet_dll.",A126," add constraint ",F127,"_FK foreign key (",F127,") references kc_car_fleet_dll.",D85,"(",F127,");")</f>
+        <v>alter table kc_car_fleet_dll.car_table add constraint ins_pol_id_FK foreign key (ins_pol_id) references kc_car_fleet_dll.insurance_policy_table(ins_pol_id);</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
+      <c r="H144" s="21" t="s">
+        <v>227</v>
+      </c>
+      <c r="I144" t="str">
+        <f>_xlfn.CONCAT("alter table kc_car_fleet_dll.",A126," add constraint ",G127,"_FK foreign key (",G127,") references kc_car_fleet_dll.",C105,"(",G127,");")</f>
+        <v>alter table kc_car_fleet_dll.car_table add constraint service_id_FK foreign key (service_id) references kc_car_fleet_dll.service_table(service_id);</v>
+      </c>
     </row>
     <row r="145" spans="8:8">
       <c r="H145" s="1"/>
@@ -4331,9 +4459,15 @@
     <row r="147" spans="8:8">
       <c r="H147" s="1"/>
     </row>
+    <row r="148" spans="8:8">
+      <c r="H148" s="1"/>
+    </row>
+    <row r="149" spans="8:8">
+      <c r="H149" s="1"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="G138:H147">
-    <sortCondition ref="H138:H147"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="G140:H149">
+    <sortCondition ref="H140:H149"/>
   </sortState>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4345,7 +4479,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{304935D2-0CBF-5044-B3DC-3854351AD42F}">
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
     <sheetView workbookViewId="1">
@@ -4446,30 +4580,30 @@
       </c>
       <c r="B5" s="16" t="str">
         <f ca="1">CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;RANDBETWEEN(0,99)&amp;RANDBETWEEN(10,99)</f>
-        <v>WEA1635</v>
+        <v>NDA8724</v>
       </c>
       <c r="C5" s="15">
         <v>44479</v>
       </c>
       <c r="D5" s="1">
         <f ca="1">RANDBETWEEN(D$2,D$1)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" ref="E5:F14" ca="1" si="0">RANDBETWEEN(E$2,E$1)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I5" s="15">
         <f t="shared" ref="I5:I14" ca="1" si="1">RANDBETWEEN(I$2,I$1)</f>
-        <v>44682</v>
+        <v>44890</v>
       </c>
       <c r="J5" s="11">
         <f ca="1">I5+364</f>
-        <v>45046</v>
+        <v>45254</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15">
@@ -4478,14 +4612,14 @@
       </c>
       <c r="B6" s="16" t="str">
         <f ca="1">CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;RANDBETWEEN(0,99)&amp;RANDBETWEEN(10,99)</f>
-        <v>ORU7817</v>
+        <v>IWQ6759</v>
       </c>
       <c r="C6" s="15">
         <v>44329</v>
       </c>
       <c r="D6" s="1">
         <f ca="1">RANDBETWEEN(D$2,D$1)</f>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" ca="1" si="0"/>
@@ -4497,11 +4631,11 @@
       </c>
       <c r="I6" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>44677</v>
+        <v>44901</v>
       </c>
       <c r="J6" s="11">
         <f t="shared" ref="J6:J14" ca="1" si="2">I6+364</f>
-        <v>45041</v>
+        <v>45265</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15">
@@ -4510,14 +4644,14 @@
       </c>
       <c r="B7" s="16" t="str">
         <f ca="1">CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;RANDBETWEEN(0,99)&amp;RANDBETWEEN(10,99)</f>
-        <v>BIB6155</v>
+        <v>RRN761</v>
       </c>
       <c r="C7" s="15">
         <v>44433</v>
       </c>
       <c r="D7" s="1">
         <f ca="1">RANDBETWEEN(D$2,D$1)</f>
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" ca="1" si="0"/>
@@ -4525,15 +4659,15 @@
       </c>
       <c r="F7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I7" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>44581</v>
+        <v>44629</v>
       </c>
       <c r="J7" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>44945</v>
+        <v>44993</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15">
@@ -4542,18 +4676,18 @@
       </c>
       <c r="B8" s="16" t="str">
         <f ca="1">CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;RANDBETWEEN(0,99)&amp;RANDBETWEEN(10,99)</f>
-        <v>GZG3636</v>
+        <v>UUZ8623</v>
       </c>
       <c r="C8" s="15">
         <v>44252</v>
       </c>
       <c r="D8" s="1">
         <f ca="1">RANDBETWEEN(D$2,D$1)</f>
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" ca="1" si="0"/>
@@ -4561,11 +4695,11 @@
       </c>
       <c r="I8" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>44766</v>
+        <v>44673</v>
       </c>
       <c r="J8" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>45130</v>
+        <v>45037</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15">
@@ -4574,7 +4708,7 @@
       </c>
       <c r="B9" s="16" t="str">
         <f ca="1">CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;RANDBETWEEN(0,99)&amp;RANDBETWEEN(10,99)</f>
-        <v>POP9272</v>
+        <v>NOG5436</v>
       </c>
       <c r="C9" s="15">
         <v>43531</v>
@@ -4585,19 +4719,19 @@
       </c>
       <c r="E9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I9" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>44738</v>
+        <v>44744</v>
       </c>
       <c r="J9" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>45102</v>
+        <v>45108</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15">
@@ -4606,30 +4740,30 @@
       </c>
       <c r="B10" s="16" t="str">
         <f ca="1">CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;RANDBETWEEN(0,99)&amp;RANDBETWEEN(10,99)</f>
-        <v>OJI7876</v>
+        <v>MKA9437</v>
       </c>
       <c r="C10" s="15">
         <v>43984</v>
       </c>
       <c r="D10" s="1">
         <f ca="1">RANDBETWEEN(D$2,D$1)</f>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I10" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>44839</v>
+        <v>44716</v>
       </c>
       <c r="J10" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>45203</v>
+        <v>45080</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15">
@@ -4638,30 +4772,30 @@
       </c>
       <c r="B11" s="16" t="str">
         <f ca="1">CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;RANDBETWEEN(0,99)&amp;RANDBETWEEN(10,99)</f>
-        <v>YKV5897</v>
+        <v>UOU7818</v>
       </c>
       <c r="C11" s="15">
         <v>44943</v>
       </c>
       <c r="D11" s="1">
         <f ca="1">RANDBETWEEN(D$2,D$1)</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I11" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>44906</v>
+        <v>44923</v>
       </c>
       <c r="J11" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>45270</v>
+        <v>45287</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15">
@@ -4670,30 +4804,30 @@
       </c>
       <c r="B12" s="16" t="str">
         <f ca="1">CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;RANDBETWEEN(0,99)&amp;RANDBETWEEN(10,99)</f>
-        <v>YVI1331</v>
+        <v>FWC9465</v>
       </c>
       <c r="C12" s="15">
         <v>43394</v>
       </c>
       <c r="D12" s="1">
         <f ca="1">RANDBETWEEN(D$2,D$1)</f>
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I12" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>44701</v>
+        <v>44670</v>
       </c>
       <c r="J12" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>45065</v>
+        <v>45034</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15">
@@ -4702,18 +4836,18 @@
       </c>
       <c r="B13" s="16" t="str">
         <f ca="1">CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;RANDBETWEEN(0,99)&amp;RANDBETWEEN(10,99)</f>
-        <v>WLL138</v>
+        <v>PUC3635</v>
       </c>
       <c r="C13" s="15">
         <v>44396</v>
       </c>
       <c r="D13" s="1">
         <f ca="1">RANDBETWEEN(D$2,D$1)</f>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F13" s="1">
         <f t="shared" ca="1" si="0"/>
@@ -4721,11 +4855,11 @@
       </c>
       <c r="I13" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>44864</v>
+        <v>44732</v>
       </c>
       <c r="J13" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>45228</v>
+        <v>45096</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15">
@@ -4734,7 +4868,7 @@
       </c>
       <c r="B14" s="16" t="str">
         <f ca="1">CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;RANDBETWEEN(0,99)&amp;RANDBETWEEN(10,99)</f>
-        <v>JMD3359</v>
+        <v>DNT2695</v>
       </c>
       <c r="C14" s="15">
         <v>43136</v>
@@ -4745,19 +4879,19 @@
       </c>
       <c r="E14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I14" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>44653</v>
+        <v>44677</v>
       </c>
       <c r="J14" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>45017</v>
+        <v>45041</v>
       </c>
     </row>
     <row r="18" spans="2:10">
@@ -4793,7 +4927,7 @@
     <row r="21" spans="2:10" ht="15">
       <c r="B21" s="16" t="str">
         <f t="shared" ref="B21:B30" ca="1" si="3">"P"&amp;RANDBETWEEN(10000,99999)</f>
-        <v>P42096</v>
+        <v>P86290</v>
       </c>
       <c r="I21" s="17" t="s">
         <v>173</v>
@@ -4805,7 +4939,7 @@
     <row r="22" spans="2:10" ht="15">
       <c r="B22" s="16" t="str">
         <f ca="1">"P"&amp;RANDBETWEEN(10000,99999)</f>
-        <v>P85957</v>
+        <v>P77788</v>
       </c>
       <c r="I22" s="17" t="s">
         <v>175</v>
@@ -4817,7 +4951,7 @@
     <row r="23" spans="2:10" ht="15">
       <c r="B23" s="16" t="str">
         <f t="shared" ref="B23:B30" ca="1" si="4">"P"&amp;RANDBETWEEN(10000,99999)</f>
-        <v>P22338</v>
+        <v>P22528</v>
       </c>
       <c r="I23" s="17" t="s">
         <v>177</v>
@@ -4829,7 +4963,7 @@
     <row r="24" spans="2:10" ht="15">
       <c r="B24" s="16" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>P35390</v>
+        <v>P92574</v>
       </c>
       <c r="I24" s="17" t="s">
         <v>179</v>
@@ -4841,7 +4975,7 @@
     <row r="25" spans="2:10" ht="15">
       <c r="B25" s="16" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>P57288</v>
+        <v>P59245</v>
       </c>
       <c r="I25" s="17" t="s">
         <v>181</v>
@@ -4853,7 +4987,7 @@
     <row r="26" spans="2:10" ht="15">
       <c r="B26" s="16" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>P38660</v>
+        <v>P57254</v>
       </c>
       <c r="I26" s="17" t="s">
         <v>183</v>
@@ -4865,7 +4999,7 @@
     <row r="27" spans="2:10" ht="15">
       <c r="B27" s="16" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>P10352</v>
+        <v>P25286</v>
       </c>
       <c r="I27" s="17" t="s">
         <v>185</v>
@@ -4877,19 +5011,19 @@
     <row r="28" spans="2:10" ht="15">
       <c r="B28" s="16" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>P13923</v>
+        <v>P45675</v>
       </c>
     </row>
     <row r="29" spans="2:10" ht="15">
       <c r="B29" s="16" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>P77052</v>
+        <v>P93329</v>
       </c>
     </row>
     <row r="30" spans="2:10" ht="15">
       <c r="B30" s="16" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>P58755</v>
+        <v>P96035</v>
       </c>
     </row>
     <row r="33" spans="4:5">
@@ -4906,7 +5040,7 @@
       </c>
       <c r="E34" s="1" cm="1">
         <f t="array" aca="1" ref="E34:E43" ca="1">_xlfn.SORTBY(D34:D43,_xlfn.RANDARRAY(COUNTA(D34:D43)))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="4:5">
@@ -4915,7 +5049,7 @@
       </c>
       <c r="E35" s="1">
         <f ca="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="4:5">
@@ -4924,7 +5058,7 @@
       </c>
       <c r="E36" s="1">
         <f ca="1"/>
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="4:5">
@@ -4933,7 +5067,7 @@
       </c>
       <c r="E37" s="1">
         <f ca="1"/>
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="4:5">
@@ -4942,7 +5076,7 @@
       </c>
       <c r="E38" s="1">
         <f ca="1"/>
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" spans="4:5">
@@ -4951,7 +5085,7 @@
       </c>
       <c r="E39" s="1">
         <f ca="1"/>
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="4:5">
@@ -4960,7 +5094,7 @@
       </c>
       <c r="E40" s="1">
         <f ca="1"/>
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="4:5">
@@ -4969,7 +5103,7 @@
       </c>
       <c r="E41" s="1">
         <f ca="1"/>
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="4:5">
@@ -4978,7 +5112,7 @@
       </c>
       <c r="E42" s="1">
         <f ca="1"/>
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="4:5">
@@ -4987,7 +5121,7 @@
       </c>
       <c r="E43" s="1">
         <f ca="1"/>
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -5383,331 +5517,331 @@
     <row r="5" spans="1:3">
       <c r="B5" s="11">
         <f ca="1">RANDBETWEEN($B$1,$B$2)</f>
-        <v>44367</v>
+        <v>44082</v>
       </c>
       <c r="C5" s="11">
         <f ca="1">B5+364</f>
-        <v>44731</v>
+        <v>44446</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="B6" s="11">
         <f t="shared" ref="B6:B37" ca="1" si="0">RANDBETWEEN($B$1,$B$2)</f>
-        <v>43965</v>
+        <v>43406</v>
       </c>
       <c r="C6" s="11">
         <f t="shared" ref="C6:C37" ca="1" si="1">B6+364</f>
-        <v>44329</v>
+        <v>43770</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="B7" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>43595</v>
+        <v>43470</v>
       </c>
       <c r="C7" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>43959</v>
+        <v>43834</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="B8" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>43675</v>
+        <v>44333</v>
       </c>
       <c r="C8" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44039</v>
+        <v>44697</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="B9" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>43905</v>
+        <v>44827</v>
       </c>
       <c r="C9" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44269</v>
+        <v>45191</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="B10" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>44691</v>
+        <v>43883</v>
       </c>
       <c r="C10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45055</v>
+        <v>44247</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="B11" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>44843</v>
+        <v>44404</v>
       </c>
       <c r="C11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45207</v>
+        <v>44768</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="B12" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>43666</v>
+        <v>43839</v>
       </c>
       <c r="C12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44030</v>
+        <v>44203</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="B13" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>43314</v>
+        <v>43316</v>
       </c>
       <c r="C13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>43678</v>
+        <v>43680</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="B14" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>44726</v>
+        <v>43609</v>
       </c>
       <c r="C14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45090</v>
+        <v>43973</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="B15" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>44430</v>
+        <v>43720</v>
       </c>
       <c r="C15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44794</v>
+        <v>44084</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="B16" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>43410</v>
+        <v>43317</v>
       </c>
       <c r="C16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>43774</v>
+        <v>43681</v>
       </c>
     </row>
     <row r="17" spans="2:3">
       <c r="B17" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>43755</v>
+        <v>44900</v>
       </c>
       <c r="C17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44119</v>
+        <v>45264</v>
       </c>
     </row>
     <row r="18" spans="2:3">
       <c r="B18" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>44830</v>
+        <v>44160</v>
       </c>
       <c r="C18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45194</v>
+        <v>44524</v>
       </c>
     </row>
     <row r="19" spans="2:3">
       <c r="B19" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>43157</v>
+        <v>44524</v>
       </c>
       <c r="C19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>43521</v>
+        <v>44888</v>
       </c>
     </row>
     <row r="20" spans="2:3">
       <c r="B20" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>43967</v>
+        <v>44779</v>
       </c>
       <c r="C20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44331</v>
+        <v>45143</v>
       </c>
     </row>
     <row r="21" spans="2:3">
       <c r="B21" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>43609</v>
+        <v>44947</v>
       </c>
       <c r="C21" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>43973</v>
+        <v>45311</v>
       </c>
     </row>
     <row r="22" spans="2:3">
       <c r="B22" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>44627</v>
+        <v>44435</v>
       </c>
       <c r="C22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44991</v>
+        <v>44799</v>
       </c>
     </row>
     <row r="23" spans="2:3">
       <c r="B23" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>43887</v>
+        <v>43691</v>
       </c>
       <c r="C23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44251</v>
+        <v>44055</v>
       </c>
     </row>
     <row r="24" spans="2:3">
       <c r="B24" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>44138</v>
+        <v>44651</v>
       </c>
       <c r="C24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44502</v>
+        <v>45015</v>
       </c>
     </row>
     <row r="25" spans="2:3">
       <c r="B25" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>43714</v>
+        <v>44848</v>
       </c>
       <c r="C25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44078</v>
+        <v>45212</v>
       </c>
     </row>
     <row r="26" spans="2:3">
       <c r="B26" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>43855</v>
+        <v>43626</v>
       </c>
       <c r="C26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44219</v>
+        <v>43990</v>
       </c>
     </row>
     <row r="27" spans="2:3">
       <c r="B27" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>43529</v>
+        <v>44008</v>
       </c>
       <c r="C27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>43893</v>
+        <v>44372</v>
       </c>
     </row>
     <row r="28" spans="2:3">
       <c r="B28" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>43525</v>
+        <v>43692</v>
       </c>
       <c r="C28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>43889</v>
+        <v>44056</v>
       </c>
     </row>
     <row r="29" spans="2:3">
       <c r="B29" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>43818</v>
+        <v>44414</v>
       </c>
       <c r="C29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44182</v>
+        <v>44778</v>
       </c>
     </row>
     <row r="30" spans="2:3">
       <c r="B30" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>43802</v>
+        <v>43780</v>
       </c>
       <c r="C30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44166</v>
+        <v>44144</v>
       </c>
     </row>
     <row r="31" spans="2:3">
       <c r="B31" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>43783</v>
+        <v>43547</v>
       </c>
       <c r="C31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44147</v>
+        <v>43911</v>
       </c>
     </row>
     <row r="32" spans="2:3">
       <c r="B32" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>43691</v>
+        <v>44895</v>
       </c>
       <c r="C32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44055</v>
+        <v>45259</v>
       </c>
     </row>
     <row r="33" spans="2:3">
       <c r="B33" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>43125</v>
+        <v>43268</v>
       </c>
       <c r="C33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>43489</v>
+        <v>43632</v>
       </c>
     </row>
     <row r="34" spans="2:3">
       <c r="B34" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>44733</v>
+        <v>43654</v>
       </c>
       <c r="C34" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45097</v>
+        <v>44018</v>
       </c>
     </row>
     <row r="35" spans="2:3">
       <c r="B35" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>43392</v>
+        <v>43305</v>
       </c>
       <c r="C35" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>43756</v>
+        <v>43669</v>
       </c>
     </row>
     <row r="36" spans="2:3">
       <c r="B36" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>43726</v>
+        <v>43813</v>
       </c>
       <c r="C36" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44090</v>
+        <v>44177</v>
       </c>
     </row>
     <row r="37" spans="2:3">
       <c r="B37" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>43888</v>
+        <v>44494</v>
       </c>
       <c r="C37" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44252</v>
+        <v>44858</v>
       </c>
     </row>
   </sheetData>

--- a/sql-project-eo/sql-data-model.xlsx
+++ b/sql-project-eo/sql-data-model.xlsx
@@ -8,10 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ericolsson/Library/Mobile Documents/com~apple~CloudDocs/👨🏻‍💻KeepCoding/Lesson Files/L15-18 SQL/sql-project-repo/sql-project-eo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F234429E-72DD-CA41-9DF1-DC7855C39E89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34B9F46C-70BA-2D4B-87A4-60206E303F8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11600" yWindow="29560" windowWidth="23720" windowHeight="18880" activeTab="2" xr2:uid="{57367D1F-08BC-D04B-80DE-952ACD0124DA}"/>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" activeTab="1" xr2:uid="{1278AF20-DA0E-D845-9634-9431A143D690}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" activeTab="1" xr2:uid="{57367D1F-08BC-D04B-80DE-952ACD0124DA}"/>
   </bookViews>
   <sheets>
     <sheet name="data_model" sheetId="1" r:id="rId1"/>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -63,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="241">
   <si>
     <t>Honda</t>
   </si>
@@ -725,15 +724,6 @@
     <t>FK - currency_table</t>
   </si>
   <si>
-    <t>FK - insurance_table</t>
-  </si>
-  <si>
-    <t>FK - make_table</t>
-  </si>
-  <si>
-    <t>FK - parent_corp_table</t>
-  </si>
-  <si>
     <t>FK to model_table</t>
   </si>
   <si>
@@ -753,6 +743,48 @@
   </si>
   <si>
     <t>make last service amt?</t>
+  </si>
+  <si>
+    <t>parent_corp</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>FK - parent_corp</t>
+  </si>
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>FK - make</t>
+  </si>
+  <si>
+    <t>color</t>
+  </si>
+  <si>
+    <t>insurance_company</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>registration</t>
+  </si>
+  <si>
+    <t>FK - car</t>
+  </si>
+  <si>
+    <t>FK - currency</t>
+  </si>
+  <si>
+    <t>insurance_policy</t>
+  </si>
+  <si>
+    <t>FK - insurance</t>
+  </si>
+  <si>
+    <t>service</t>
   </si>
 </sst>
 </file>
@@ -898,9 +930,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -923,6 +952,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1261,9 +1293,6 @@
     <sheetView topLeftCell="A19" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
-    <sheetView workbookViewId="1">
-      <selection sqref="A1:D1"/>
-    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
@@ -1286,13 +1315,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="35">
-      <c r="A1" s="14">
+      <c r="A1" s="22">
         <f ca="1">NOW()</f>
-        <v>44958.960784143521</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
+        <v>44959.697570023149</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
@@ -1323,7 +1352,7 @@
         <v>112</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1352,14 +1381,14 @@
         <v>92</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="4">
         <v>1</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="16" t="s">
         <v>187</v>
       </c>
     </row>
@@ -1367,7 +1396,7 @@
       <c r="A13" s="4">
         <v>2</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="16" t="s">
         <v>188</v>
       </c>
     </row>
@@ -1375,7 +1404,7 @@
       <c r="A14" s="4">
         <v>3</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="16" t="s">
         <v>189</v>
       </c>
     </row>
@@ -1383,7 +1412,7 @@
       <c r="A15" s="4">
         <v>4</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="16" t="s">
         <v>190</v>
       </c>
     </row>
@@ -1391,7 +1420,7 @@
       <c r="A16" s="4">
         <v>5</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="16" t="s">
         <v>191</v>
       </c>
     </row>
@@ -1399,7 +1428,7 @@
       <c r="A17" s="4">
         <v>6</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="16" t="s">
         <v>135</v>
       </c>
     </row>
@@ -1407,7 +1436,7 @@
       <c r="A18" s="4">
         <v>7</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="16" t="s">
         <v>192</v>
       </c>
     </row>
@@ -1415,7 +1444,7 @@
       <c r="A19" s="4">
         <v>8</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="16" t="s">
         <v>193</v>
       </c>
     </row>
@@ -1423,7 +1452,7 @@
       <c r="A20" s="4">
         <v>9</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="16" t="s">
         <v>194</v>
       </c>
     </row>
@@ -1431,7 +1460,7 @@
       <c r="A21" s="4">
         <v>10</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="16" t="s">
         <v>195</v>
       </c>
     </row>
@@ -1489,10 +1518,10 @@
       <c r="B27" s="1">
         <v>1</v>
       </c>
-      <c r="C27" s="15">
+      <c r="C27" s="14">
         <v>44509</v>
       </c>
-      <c r="D27" s="15">
+      <c r="D27" s="14">
         <v>44873</v>
       </c>
       <c r="E27" s="1">
@@ -1509,10 +1538,10 @@
       <c r="B28" s="1">
         <v>2</v>
       </c>
-      <c r="C28" s="15">
+      <c r="C28" s="14">
         <v>44359</v>
       </c>
-      <c r="D28" s="15">
+      <c r="D28" s="14">
         <v>44723</v>
       </c>
       <c r="E28" s="1">
@@ -1529,10 +1558,10 @@
       <c r="B29" s="1">
         <v>3</v>
       </c>
-      <c r="C29" s="15">
+      <c r="C29" s="14">
         <v>44463</v>
       </c>
-      <c r="D29" s="15">
+      <c r="D29" s="14">
         <v>44827</v>
       </c>
       <c r="E29" s="1">
@@ -1549,10 +1578,10 @@
       <c r="B30" s="1">
         <v>4</v>
       </c>
-      <c r="C30" s="15">
+      <c r="C30" s="14">
         <v>44282</v>
       </c>
-      <c r="D30" s="15">
+      <c r="D30" s="14">
         <v>44646</v>
       </c>
       <c r="E30" s="1">
@@ -1569,10 +1598,10 @@
       <c r="B31" s="1">
         <v>5</v>
       </c>
-      <c r="C31" s="15">
+      <c r="C31" s="14">
         <v>43561</v>
       </c>
-      <c r="D31" s="15">
+      <c r="D31" s="14">
         <v>43925</v>
       </c>
       <c r="E31" s="1">
@@ -1589,10 +1618,10 @@
       <c r="B32" s="1">
         <v>6</v>
       </c>
-      <c r="C32" s="15">
+      <c r="C32" s="14">
         <v>44014</v>
       </c>
-      <c r="D32" s="15">
+      <c r="D32" s="14">
         <v>44378</v>
       </c>
       <c r="E32" s="1">
@@ -1609,10 +1638,10 @@
       <c r="B33" s="1">
         <v>7</v>
       </c>
-      <c r="C33" s="15">
+      <c r="C33" s="14">
         <v>44973</v>
       </c>
-      <c r="D33" s="15">
+      <c r="D33" s="14">
         <v>45337</v>
       </c>
       <c r="E33" s="1">
@@ -1629,10 +1658,10 @@
       <c r="B34" s="1">
         <v>8</v>
       </c>
-      <c r="C34" s="15">
+      <c r="C34" s="14">
         <v>43424</v>
       </c>
-      <c r="D34" s="15">
+      <c r="D34" s="14">
         <v>43788</v>
       </c>
       <c r="E34" s="1">
@@ -1649,10 +1678,10 @@
       <c r="B35" s="1">
         <v>9</v>
       </c>
-      <c r="C35" s="15">
+      <c r="C35" s="14">
         <v>44426</v>
       </c>
-      <c r="D35" s="15">
+      <c r="D35" s="14">
         <v>44790</v>
       </c>
       <c r="E35" s="1">
@@ -1669,10 +1698,10 @@
       <c r="B36" s="1">
         <v>10</v>
       </c>
-      <c r="C36" s="15">
+      <c r="C36" s="14">
         <v>43166</v>
       </c>
-      <c r="D36" s="15">
+      <c r="D36" s="14">
         <v>43530</v>
       </c>
       <c r="E36" s="1">
@@ -1712,7 +1741,7 @@
       <c r="E42" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F42" s="19" t="s">
+      <c r="F42" s="18" t="s">
         <v>98</v>
       </c>
     </row>
@@ -1732,7 +1761,7 @@
       </c>
     </row>
     <row r="47" spans="1:9">
-      <c r="D47" s="15">
+      <c r="D47" s="14">
         <v>44956</v>
       </c>
     </row>
@@ -1746,7 +1775,7 @@
       <c r="C48" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D48" s="15">
+      <c r="D48" s="14">
         <v>43101</v>
       </c>
       <c r="E48" s="7"/>
@@ -1780,7 +1809,7 @@
       </c>
     </row>
     <row r="50" spans="1:9" ht="15">
-      <c r="A50" s="16" t="s">
+      <c r="A50" s="15" t="s">
         <v>137</v>
       </c>
       <c r="B50" s="1">
@@ -1789,10 +1818,10 @@
       <c r="C50" s="1">
         <v>3</v>
       </c>
-      <c r="D50" s="17" t="s">
+      <c r="D50" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="E50" s="17" t="s">
+      <c r="E50" s="16" t="s">
         <v>150</v>
       </c>
       <c r="H50" s="1">
@@ -1803,7 +1832,7 @@
       </c>
     </row>
     <row r="51" spans="1:9" ht="15">
-      <c r="A51" s="16" t="s">
+      <c r="A51" s="15" t="s">
         <v>138</v>
       </c>
       <c r="B51" s="1">
@@ -1812,10 +1841,10 @@
       <c r="C51" s="1">
         <v>2</v>
       </c>
-      <c r="D51" s="17" t="s">
+      <c r="D51" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="E51" s="17" t="s">
+      <c r="E51" s="16" t="s">
         <v>152</v>
       </c>
       <c r="H51" s="1">
@@ -1826,7 +1855,7 @@
       </c>
     </row>
     <row r="52" spans="1:9" ht="15">
-      <c r="A52" s="16" t="s">
+      <c r="A52" s="15" t="s">
         <v>139</v>
       </c>
       <c r="B52" s="1">
@@ -1835,10 +1864,10 @@
       <c r="C52" s="1">
         <v>3</v>
       </c>
-      <c r="D52" s="17" t="s">
+      <c r="D52" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="E52" s="17" t="s">
+      <c r="E52" s="16" t="s">
         <v>154</v>
       </c>
       <c r="H52" s="1">
@@ -1849,7 +1878,7 @@
       </c>
     </row>
     <row r="53" spans="1:9" ht="15">
-      <c r="A53" s="16" t="s">
+      <c r="A53" s="15" t="s">
         <v>140</v>
       </c>
       <c r="B53" s="1">
@@ -1858,15 +1887,15 @@
       <c r="C53" s="1">
         <v>1</v>
       </c>
-      <c r="D53" s="17" t="s">
+      <c r="D53" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="E53" s="17" t="s">
+      <c r="E53" s="16" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="15">
-      <c r="A54" s="16" t="s">
+      <c r="A54" s="15" t="s">
         <v>141</v>
       </c>
       <c r="B54" s="1">
@@ -1875,15 +1904,15 @@
       <c r="C54" s="1">
         <v>2</v>
       </c>
-      <c r="D54" s="17" t="s">
+      <c r="D54" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="E54" s="17" t="s">
+      <c r="E54" s="16" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="15">
-      <c r="A55" s="16" t="s">
+      <c r="A55" s="15" t="s">
         <v>142</v>
       </c>
       <c r="B55" s="1">
@@ -1892,15 +1921,15 @@
       <c r="C55" s="1">
         <v>2</v>
       </c>
-      <c r="D55" s="17" t="s">
+      <c r="D55" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="E55" s="17" t="s">
+      <c r="E55" s="16" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="15">
-      <c r="A56" s="16" t="s">
+      <c r="A56" s="15" t="s">
         <v>143</v>
       </c>
       <c r="B56" s="1">
@@ -1909,15 +1938,15 @@
       <c r="C56" s="1">
         <v>2</v>
       </c>
-      <c r="D56" s="17" t="s">
+      <c r="D56" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="E56" s="17" t="s">
+      <c r="E56" s="16" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="15">
-      <c r="A57" s="16" t="s">
+      <c r="A57" s="15" t="s">
         <v>144</v>
       </c>
       <c r="B57" s="1">
@@ -1926,15 +1955,15 @@
       <c r="C57" s="1">
         <v>2</v>
       </c>
-      <c r="D57" s="17" t="s">
+      <c r="D57" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="E57" s="17" t="s">
+      <c r="E57" s="16" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="15">
-      <c r="A58" s="16" t="s">
+      <c r="A58" s="15" t="s">
         <v>145</v>
       </c>
       <c r="B58" s="1">
@@ -1943,15 +1972,15 @@
       <c r="C58" s="1">
         <v>3</v>
       </c>
-      <c r="D58" s="17" t="s">
+      <c r="D58" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="E58" s="17" t="s">
+      <c r="E58" s="16" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="15">
-      <c r="A59" s="16" t="s">
+      <c r="A59" s="15" t="s">
         <v>146</v>
       </c>
       <c r="B59" s="1">
@@ -1960,10 +1989,10 @@
       <c r="C59" s="1">
         <v>2</v>
       </c>
-      <c r="D59" s="17" t="s">
+      <c r="D59" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="E59" s="17" t="s">
+      <c r="E59" s="16" t="s">
         <v>166</v>
       </c>
     </row>
@@ -2051,7 +2080,7 @@
       <c r="D77" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E77" s="20" t="s">
+      <c r="E77" s="19" t="s">
         <v>112</v>
       </c>
       <c r="F77" s="7"/>
@@ -2059,7 +2088,7 @@
       <c r="H77" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="I77" s="20" t="s">
+      <c r="I77" s="19" t="s">
         <v>112</v>
       </c>
       <c r="J77" s="7"/>
@@ -2380,11 +2409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEF6DDA2-8713-044D-B08C-7FAD064AA1E7}">
   <dimension ref="A1:I149"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
-    <sheetView tabSelected="1" topLeftCell="A95" zoomScale="110" zoomScaleNormal="110" workbookViewId="1">
-      <selection activeCell="I128" sqref="I128:I137"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="I119" sqref="I119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" outlineLevelRow="1"/>
@@ -2405,12 +2431,12 @@
     </row>
     <row r="3" spans="6:9">
       <c r="G3" s="13" t="s">
-        <v>87</v>
+        <v>227</v>
       </c>
       <c r="H3" s="8"/>
-      <c r="I3" s="22" t="str">
+      <c r="I3" s="21" t="str">
         <f>CONCATENATE("insert into kc_car_fleet_dll.",G3," (",G4,", ",H4,") ")</f>
-        <v xml:space="preserve">insert into kc_car_fleet_dll.parent_corp_table (par_corp_id, corp_name) </v>
+        <v xml:space="preserve">insert into kc_car_fleet_dll.parent_corp (par_corp_id, corp_name) </v>
       </c>
     </row>
     <row r="4" spans="6:9">
@@ -2433,7 +2459,7 @@
       </c>
       <c r="I5" t="str">
         <f>CONCATENATE($I$3,"values('",G5,"','",H5,"');")</f>
-        <v>insert into kc_car_fleet_dll.parent_corp_table (par_corp_id, corp_name) values('1','Honda');</v>
+        <v>insert into kc_car_fleet_dll.parent_corp (par_corp_id, corp_name) values('1','Honda');</v>
       </c>
     </row>
     <row r="6" spans="6:9" outlineLevel="1">
@@ -2445,7 +2471,7 @@
       </c>
       <c r="I6" t="str">
         <f t="shared" ref="I6:I7" si="0">CONCATENATE($I$3,"values('",G6,"','",H6,"');")</f>
-        <v>insert into kc_car_fleet_dll.parent_corp_table (par_corp_id, corp_name) values('2','VW');</v>
+        <v>insert into kc_car_fleet_dll.parent_corp (par_corp_id, corp_name) values('2','VW');</v>
       </c>
     </row>
     <row r="7" spans="6:9" outlineLevel="1">
@@ -2457,7 +2483,7 @@
       </c>
       <c r="I7" t="str">
         <f t="shared" si="0"/>
-        <v>insert into kc_car_fleet_dll.parent_corp_table (par_corp_id, corp_name) values('3','GM');</v>
+        <v>insert into kc_car_fleet_dll.parent_corp (par_corp_id, corp_name) values('3','GM');</v>
       </c>
     </row>
     <row r="8" spans="6:9">
@@ -2466,14 +2492,14 @@
     </row>
     <row r="10" spans="6:9">
       <c r="F10" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="20" t="s">
-        <v>222</v>
-      </c>
-      <c r="I10" s="22" t="str">
+        <v>228</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="I10" s="21" t="str">
         <f>CONCATENATE("insert into kc_car_fleet_dll.",F10," (",F11,", ",G11,", ",H11,") ")</f>
-        <v xml:space="preserve">insert into kc_car_fleet_dll.make_table (make_id, par_corp_id, make_name) </v>
+        <v xml:space="preserve">insert into kc_car_fleet_dll.make (make_id, par_corp_id, make_name) </v>
       </c>
     </row>
     <row r="11" spans="6:9">
@@ -2502,7 +2528,7 @@
       </c>
       <c r="I12" t="str">
         <f>CONCATENATE($I$10,"values('",F12,"','",G12,"','",H12,"');")</f>
-        <v>insert into kc_car_fleet_dll.make_table (make_id, par_corp_id, make_name) values('1','1','Honda');</v>
+        <v>insert into kc_car_fleet_dll.make (make_id, par_corp_id, make_name) values('1','1','Honda');</v>
       </c>
     </row>
     <row r="13" spans="6:9" outlineLevel="1">
@@ -2517,7 +2543,7 @@
       </c>
       <c r="I13" t="str">
         <f t="shared" ref="I13:I18" si="1">CONCATENATE($I$10,"values('",F13,"','",G13,"','",H13,"');")</f>
-        <v>insert into kc_car_fleet_dll.make_table (make_id, par_corp_id, make_name) values('2','1','Acura');</v>
+        <v>insert into kc_car_fleet_dll.make (make_id, par_corp_id, make_name) values('2','1','Acura');</v>
       </c>
     </row>
     <row r="14" spans="6:9" outlineLevel="1">
@@ -2532,7 +2558,7 @@
       </c>
       <c r="I14" t="str">
         <f t="shared" si="1"/>
-        <v>insert into kc_car_fleet_dll.make_table (make_id, par_corp_id, make_name) values('3','2','Audi');</v>
+        <v>insert into kc_car_fleet_dll.make (make_id, par_corp_id, make_name) values('3','2','Audi');</v>
       </c>
     </row>
     <row r="15" spans="6:9" outlineLevel="1">
@@ -2547,7 +2573,7 @@
       </c>
       <c r="I15" t="str">
         <f t="shared" si="1"/>
-        <v>insert into kc_car_fleet_dll.make_table (make_id, par_corp_id, make_name) values('4','2','Bently');</v>
+        <v>insert into kc_car_fleet_dll.make (make_id, par_corp_id, make_name) values('4','2','Bently');</v>
       </c>
     </row>
     <row r="16" spans="6:9" outlineLevel="1">
@@ -2562,7 +2588,7 @@
       </c>
       <c r="I16" t="str">
         <f t="shared" si="1"/>
-        <v>insert into kc_car_fleet_dll.make_table (make_id, par_corp_id, make_name) values('5','3','Buick');</v>
+        <v>insert into kc_car_fleet_dll.make (make_id, par_corp_id, make_name) values('5','3','Buick');</v>
       </c>
     </row>
     <row r="17" spans="6:9" outlineLevel="1">
@@ -2577,7 +2603,7 @@
       </c>
       <c r="I17" t="str">
         <f t="shared" si="1"/>
-        <v>insert into kc_car_fleet_dll.make_table (make_id, par_corp_id, make_name) values('6','3','Cadillac');</v>
+        <v>insert into kc_car_fleet_dll.make (make_id, par_corp_id, make_name) values('6','3','Cadillac');</v>
       </c>
     </row>
     <row r="18" spans="6:9" outlineLevel="1">
@@ -2592,20 +2618,20 @@
       </c>
       <c r="I18" t="str">
         <f t="shared" si="1"/>
-        <v>insert into kc_car_fleet_dll.make_table (make_id, par_corp_id, make_name) values('7','3','Chevorlet');</v>
+        <v>insert into kc_car_fleet_dll.make (make_id, par_corp_id, make_name) values('7','3','Chevorlet');</v>
       </c>
     </row>
     <row r="21" spans="6:9">
       <c r="F21" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" s="20" t="s">
-        <v>221</v>
+        <v>230</v>
+      </c>
+      <c r="G21" s="19" t="s">
+        <v>231</v>
       </c>
       <c r="H21" s="7"/>
-      <c r="I21" s="22" t="str">
+      <c r="I21" s="21" t="str">
         <f>CONCATENATE("insert into kc_car_fleet_dll.",F21," (",F22,", ",G22,", ",H22,") ")</f>
-        <v xml:space="preserve">insert into kc_car_fleet_dll.model_table (model_id, make_id, model_name) </v>
+        <v xml:space="preserve">insert into kc_car_fleet_dll.model (model_id, make_id, model_name) </v>
       </c>
     </row>
     <row r="22" spans="6:9">
@@ -2634,7 +2660,7 @@
       </c>
       <c r="I23" t="str">
         <f>CONCATENATE($I$21,"values('",F23,"','",G23,"','",H23,"');")</f>
-        <v>insert into kc_car_fleet_dll.model_table (model_id, make_id, model_name) values('1','1','Accord');</v>
+        <v>insert into kc_car_fleet_dll.model (model_id, make_id, model_name) values('1','1','Accord');</v>
       </c>
     </row>
     <row r="24" spans="6:9" outlineLevel="1">
@@ -2649,7 +2675,7 @@
       </c>
       <c r="I24" t="str">
         <f t="shared" ref="I24:I36" si="2">CONCATENATE($I$21,"values('",F24,"','",G24,"','",H24,"');")</f>
-        <v>insert into kc_car_fleet_dll.model_table (model_id, make_id, model_name) values('2','1','Civic');</v>
+        <v>insert into kc_car_fleet_dll.model (model_id, make_id, model_name) values('2','1','Civic');</v>
       </c>
     </row>
     <row r="25" spans="6:9" outlineLevel="1">
@@ -2664,7 +2690,7 @@
       </c>
       <c r="I25" t="str">
         <f t="shared" si="2"/>
-        <v>insert into kc_car_fleet_dll.model_table (model_id, make_id, model_name) values('3','2','MDX');</v>
+        <v>insert into kc_car_fleet_dll.model (model_id, make_id, model_name) values('3','2','MDX');</v>
       </c>
     </row>
     <row r="26" spans="6:9" outlineLevel="1">
@@ -2679,7 +2705,7 @@
       </c>
       <c r="I26" t="str">
         <f t="shared" si="2"/>
-        <v>insert into kc_car_fleet_dll.model_table (model_id, make_id, model_name) values('4','2','TLX');</v>
+        <v>insert into kc_car_fleet_dll.model (model_id, make_id, model_name) values('4','2','TLX');</v>
       </c>
     </row>
     <row r="27" spans="6:9" outlineLevel="1">
@@ -2694,7 +2720,7 @@
       </c>
       <c r="I27" t="str">
         <f t="shared" si="2"/>
-        <v>insert into kc_car_fleet_dll.model_table (model_id, make_id, model_name) values('5','3','A4');</v>
+        <v>insert into kc_car_fleet_dll.model (model_id, make_id, model_name) values('5','3','A4');</v>
       </c>
     </row>
     <row r="28" spans="6:9" outlineLevel="1">
@@ -2709,7 +2735,7 @@
       </c>
       <c r="I28" t="str">
         <f t="shared" si="2"/>
-        <v>insert into kc_car_fleet_dll.model_table (model_id, make_id, model_name) values('6','3','A5');</v>
+        <v>insert into kc_car_fleet_dll.model (model_id, make_id, model_name) values('6','3','A5');</v>
       </c>
     </row>
     <row r="29" spans="6:9" outlineLevel="1">
@@ -2724,7 +2750,7 @@
       </c>
       <c r="I29" t="str">
         <f t="shared" si="2"/>
-        <v>insert into kc_car_fleet_dll.model_table (model_id, make_id, model_name) values('7','4','Continental GT');</v>
+        <v>insert into kc_car_fleet_dll.model (model_id, make_id, model_name) values('7','4','Continental GT');</v>
       </c>
     </row>
     <row r="30" spans="6:9" outlineLevel="1">
@@ -2739,7 +2765,7 @@
       </c>
       <c r="I30" t="str">
         <f t="shared" si="2"/>
-        <v>insert into kc_car_fleet_dll.model_table (model_id, make_id, model_name) values('8','4','Flying Spur');</v>
+        <v>insert into kc_car_fleet_dll.model (model_id, make_id, model_name) values('8','4','Flying Spur');</v>
       </c>
     </row>
     <row r="31" spans="6:9" outlineLevel="1">
@@ -2754,7 +2780,7 @@
       </c>
       <c r="I31" t="str">
         <f t="shared" si="2"/>
-        <v>insert into kc_car_fleet_dll.model_table (model_id, make_id, model_name) values('9','5','Enclave');</v>
+        <v>insert into kc_car_fleet_dll.model (model_id, make_id, model_name) values('9','5','Enclave');</v>
       </c>
     </row>
     <row r="32" spans="6:9" outlineLevel="1">
@@ -2769,7 +2795,7 @@
       </c>
       <c r="I32" t="str">
         <f t="shared" si="2"/>
-        <v>insert into kc_car_fleet_dll.model_table (model_id, make_id, model_name) values('10','5','Encore');</v>
+        <v>insert into kc_car_fleet_dll.model (model_id, make_id, model_name) values('10','5','Encore');</v>
       </c>
     </row>
     <row r="33" spans="6:9" outlineLevel="1">
@@ -2784,7 +2810,7 @@
       </c>
       <c r="I33" t="str">
         <f t="shared" si="2"/>
-        <v>insert into kc_car_fleet_dll.model_table (model_id, make_id, model_name) values('11','6','Escalade');</v>
+        <v>insert into kc_car_fleet_dll.model (model_id, make_id, model_name) values('11','6','Escalade');</v>
       </c>
     </row>
     <row r="34" spans="6:9" outlineLevel="1">
@@ -2799,7 +2825,7 @@
       </c>
       <c r="I34" t="str">
         <f t="shared" si="2"/>
-        <v>insert into kc_car_fleet_dll.model_table (model_id, make_id, model_name) values('12','6','XT5');</v>
+        <v>insert into kc_car_fleet_dll.model (model_id, make_id, model_name) values('12','6','XT5');</v>
       </c>
     </row>
     <row r="35" spans="6:9" outlineLevel="1">
@@ -2814,7 +2840,7 @@
       </c>
       <c r="I35" t="str">
         <f t="shared" si="2"/>
-        <v>insert into kc_car_fleet_dll.model_table (model_id, make_id, model_name) values('13','7','Corvette');</v>
+        <v>insert into kc_car_fleet_dll.model (model_id, make_id, model_name) values('13','7','Corvette');</v>
       </c>
     </row>
     <row r="36" spans="6:9" outlineLevel="1">
@@ -2829,17 +2855,17 @@
       </c>
       <c r="I36" t="str">
         <f t="shared" si="2"/>
-        <v>insert into kc_car_fleet_dll.model_table (model_id, make_id, model_name) values('14','7','Camero');</v>
+        <v>insert into kc_car_fleet_dll.model (model_id, make_id, model_name) values('14','7','Camero');</v>
       </c>
     </row>
     <row r="39" spans="6:9">
       <c r="G39" s="13" t="s">
-        <v>22</v>
+        <v>232</v>
       </c>
       <c r="H39" s="7"/>
-      <c r="I39" s="22" t="str">
+      <c r="I39" s="21" t="str">
         <f>CONCATENATE("insert into kc_car_fleet_dll.",G39," (",G40,", ",H40,") ")</f>
-        <v xml:space="preserve">insert into kc_car_fleet_dll.color_table (color_id, color_name) </v>
+        <v xml:space="preserve">insert into kc_car_fleet_dll.color (color_id, color_name) </v>
       </c>
     </row>
     <row r="40" spans="6:9">
@@ -2862,7 +2888,7 @@
       </c>
       <c r="I41" t="str">
         <f>CONCATENATE($I$39,"values('",G41,"','",H41,"');")</f>
-        <v>insert into kc_car_fleet_dll.color_table (color_id, color_name) values('1','white');</v>
+        <v>insert into kc_car_fleet_dll.color (color_id, color_name) values('1','white');</v>
       </c>
     </row>
     <row r="42" spans="6:9" outlineLevel="1">
@@ -2874,7 +2900,7 @@
       </c>
       <c r="I42" t="str">
         <f t="shared" ref="I42:I44" si="3">CONCATENATE($I$39,"values('",G42,"','",H42,"');")</f>
-        <v>insert into kc_car_fleet_dll.color_table (color_id, color_name) values('2','black');</v>
+        <v>insert into kc_car_fleet_dll.color (color_id, color_name) values('2','black');</v>
       </c>
     </row>
     <row r="43" spans="6:9" outlineLevel="1">
@@ -2886,7 +2912,7 @@
       </c>
       <c r="I43" t="str">
         <f t="shared" si="3"/>
-        <v>insert into kc_car_fleet_dll.color_table (color_id, color_name) values('3','blue');</v>
+        <v>insert into kc_car_fleet_dll.color (color_id, color_name) values('3','blue');</v>
       </c>
     </row>
     <row r="44" spans="6:9" outlineLevel="1">
@@ -2898,23 +2924,23 @@
       </c>
       <c r="I44" t="str">
         <f t="shared" si="3"/>
-        <v>insert into kc_car_fleet_dll.color_table (color_id, color_name) values('4','red');</v>
+        <v>insert into kc_car_fleet_dll.color (color_id, color_name) values('4','red');</v>
       </c>
     </row>
     <row r="46" spans="6:9">
       <c r="I46" t="str">
         <f>CONCATENATE("create table kc_car_fleet_dll.",G47," (",G48," varchar(10) not null, ",H48," varchar(100) not null, constraint ",G48,"_pk primary key(",G48,"));")</f>
-        <v>create table kc_car_fleet_dll.insurance_company_table (ins_co_id varchar(10) not null, ins_company_name varchar(100) not null, constraint ins_co_id_pk primary key(ins_co_id));</v>
+        <v>create table kc_car_fleet_dll.insurance_company (ins_co_id varchar(10) not null, ins_company_name varchar(100) not null, constraint ins_co_id_pk primary key(ins_co_id));</v>
       </c>
     </row>
     <row r="47" spans="6:9">
       <c r="G47" s="13" t="s">
-        <v>14</v>
+        <v>233</v>
       </c>
       <c r="H47" s="7"/>
-      <c r="I47" s="22" t="str">
+      <c r="I47" s="21" t="str">
         <f>CONCATENATE("insert into kc_car_fleet_dll.",G47," (",G48,", ",H48,") ")</f>
-        <v xml:space="preserve">insert into kc_car_fleet_dll.insurance_company_table (ins_co_id, ins_company_name) </v>
+        <v xml:space="preserve">insert into kc_car_fleet_dll.insurance_company (ins_co_id, ins_company_name) </v>
       </c>
     </row>
     <row r="48" spans="6:9">
@@ -2937,7 +2963,7 @@
       </c>
       <c r="I49" t="str">
         <f>CONCATENATE($I$47,"values('",G49,"','",H49,"');")</f>
-        <v>insert into kc_car_fleet_dll.insurance_company_table (ins_co_id, ins_company_name) values('1','AXA');</v>
+        <v>insert into kc_car_fleet_dll.insurance_company (ins_co_id, ins_company_name) values('1','AXA');</v>
       </c>
     </row>
     <row r="50" spans="7:9" outlineLevel="1">
@@ -2949,7 +2975,7 @@
       </c>
       <c r="I50" t="str">
         <f t="shared" ref="I50:I54" si="4">CONCATENATE($I$47,"values('",G50,"','",H50,"');")</f>
-        <v>insert into kc_car_fleet_dll.insurance_company_table (ins_co_id, ins_company_name) values('2','Banco de Sabadell');</v>
+        <v>insert into kc_car_fleet_dll.insurance_company (ins_co_id, ins_company_name) values('2','Banco de Sabadell');</v>
       </c>
     </row>
     <row r="51" spans="7:9" outlineLevel="1">
@@ -2961,7 +2987,7 @@
       </c>
       <c r="I51" t="str">
         <f t="shared" si="4"/>
-        <v>insert into kc_car_fleet_dll.insurance_company_table (ins_co_id, ins_company_name) values('3','Caser Seguros');</v>
+        <v>insert into kc_car_fleet_dll.insurance_company (ins_co_id, ins_company_name) values('3','Caser Seguros');</v>
       </c>
     </row>
     <row r="52" spans="7:9" outlineLevel="1">
@@ -2973,7 +2999,7 @@
       </c>
       <c r="I52" t="str">
         <f t="shared" si="4"/>
-        <v>insert into kc_car_fleet_dll.insurance_company_table (ins_co_id, ins_company_name) values('4','Catalana Occidente');</v>
+        <v>insert into kc_car_fleet_dll.insurance_company (ins_co_id, ins_company_name) values('4','Catalana Occidente');</v>
       </c>
     </row>
     <row r="53" spans="7:9" outlineLevel="1">
@@ -2985,7 +3011,7 @@
       </c>
       <c r="I53" t="str">
         <f t="shared" si="4"/>
-        <v>insert into kc_car_fleet_dll.insurance_company_table (ins_co_id, ins_company_name) values('5','Eurocenter');</v>
+        <v>insert into kc_car_fleet_dll.insurance_company (ins_co_id, ins_company_name) values('5','Eurocenter');</v>
       </c>
     </row>
     <row r="54" spans="7:9" outlineLevel="1">
@@ -2997,23 +3023,23 @@
       </c>
       <c r="I54" t="str">
         <f t="shared" si="4"/>
-        <v>insert into kc_car_fleet_dll.insurance_company_table (ins_co_id, ins_company_name) values('6','Linea Directa');</v>
+        <v>insert into kc_car_fleet_dll.insurance_company (ins_co_id, ins_company_name) values('6','Linea Directa');</v>
       </c>
     </row>
     <row r="56" spans="7:9">
       <c r="I56" t="str">
         <f>CONCATENATE("create table kc_car_fleet_dll.",G57," (",G58," varchar(10) not null, ",H58," varchar(100) not null, constraint ",G58,"_pk primary key(",G58,"));")</f>
-        <v>create table kc_car_fleet_dll.currency_table (curr_id varchar(10) not null, currency_name varchar(100) not null, constraint curr_id_pk primary key(curr_id));</v>
+        <v>create table kc_car_fleet_dll.currency (curr_id varchar(10) not null, currency_name varchar(100) not null, constraint curr_id_pk primary key(curr_id));</v>
       </c>
     </row>
     <row r="57" spans="7:9">
       <c r="G57" s="13" t="s">
-        <v>19</v>
+        <v>234</v>
       </c>
       <c r="H57" s="7"/>
-      <c r="I57" s="22" t="str">
+      <c r="I57" s="21" t="str">
         <f>CONCATENATE("insert into kc_car_fleet_dll.",G57," (",G58,", ",H58,") ")</f>
-        <v xml:space="preserve">insert into kc_car_fleet_dll.currency_table (curr_id, currency_name) </v>
+        <v xml:space="preserve">insert into kc_car_fleet_dll.currency (curr_id, currency_name) </v>
       </c>
     </row>
     <row r="58" spans="7:9">
@@ -3036,7 +3062,7 @@
       </c>
       <c r="I59" t="str">
         <f>CONCATENATE($I$57,"values('",G59,"','",H59,"');")</f>
-        <v>insert into kc_car_fleet_dll.currency_table (curr_id, currency_name) values('1','USD');</v>
+        <v>insert into kc_car_fleet_dll.currency (curr_id, currency_name) values('1','USD');</v>
       </c>
     </row>
     <row r="60" spans="7:9" outlineLevel="1">
@@ -3048,7 +3074,7 @@
       </c>
       <c r="I60" t="str">
         <f t="shared" ref="I60:I61" si="5">CONCATENATE($I$57,"values('",G60,"','",H60,"');")</f>
-        <v>insert into kc_car_fleet_dll.currency_table (curr_id, currency_name) values('2','EUR');</v>
+        <v>insert into kc_car_fleet_dll.currency (curr_id, currency_name) values('2','EUR');</v>
       </c>
     </row>
     <row r="61" spans="7:9" outlineLevel="1">
@@ -3060,7 +3086,7 @@
       </c>
       <c r="I61" t="str">
         <f t="shared" si="5"/>
-        <v>insert into kc_car_fleet_dll.currency_table (curr_id, currency_name) values('3','JPY');</v>
+        <v>insert into kc_car_fleet_dll.currency (curr_id, currency_name) values('3','JPY');</v>
       </c>
     </row>
     <row r="64" spans="7:9">
@@ -3073,26 +3099,26 @@
 G66," varchar(100) not null, ",
 H66," varchar(100) not null, 
 constraint ",C66,"_pk primary key(",C66,"));")</f>
-        <v>create table kc_car_fleet_dll.registration_table (license_plate_id varchar(10) not null, car_id varchar(100) not null, dt_reg_start date not null, dt_reg_end date not null, registration_amount varchar(100) not null, curr_id varchar(100) not null, 
+        <v>create table kc_car_fleet_dll.registration (license_plate_id varchar(10) not null, car_id varchar(100) not null, dt_reg_start date not null, dt_reg_end date not null, registration_amount varchar(100) not null, curr_id varchar(100) not null, 
 constraint license_plate_id_pk primary key(license_plate_id));</v>
       </c>
     </row>
     <row r="65" spans="3:9">
       <c r="C65" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D65" s="21" t="s">
-        <v>218</v>
+        <v>235</v>
+      </c>
+      <c r="D65" s="20" t="s">
+        <v>236</v>
       </c>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
-      <c r="H65" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="I65" s="22" t="str">
+      <c r="H65" s="19" t="s">
+        <v>237</v>
+      </c>
+      <c r="I65" s="21" t="str">
         <f>CONCATENATE("insert into kc_car_fleet_dll.",C65," (",C66,", ",D66,", ",E66,", ",F66,", ",G66,", ",H66,") ")</f>
-        <v xml:space="preserve">insert into kc_car_fleet_dll.registration_table (license_plate_id, car_id, dt_reg_start, dt_reg_end, registration_amount, curr_id) </v>
+        <v xml:space="preserve">insert into kc_car_fleet_dll.registration (license_plate_id, car_id, dt_reg_start, dt_reg_end, registration_amount, curr_id) </v>
       </c>
     </row>
     <row r="66" spans="3:9">
@@ -3125,10 +3151,10 @@
       <c r="D67" s="1">
         <v>1</v>
       </c>
-      <c r="E67" s="17" t="s">
+      <c r="E67" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="F67" s="17" t="s">
+      <c r="F67" s="16" t="s">
         <v>168</v>
       </c>
       <c r="G67" s="1">
@@ -3138,8 +3164,8 @@
         <v>2</v>
       </c>
       <c r="I67" t="str">
-        <f>CONCATENATE($I$65,"values('",C67,"','",D67,"','",E67,"','",F67,"','",G67,"','",H67,"');")</f>
-        <v>insert into kc_car_fleet_dll.registration_table (license_plate_id, car_id, dt_reg_start, dt_reg_end, registration_amount, curr_id) values('BGM937','1','2022-10-30','2023-10-29','167','2');</v>
+        <f t="shared" ref="I67:I76" si="6">CONCATENATE($I$65,"values('",C67,"','",D67,"','",E67,"','",F67,"','",G67,"','",H67,"');")</f>
+        <v>insert into kc_car_fleet_dll.registration (license_plate_id, car_id, dt_reg_start, dt_reg_end, registration_amount, curr_id) values('BGM937','1','2022-10-30','2023-10-29','167','2');</v>
       </c>
     </row>
     <row r="68" spans="3:9" outlineLevel="1">
@@ -3149,10 +3175,10 @@
       <c r="D68" s="1">
         <v>2</v>
       </c>
-      <c r="E68" s="17" t="s">
+      <c r="E68" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="F68" s="17" t="s">
+      <c r="F68" s="16" t="s">
         <v>170</v>
       </c>
       <c r="G68" s="1">
@@ -3162,8 +3188,8 @@
         <v>2</v>
       </c>
       <c r="I68" t="str">
-        <f>CONCATENATE($I$65,"values('",C68,"','",D68,"','",E68,"','",F68,"','",G68,"','",H68,"');")</f>
-        <v>insert into kc_car_fleet_dll.registration_table (license_plate_id, car_id, dt_reg_start, dt_reg_end, registration_amount, curr_id) values('TYC246','2','2022-06-08','2023-06-07','156','2');</v>
+        <f t="shared" si="6"/>
+        <v>insert into kc_car_fleet_dll.registration (license_plate_id, car_id, dt_reg_start, dt_reg_end, registration_amount, curr_id) values('TYC246','2','2022-06-08','2023-06-07','156','2');</v>
       </c>
     </row>
     <row r="69" spans="3:9" outlineLevel="1">
@@ -3173,10 +3199,10 @@
       <c r="D69" s="1">
         <v>3</v>
       </c>
-      <c r="E69" s="17" t="s">
+      <c r="E69" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="F69" s="17" t="s">
+      <c r="F69" s="16" t="s">
         <v>172</v>
       </c>
       <c r="G69" s="1">
@@ -3186,8 +3212,8 @@
         <v>1</v>
       </c>
       <c r="I69" t="str">
-        <f>CONCATENATE($I$65,"values('",C69,"','",D69,"','",E69,"','",F69,"','",G69,"','",H69,"');")</f>
-        <v>insert into kc_car_fleet_dll.registration_table (license_plate_id, car_id, dt_reg_start, dt_reg_end, registration_amount, curr_id) values('VXK5925','3','2022-05-10','2023-05-09','214','1');</v>
+        <f t="shared" si="6"/>
+        <v>insert into kc_car_fleet_dll.registration (license_plate_id, car_id, dt_reg_start, dt_reg_end, registration_amount, curr_id) values('VXK5925','3','2022-05-10','2023-05-09','214','1');</v>
       </c>
     </row>
     <row r="70" spans="3:9" outlineLevel="1">
@@ -3197,10 +3223,10 @@
       <c r="D70" s="1">
         <v>4</v>
       </c>
-      <c r="E70" s="17" t="s">
+      <c r="E70" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="F70" s="17" t="s">
+      <c r="F70" s="16" t="s">
         <v>174</v>
       </c>
       <c r="G70" s="1">
@@ -3210,8 +3236,8 @@
         <v>2</v>
       </c>
       <c r="I70" t="str">
-        <f>CONCATENATE($I$65,"values('",C70,"','",D70,"','",E70,"','",F70,"','",G70,"','",H70,"');")</f>
-        <v>insert into kc_car_fleet_dll.registration_table (license_plate_id, car_id, dt_reg_start, dt_reg_end, registration_amount, curr_id) values('UQO8298','4','2022-12-01','2023-11-30','123','2');</v>
+        <f t="shared" si="6"/>
+        <v>insert into kc_car_fleet_dll.registration (license_plate_id, car_id, dt_reg_start, dt_reg_end, registration_amount, curr_id) values('UQO8298','4','2022-12-01','2023-11-30','123','2');</v>
       </c>
     </row>
     <row r="71" spans="3:9" outlineLevel="1">
@@ -3221,10 +3247,10 @@
       <c r="D71" s="1">
         <v>5</v>
       </c>
-      <c r="E71" s="17" t="s">
+      <c r="E71" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="F71" s="17" t="s">
+      <c r="F71" s="16" t="s">
         <v>176</v>
       </c>
       <c r="G71" s="1">
@@ -3234,8 +3260,8 @@
         <v>1</v>
       </c>
       <c r="I71" t="str">
-        <f>CONCATENATE($I$65,"values('",C71,"','",D71,"','",E71,"','",F71,"','",G71,"','",H71,"');")</f>
-        <v>insert into kc_car_fleet_dll.registration_table (license_plate_id, car_id, dt_reg_start, dt_reg_end, registration_amount, curr_id) values('ELO2020','5','2022-07-17','2023-07-16','240','1');</v>
+        <f t="shared" si="6"/>
+        <v>insert into kc_car_fleet_dll.registration (license_plate_id, car_id, dt_reg_start, dt_reg_end, registration_amount, curr_id) values('ELO2020','5','2022-07-17','2023-07-16','240','1');</v>
       </c>
     </row>
     <row r="72" spans="3:9" outlineLevel="1">
@@ -3245,10 +3271,10 @@
       <c r="D72" s="1">
         <v>6</v>
       </c>
-      <c r="E72" s="17" t="s">
+      <c r="E72" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="F72" s="17" t="s">
+      <c r="F72" s="16" t="s">
         <v>178</v>
       </c>
       <c r="G72" s="1">
@@ -3258,8 +3284,8 @@
         <v>2</v>
       </c>
       <c r="I72" t="str">
-        <f>CONCATENATE($I$65,"values('",C72,"','",D72,"','",E72,"','",F72,"','",G72,"','",H72,"');")</f>
-        <v>insert into kc_car_fleet_dll.registration_table (license_plate_id, car_id, dt_reg_start, dt_reg_end, registration_amount, curr_id) values('ZTW2748','6','2022-01-05','2023-01-04','155','2');</v>
+        <f t="shared" si="6"/>
+        <v>insert into kc_car_fleet_dll.registration (license_plate_id, car_id, dt_reg_start, dt_reg_end, registration_amount, curr_id) values('ZTW2748','6','2022-01-05','2023-01-04','155','2');</v>
       </c>
     </row>
     <row r="73" spans="3:9" outlineLevel="1">
@@ -3269,10 +3295,10 @@
       <c r="D73" s="1">
         <v>7</v>
       </c>
-      <c r="E73" s="17" t="s">
+      <c r="E73" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="F73" s="17" t="s">
+      <c r="F73" s="16" t="s">
         <v>180</v>
       </c>
       <c r="G73" s="1">
@@ -3282,8 +3308,8 @@
         <v>2</v>
       </c>
       <c r="I73" t="str">
-        <f>CONCATENATE($I$65,"values('",C73,"','",D73,"','",E73,"','",F73,"','",G73,"','",H73,"');")</f>
-        <v>insert into kc_car_fleet_dll.registration_table (license_plate_id, car_id, dt_reg_start, dt_reg_end, registration_amount, curr_id) values('RSP6195','7','2022-02-28','2023-02-27','261','2');</v>
+        <f t="shared" si="6"/>
+        <v>insert into kc_car_fleet_dll.registration (license_plate_id, car_id, dt_reg_start, dt_reg_end, registration_amount, curr_id) values('RSP6195','7','2022-02-28','2023-02-27','261','2');</v>
       </c>
     </row>
     <row r="74" spans="3:9" outlineLevel="1">
@@ -3293,10 +3319,10 @@
       <c r="D74" s="1">
         <v>8</v>
       </c>
-      <c r="E74" s="17" t="s">
+      <c r="E74" s="16" t="s">
         <v>181</v>
       </c>
-      <c r="F74" s="17" t="s">
+      <c r="F74" s="16" t="s">
         <v>182</v>
       </c>
       <c r="G74" s="1">
@@ -3306,8 +3332,8 @@
         <v>3</v>
       </c>
       <c r="I74" t="str">
-        <f>CONCATENATE($I$65,"values('",C74,"','",D74,"','",E74,"','",F74,"','",G74,"','",H74,"');")</f>
-        <v>insert into kc_car_fleet_dll.registration_table (license_plate_id, car_id, dt_reg_start, dt_reg_end, registration_amount, curr_id) values('LUH4314','8','2022-12-11','2023-12-10','114','3');</v>
+        <f t="shared" si="6"/>
+        <v>insert into kc_car_fleet_dll.registration (license_plate_id, car_id, dt_reg_start, dt_reg_end, registration_amount, curr_id) values('LUH4314','8','2022-12-11','2023-12-10','114','3');</v>
       </c>
     </row>
     <row r="75" spans="3:9" outlineLevel="1">
@@ -3317,10 +3343,10 @@
       <c r="D75" s="1">
         <v>9</v>
       </c>
-      <c r="E75" s="17" t="s">
+      <c r="E75" s="16" t="s">
         <v>183</v>
       </c>
-      <c r="F75" s="17" t="s">
+      <c r="F75" s="16" t="s">
         <v>184</v>
       </c>
       <c r="G75" s="1">
@@ -3330,8 +3356,8 @@
         <v>1</v>
       </c>
       <c r="I75" t="str">
-        <f>CONCATENATE($I$65,"values('",C75,"','",D75,"','",E75,"','",F75,"','",G75,"','",H75,"');")</f>
-        <v>insert into kc_car_fleet_dll.registration_table (license_plate_id, car_id, dt_reg_start, dt_reg_end, registration_amount, curr_id) values('HZI6923','9','2022-03-07','2023-03-06','178','1');</v>
+        <f t="shared" si="6"/>
+        <v>insert into kc_car_fleet_dll.registration (license_plate_id, car_id, dt_reg_start, dt_reg_end, registration_amount, curr_id) values('HZI6923','9','2022-03-07','2023-03-06','178','1');</v>
       </c>
     </row>
     <row r="76" spans="3:9" outlineLevel="1">
@@ -3341,10 +3367,10 @@
       <c r="D76" s="1">
         <v>10</v>
       </c>
-      <c r="E76" s="17" t="s">
+      <c r="E76" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="F76" s="17" t="s">
+      <c r="F76" s="16" t="s">
         <v>186</v>
       </c>
       <c r="G76" s="1">
@@ -3354,13 +3380,13 @@
         <v>1</v>
       </c>
       <c r="I76" t="str">
-        <f>CONCATENATE($I$65,"values('",C76,"','",D76,"','",E76,"','",F76,"','",G76,"','",H76,"');")</f>
-        <v>insert into kc_car_fleet_dll.registration_table (license_plate_id, car_id, dt_reg_start, dt_reg_end, registration_amount, curr_id) values('ZLO5123','10','2022-08-09','2023-08-08','199','1');</v>
+        <f t="shared" si="6"/>
+        <v>insert into kc_car_fleet_dll.registration (license_plate_id, car_id, dt_reg_start, dt_reg_end, registration_amount, curr_id) values('ZLO5123','10','2022-08-09','2023-08-08','199','1');</v>
       </c>
     </row>
     <row r="80" spans="3:9">
-      <c r="H80" s="21" t="s">
-        <v>218</v>
+      <c r="H80" s="20" t="s">
+        <v>236</v>
       </c>
       <c r="I80" t="str">
         <f>_xlfn.CONCAT("
@@ -3369,14 +3395,14 @@
 references kc_car_fleet_dll.",A126,"(",D66,")"
 )</f>
         <v xml:space="preserve">
-alter table kc_car_fleet_dll.registration_table 
+alter table kc_car_fleet_dll.registration 
 add constraint car_id_FK foreign key (car_id) 
 references kc_car_fleet_dll.car_table(car_id)</v>
       </c>
     </row>
     <row r="81" spans="4:9">
-      <c r="H81" s="20" t="s">
-        <v>219</v>
+      <c r="H81" s="19" t="s">
+        <v>237</v>
       </c>
       <c r="I81" t="str">
         <f>_xlfn.CONCAT("
@@ -3385,9 +3411,9 @@
 references kc_car_fleet_dll.",G57,"(",H66,")"
 )</f>
         <v xml:space="preserve">
-alter table kc_car_fleet_dll.registration_table 
+alter table kc_car_fleet_dll.registration 
 add constraint curr_id_FK foreign key (curr_id) 
-references kc_car_fleet_dll.currency_table(curr_id)</v>
+references kc_car_fleet_dll.currency(curr_id)</v>
       </c>
     </row>
     <row r="84" spans="4:9">
@@ -3399,27 +3425,27 @@
 G86," date not null, ",
 H86," date not null, 
 constraint ",D86,"_pk primary key(",D86,"));")</f>
-        <v>create table kc_car_fleet_dll.insurance_policy_table (ins_pol_id varchar(10) not null, car_id varchar(100)  not null, ins_co_id varchar(100)  not null, dt_ins_start date not null, dt_ins_end date not null, 
+        <v>create table kc_car_fleet_dll.insurance_policy (ins_pol_id varchar(10) not null, car_id varchar(100)  not null, ins_co_id varchar(100)  not null, dt_ins_start date not null, dt_ins_end date not null, 
 constraint ins_pol_id_pk primary key(ins_pol_id));</v>
       </c>
     </row>
     <row r="85" spans="4:9">
       <c r="D85" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E85" s="21" t="s">
-        <v>218</v>
-      </c>
-      <c r="F85" s="21" t="s">
-        <v>220</v>
-      </c>
-      <c r="G85" s="15">
+        <v>238</v>
+      </c>
+      <c r="E85" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="F85" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="G85" s="14">
         <v>43101</v>
       </c>
       <c r="H85" s="7"/>
-      <c r="I85" s="22" t="str">
+      <c r="I85" s="21" t="str">
         <f>CONCATENATE("insert into kc_car_fleet_dll.",D85," (",D86,", ",E86,", ",F86,", ",G86,", ",H86,") ")</f>
-        <v xml:space="preserve">insert into kc_car_fleet_dll.insurance_policy_table (ins_pol_id, car_id, ins_co_id, dt_ins_start, dt_ins_end) </v>
+        <v xml:space="preserve">insert into kc_car_fleet_dll.insurance_policy (ins_pol_id, car_id, ins_co_id, dt_ins_start, dt_ins_end) </v>
       </c>
     </row>
     <row r="86" spans="4:9">
@@ -3443,7 +3469,7 @@
       </c>
     </row>
     <row r="87" spans="4:9" ht="15" outlineLevel="1">
-      <c r="D87" s="16" t="s">
+      <c r="D87" s="15" t="s">
         <v>137</v>
       </c>
       <c r="E87" s="1">
@@ -3452,19 +3478,19 @@
       <c r="F87" s="1">
         <v>3</v>
       </c>
-      <c r="G87" s="17" t="s">
+      <c r="G87" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="H87" s="17" t="s">
+      <c r="H87" s="16" t="s">
         <v>150</v>
       </c>
       <c r="I87" t="str">
         <f>CONCATENATE($I$85,"values('",D87,"','",E87,"','",F87,"','",G87,"','",H87,"');")</f>
-        <v>insert into kc_car_fleet_dll.insurance_policy_table (ins_pol_id, car_id, ins_co_id, dt_ins_start, dt_ins_end) values('P83723','2','3','2022-08-02','2023-08-01');</v>
+        <v>insert into kc_car_fleet_dll.insurance_policy (ins_pol_id, car_id, ins_co_id, dt_ins_start, dt_ins_end) values('P83723','2','3','2022-08-02','2023-08-01');</v>
       </c>
     </row>
     <row r="88" spans="4:9" ht="15" outlineLevel="1">
-      <c r="D88" s="16" t="s">
+      <c r="D88" s="15" t="s">
         <v>138</v>
       </c>
       <c r="E88" s="1">
@@ -3473,19 +3499,19 @@
       <c r="F88" s="1">
         <v>2</v>
       </c>
-      <c r="G88" s="17" t="s">
+      <c r="G88" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="H88" s="17" t="s">
+      <c r="H88" s="16" t="s">
         <v>152</v>
       </c>
       <c r="I88" t="str">
-        <f t="shared" ref="I88:I96" si="6">CONCATENATE($I$85,"values('",D88,"','",E88,"','",F88,"','",G88,"','",H88,"');")</f>
-        <v>insert into kc_car_fleet_dll.insurance_policy_table (ins_pol_id, car_id, ins_co_id, dt_ins_start, dt_ins_end) values('P32508','10','2','2022-01-19','2023-01-18');</v>
+        <f t="shared" ref="I88:I96" si="7">CONCATENATE($I$85,"values('",D88,"','",E88,"','",F88,"','",G88,"','",H88,"');")</f>
+        <v>insert into kc_car_fleet_dll.insurance_policy (ins_pol_id, car_id, ins_co_id, dt_ins_start, dt_ins_end) values('P32508','10','2','2022-01-19','2023-01-18');</v>
       </c>
     </row>
     <row r="89" spans="4:9" ht="15" outlineLevel="1">
-      <c r="D89" s="16" t="s">
+      <c r="D89" s="15" t="s">
         <v>139</v>
       </c>
       <c r="E89" s="1">
@@ -3494,19 +3520,19 @@
       <c r="F89" s="1">
         <v>3</v>
       </c>
-      <c r="G89" s="17" t="s">
+      <c r="G89" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="H89" s="17" t="s">
+      <c r="H89" s="16" t="s">
         <v>154</v>
       </c>
       <c r="I89" t="str">
-        <f t="shared" si="6"/>
-        <v>insert into kc_car_fleet_dll.insurance_policy_table (ins_pol_id, car_id, ins_co_id, dt_ins_start, dt_ins_end) values('P25409','8','3','2022-11-13','2023-11-12');</v>
+        <f t="shared" si="7"/>
+        <v>insert into kc_car_fleet_dll.insurance_policy (ins_pol_id, car_id, ins_co_id, dt_ins_start, dt_ins_end) values('P25409','8','3','2022-11-13','2023-11-12');</v>
       </c>
     </row>
     <row r="90" spans="4:9" ht="15" outlineLevel="1">
-      <c r="D90" s="16" t="s">
+      <c r="D90" s="15" t="s">
         <v>140</v>
       </c>
       <c r="E90" s="1">
@@ -3515,19 +3541,19 @@
       <c r="F90" s="1">
         <v>1</v>
       </c>
-      <c r="G90" s="17" t="s">
+      <c r="G90" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="H90" s="17" t="s">
+      <c r="H90" s="16" t="s">
         <v>156</v>
       </c>
       <c r="I90" t="str">
-        <f t="shared" si="6"/>
-        <v>insert into kc_car_fleet_dll.insurance_policy_table (ins_pol_id, car_id, ins_co_id, dt_ins_start, dt_ins_end) values('P71722','9','1','2022-01-14','2023-01-13');</v>
+        <f t="shared" si="7"/>
+        <v>insert into kc_car_fleet_dll.insurance_policy (ins_pol_id, car_id, ins_co_id, dt_ins_start, dt_ins_end) values('P71722','9','1','2022-01-14','2023-01-13');</v>
       </c>
     </row>
     <row r="91" spans="4:9" ht="15" outlineLevel="1">
-      <c r="D91" s="16" t="s">
+      <c r="D91" s="15" t="s">
         <v>141</v>
       </c>
       <c r="E91" s="1">
@@ -3536,19 +3562,19 @@
       <c r="F91" s="1">
         <v>2</v>
       </c>
-      <c r="G91" s="17" t="s">
+      <c r="G91" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="H91" s="17" t="s">
+      <c r="H91" s="16" t="s">
         <v>158</v>
       </c>
       <c r="I91" t="str">
-        <f t="shared" si="6"/>
-        <v>insert into kc_car_fleet_dll.insurance_policy_table (ins_pol_id, car_id, ins_co_id, dt_ins_start, dt_ins_end) values('P36494','7','2','2022-07-25','2023-07-24');</v>
+        <f t="shared" si="7"/>
+        <v>insert into kc_car_fleet_dll.insurance_policy (ins_pol_id, car_id, ins_co_id, dt_ins_start, dt_ins_end) values('P36494','7','2','2022-07-25','2023-07-24');</v>
       </c>
     </row>
     <row r="92" spans="4:9" ht="15" outlineLevel="1">
-      <c r="D92" s="16" t="s">
+      <c r="D92" s="15" t="s">
         <v>142</v>
       </c>
       <c r="E92" s="1">
@@ -3557,19 +3583,19 @@
       <c r="F92" s="1">
         <v>2</v>
       </c>
-      <c r="G92" s="17" t="s">
+      <c r="G92" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="H92" s="17" t="s">
+      <c r="H92" s="16" t="s">
         <v>158</v>
       </c>
       <c r="I92" t="str">
-        <f t="shared" si="6"/>
-        <v>insert into kc_car_fleet_dll.insurance_policy_table (ins_pol_id, car_id, ins_co_id, dt_ins_start, dt_ins_end) values('P31162','1','2','2022-07-25','2023-07-24');</v>
+        <f t="shared" si="7"/>
+        <v>insert into kc_car_fleet_dll.insurance_policy (ins_pol_id, car_id, ins_co_id, dt_ins_start, dt_ins_end) values('P31162','1','2','2022-07-25','2023-07-24');</v>
       </c>
     </row>
     <row r="93" spans="4:9" ht="15" outlineLevel="1">
-      <c r="D93" s="16" t="s">
+      <c r="D93" s="15" t="s">
         <v>143</v>
       </c>
       <c r="E93" s="1">
@@ -3578,19 +3604,19 @@
       <c r="F93" s="1">
         <v>2</v>
       </c>
-      <c r="G93" s="17" t="s">
+      <c r="G93" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="H93" s="17" t="s">
+      <c r="H93" s="16" t="s">
         <v>160</v>
       </c>
       <c r="I93" t="str">
-        <f t="shared" si="6"/>
-        <v>insert into kc_car_fleet_dll.insurance_policy_table (ins_pol_id, car_id, ins_co_id, dt_ins_start, dt_ins_end) values('P73660','3','2','2022-01-29','2023-01-28');</v>
+        <f t="shared" si="7"/>
+        <v>insert into kc_car_fleet_dll.insurance_policy (ins_pol_id, car_id, ins_co_id, dt_ins_start, dt_ins_end) values('P73660','3','2','2022-01-29','2023-01-28');</v>
       </c>
     </row>
     <row r="94" spans="4:9" ht="15" outlineLevel="1">
-      <c r="D94" s="16" t="s">
+      <c r="D94" s="15" t="s">
         <v>144</v>
       </c>
       <c r="E94" s="1">
@@ -3599,19 +3625,19 @@
       <c r="F94" s="1">
         <v>2</v>
       </c>
-      <c r="G94" s="17" t="s">
+      <c r="G94" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="H94" s="17" t="s">
+      <c r="H94" s="16" t="s">
         <v>162</v>
       </c>
       <c r="I94" t="str">
-        <f t="shared" si="6"/>
-        <v>insert into kc_car_fleet_dll.insurance_policy_table (ins_pol_id, car_id, ins_co_id, dt_ins_start, dt_ins_end) values('P85940','4','2','2022-07-28','2023-07-27');</v>
+        <f t="shared" si="7"/>
+        <v>insert into kc_car_fleet_dll.insurance_policy (ins_pol_id, car_id, ins_co_id, dt_ins_start, dt_ins_end) values('P85940','4','2','2022-07-28','2023-07-27');</v>
       </c>
     </row>
     <row r="95" spans="4:9" ht="15" outlineLevel="1">
-      <c r="D95" s="16" t="s">
+      <c r="D95" s="15" t="s">
         <v>145</v>
       </c>
       <c r="E95" s="1">
@@ -3620,19 +3646,19 @@
       <c r="F95" s="1">
         <v>3</v>
       </c>
-      <c r="G95" s="17" t="s">
+      <c r="G95" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="H95" s="17" t="s">
+      <c r="H95" s="16" t="s">
         <v>164</v>
       </c>
       <c r="I95" t="str">
-        <f t="shared" si="6"/>
-        <v>insert into kc_car_fleet_dll.insurance_policy_table (ins_pol_id, car_id, ins_co_id, dt_ins_start, dt_ins_end) values('P43571','6','3','2022-02-08','2023-02-07');</v>
+        <f t="shared" si="7"/>
+        <v>insert into kc_car_fleet_dll.insurance_policy (ins_pol_id, car_id, ins_co_id, dt_ins_start, dt_ins_end) values('P43571','6','3','2022-02-08','2023-02-07');</v>
       </c>
     </row>
     <row r="96" spans="4:9" ht="15" outlineLevel="1">
-      <c r="D96" s="16" t="s">
+      <c r="D96" s="15" t="s">
         <v>146</v>
       </c>
       <c r="E96" s="1">
@@ -3641,20 +3667,20 @@
       <c r="F96" s="1">
         <v>2</v>
       </c>
-      <c r="G96" s="17" t="s">
+      <c r="G96" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="H96" s="17" t="s">
+      <c r="H96" s="16" t="s">
         <v>166</v>
       </c>
       <c r="I96" t="str">
-        <f t="shared" si="6"/>
-        <v>insert into kc_car_fleet_dll.insurance_policy_table (ins_pol_id, car_id, ins_co_id, dt_ins_start, dt_ins_end) values('P31802','5','2','2022-08-14','2023-08-13');</v>
+        <f t="shared" si="7"/>
+        <v>insert into kc_car_fleet_dll.insurance_policy (ins_pol_id, car_id, ins_co_id, dt_ins_start, dt_ins_end) values('P31802','5','2','2022-08-14','2023-08-13');</v>
       </c>
     </row>
     <row r="99" spans="3:9">
-      <c r="H99" s="21" t="s">
-        <v>218</v>
+      <c r="H99" s="20" t="s">
+        <v>236</v>
       </c>
       <c r="I99" t="str">
         <f>_xlfn.CONCAT("
@@ -3663,14 +3689,14 @@
 references kc_car_fleet_dll.",A126,"(",E86,")"
 )</f>
         <v xml:space="preserve">
-alter table kc_car_fleet_dll.insurance_policy_table 
+alter table kc_car_fleet_dll.insurance_policy 
 add constraint car_id_FK foreign key (car_id) 
 references kc_car_fleet_dll.car_table(car_id)</v>
       </c>
     </row>
     <row r="100" spans="3:9">
-      <c r="H100" s="20" t="s">
-        <v>220</v>
+      <c r="H100" s="19" t="s">
+        <v>239</v>
       </c>
       <c r="I100" t="str">
         <f>_xlfn.CONCAT("
@@ -3679,9 +3705,9 @@
 references kc_car_fleet_dll.",G47,"(",F86,")"
 )</f>
         <v xml:space="preserve">
-alter table kc_car_fleet_dll.insurance_policy_table 
+alter table kc_car_fleet_dll.insurance_policy 
 add constraint ins_co_id_FK foreign key (ins_co_id) 
-references kc_car_fleet_dll.insurance_company_table(ins_co_id)</v>
+references kc_car_fleet_dll.insurance_company(ins_co_id)</v>
       </c>
     </row>
     <row r="104" spans="3:9">
@@ -3694,26 +3720,26 @@
 G106," varchar(100) not null, ",
 H106," varchar(10) not null, 
 constraint ",C106,"_pk primary key(",C106,"));")</f>
-        <v>create table kc_car_fleet_dll.service_table (service_id varchar(10) not null, car_id varchar(10) not null, odometer_km varchar(10) not null, dt_service date not null, service_amount varchar(100) not null, curr_id varchar(10) not null, 
+        <v>create table kc_car_fleet_dll.service (service_id varchar(10) not null, car_id varchar(10) not null, odometer_km varchar(10) not null, dt_service date not null, service_amount varchar(100) not null, curr_id varchar(10) not null, 
 constraint service_id_pk primary key(service_id));</v>
       </c>
     </row>
     <row r="105" spans="3:9">
       <c r="C105" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D105" s="21" t="s">
-        <v>218</v>
+        <v>240</v>
+      </c>
+      <c r="D105" s="20" t="s">
+        <v>236</v>
       </c>
       <c r="E105" s="7"/>
       <c r="F105" s="7"/>
       <c r="G105" s="7"/>
-      <c r="H105" s="21" t="s">
-        <v>219</v>
-      </c>
-      <c r="I105" s="22" t="str">
+      <c r="H105" s="20" t="s">
+        <v>237</v>
+      </c>
+      <c r="I105" s="21" t="str">
         <f>CONCATENATE("insert into kc_car_fleet_dll.",C105," (",C106,", ",D106,", ",E106,", ",F106,", ",G106,", ",H106,") ")</f>
-        <v xml:space="preserve">insert into kc_car_fleet_dll.service_table (service_id, car_id, odometer_km, dt_service, service_amount, curr_id) </v>
+        <v xml:space="preserve">insert into kc_car_fleet_dll.service (service_id, car_id, odometer_km, dt_service, service_amount, curr_id) </v>
       </c>
     </row>
     <row r="106" spans="3:9">
@@ -3732,7 +3758,7 @@
       <c r="G106" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H106" s="19" t="s">
+      <c r="H106" s="18" t="s">
         <v>98</v>
       </c>
       <c r="I106" s="10" t="s">
@@ -3749,7 +3775,7 @@
       <c r="E107" s="1">
         <v>38229</v>
       </c>
-      <c r="F107" s="17" t="s">
+      <c r="F107" s="16" t="s">
         <v>208</v>
       </c>
       <c r="G107" s="1">
@@ -3761,7 +3787,7 @@
       </c>
       <c r="I107" t="str">
         <f ca="1">CONCATENATE($I$105,"values('",C107,"','",D107,"','",E107,"','",F107,"','",G107,"','",H107,"');")</f>
-        <v>insert into kc_car_fleet_dll.service_table (service_id, car_id, odometer_km, dt_service, service_amount, curr_id) values('S009','1','38229','2022-08-30','564','3');</v>
+        <v>insert into kc_car_fleet_dll.service (service_id, car_id, odometer_km, dt_service, service_amount, curr_id) values('S009','1','38229','2022-08-30','564','3');</v>
       </c>
     </row>
     <row r="108" spans="3:9" outlineLevel="1">
@@ -3774,7 +3800,7 @@
       <c r="E108" s="1">
         <v>50016</v>
       </c>
-      <c r="F108" s="17" t="s">
+      <c r="F108" s="16" t="s">
         <v>209</v>
       </c>
       <c r="G108" s="1">
@@ -3784,8 +3810,8 @@
         <v>2</v>
       </c>
       <c r="I108" t="str">
-        <f t="shared" ref="I108:I116" si="7">CONCATENATE($I$105,"values('",C108,"','",D108,"','",E108,"','",F108,"','",G108,"','",H108,"');")</f>
-        <v>insert into kc_car_fleet_dll.service_table (service_id, car_id, odometer_km, dt_service, service_amount, curr_id) values('S007','2','50016','2022-11-01','266','2');</v>
+        <f t="shared" ref="I108:I116" si="8">CONCATENATE($I$105,"values('",C108,"','",D108,"','",E108,"','",F108,"','",G108,"','",H108,"');")</f>
+        <v>insert into kc_car_fleet_dll.service (service_id, car_id, odometer_km, dt_service, service_amount, curr_id) values('S007','2','50016','2022-11-01','266','2');</v>
       </c>
     </row>
     <row r="109" spans="3:9" outlineLevel="1">
@@ -3798,7 +3824,7 @@
       <c r="E109" s="1">
         <v>39177</v>
       </c>
-      <c r="F109" s="17" t="s">
+      <c r="F109" s="16" t="s">
         <v>210</v>
       </c>
       <c r="G109" s="1">
@@ -3808,8 +3834,8 @@
         <v>2</v>
       </c>
       <c r="I109" t="str">
-        <f t="shared" si="7"/>
-        <v>insert into kc_car_fleet_dll.service_table (service_id, car_id, odometer_km, dt_service, service_amount, curr_id) values('S008','3','39177','2022-06-25','201','2');</v>
+        <f t="shared" si="8"/>
+        <v>insert into kc_car_fleet_dll.service (service_id, car_id, odometer_km, dt_service, service_amount, curr_id) values('S008','3','39177','2022-06-25','201','2');</v>
       </c>
     </row>
     <row r="110" spans="3:9" outlineLevel="1">
@@ -3822,7 +3848,7 @@
       <c r="E110" s="1">
         <v>75250</v>
       </c>
-      <c r="F110" s="17" t="s">
+      <c r="F110" s="16" t="s">
         <v>211</v>
       </c>
       <c r="G110" s="1">
@@ -3832,8 +3858,8 @@
         <v>1</v>
       </c>
       <c r="I110" t="str">
-        <f t="shared" si="7"/>
-        <v>insert into kc_car_fleet_dll.service_table (service_id, car_id, odometer_km, dt_service, service_amount, curr_id) values('S010','4','75250','2022-06-20','213','1');</v>
+        <f t="shared" si="8"/>
+        <v>insert into kc_car_fleet_dll.service (service_id, car_id, odometer_km, dt_service, service_amount, curr_id) values('S010','4','75250','2022-06-20','213','1');</v>
       </c>
     </row>
     <row r="111" spans="3:9" outlineLevel="1">
@@ -3846,7 +3872,7 @@
       <c r="E111" s="1">
         <v>46870</v>
       </c>
-      <c r="F111" s="17" t="s">
+      <c r="F111" s="16" t="s">
         <v>165</v>
       </c>
       <c r="G111" s="1">
@@ -3856,8 +3882,8 @@
         <v>3</v>
       </c>
       <c r="I111" t="str">
-        <f t="shared" si="7"/>
-        <v>insert into kc_car_fleet_dll.service_table (service_id, car_id, odometer_km, dt_service, service_amount, curr_id) values('S002','5','46870','2022-08-14','568','3');</v>
+        <f t="shared" si="8"/>
+        <v>insert into kc_car_fleet_dll.service (service_id, car_id, odometer_km, dt_service, service_amount, curr_id) values('S002','5','46870','2022-08-14','568','3');</v>
       </c>
     </row>
     <row r="112" spans="3:9" outlineLevel="1">
@@ -3870,7 +3896,7 @@
       <c r="E112" s="1">
         <v>46120</v>
       </c>
-      <c r="F112" s="17" t="s">
+      <c r="F112" s="16" t="s">
         <v>212</v>
       </c>
       <c r="G112" s="1">
@@ -3880,8 +3906,8 @@
         <v>2</v>
       </c>
       <c r="I112" t="str">
-        <f t="shared" si="7"/>
-        <v>insert into kc_car_fleet_dll.service_table (service_id, car_id, odometer_km, dt_service, service_amount, curr_id) values('S006','6','46120','2022-10-15','590','2');</v>
+        <f t="shared" si="8"/>
+        <v>insert into kc_car_fleet_dll.service (service_id, car_id, odometer_km, dt_service, service_amount, curr_id) values('S006','6','46120','2022-10-15','590','2');</v>
       </c>
     </row>
     <row r="113" spans="1:9" outlineLevel="1">
@@ -3894,7 +3920,7 @@
       <c r="E113" s="1">
         <v>61918</v>
       </c>
-      <c r="F113" s="17" t="s">
+      <c r="F113" s="16" t="s">
         <v>213</v>
       </c>
       <c r="G113" s="1">
@@ -3904,8 +3930,8 @@
         <v>1</v>
       </c>
       <c r="I113" t="str">
-        <f t="shared" si="7"/>
-        <v>insert into kc_car_fleet_dll.service_table (service_id, car_id, odometer_km, dt_service, service_amount, curr_id) values('S004','7','61918','2022-09-22','343','1');</v>
+        <f t="shared" si="8"/>
+        <v>insert into kc_car_fleet_dll.service (service_id, car_id, odometer_km, dt_service, service_amount, curr_id) values('S004','7','61918','2022-09-22','343','1');</v>
       </c>
     </row>
     <row r="114" spans="1:9" outlineLevel="1">
@@ -3918,7 +3944,7 @@
       <c r="E114" s="1">
         <v>41353</v>
       </c>
-      <c r="F114" s="17" t="s">
+      <c r="F114" s="16" t="s">
         <v>214</v>
       </c>
       <c r="G114" s="1">
@@ -3928,8 +3954,8 @@
         <v>1</v>
       </c>
       <c r="I114" t="str">
-        <f t="shared" si="7"/>
-        <v>insert into kc_car_fleet_dll.service_table (service_id, car_id, odometer_km, dt_service, service_amount, curr_id) values('S005','8','41353','2022-10-13','296','1');</v>
+        <f t="shared" si="8"/>
+        <v>insert into kc_car_fleet_dll.service (service_id, car_id, odometer_km, dt_service, service_amount, curr_id) values('S005','8','41353','2022-10-13','296','1');</v>
       </c>
     </row>
     <row r="115" spans="1:9" outlineLevel="1">
@@ -3942,7 +3968,7 @@
       <c r="E115" s="1">
         <v>28804</v>
       </c>
-      <c r="F115" s="17" t="s">
+      <c r="F115" s="16" t="s">
         <v>215</v>
       </c>
       <c r="G115" s="1">
@@ -3952,8 +3978,8 @@
         <v>2</v>
       </c>
       <c r="I115" t="str">
-        <f t="shared" si="7"/>
-        <v>insert into kc_car_fleet_dll.service_table (service_id, car_id, odometer_km, dt_service, service_amount, curr_id) values('S003','9','28804','2022-05-26','499','2');</v>
+        <f t="shared" si="8"/>
+        <v>insert into kc_car_fleet_dll.service (service_id, car_id, odometer_km, dt_service, service_amount, curr_id) values('S003','9','28804','2022-05-26','499','2');</v>
       </c>
     </row>
     <row r="116" spans="1:9" outlineLevel="1">
@@ -3966,7 +3992,7 @@
       <c r="E116" s="1">
         <v>36878</v>
       </c>
-      <c r="F116" s="17" t="s">
+      <c r="F116" s="16" t="s">
         <v>216</v>
       </c>
       <c r="G116" s="1">
@@ -3976,8 +4002,8 @@
         <v>1</v>
       </c>
       <c r="I116" t="str">
-        <f t="shared" si="7"/>
-        <v>insert into kc_car_fleet_dll.service_table (service_id, car_id, odometer_km, dt_service, service_amount, curr_id) values('S001','10','36878','2022-11-29','201','1');</v>
+        <f t="shared" si="8"/>
+        <v>insert into kc_car_fleet_dll.service (service_id, car_id, odometer_km, dt_service, service_amount, curr_id) values('S001','10','36878','2022-11-29','201','1');</v>
       </c>
     </row>
     <row r="119" spans="1:9">
@@ -3986,7 +4012,7 @@
       </c>
     </row>
     <row r="120" spans="1:9">
-      <c r="H120" s="21" t="s">
+      <c r="H120" s="20" t="s">
         <v>218</v>
       </c>
       <c r="I120" t="str">
@@ -3996,13 +4022,13 @@
 references kc_car_fleet_dll.",A126,"(",D106,")"
 )</f>
         <v xml:space="preserve">
-alter table kc_car_fleet_dll.service_table 
+alter table kc_car_fleet_dll.service 
 add constraint car_id_FK foreign key (car_id) 
 references kc_car_fleet_dll.car_table(car_id)</v>
       </c>
     </row>
     <row r="121" spans="1:9">
-      <c r="H121" s="20" t="s">
+      <c r="H121" s="19" t="s">
         <v>219</v>
       </c>
       <c r="I121" t="str">
@@ -4012,9 +4038,9 @@
 references kc_car_fleet_dll.",G57,"(",H106,")"
 )</f>
         <v xml:space="preserve">
-alter table kc_car_fleet_dll.service_table 
+alter table kc_car_fleet_dll.service 
 add constraint curr_id_FK foreign key (curr_id) 
-references kc_car_fleet_dll.currency_table(curr_id)</v>
+references kc_car_fleet_dll.currency(curr_id)</v>
       </c>
     </row>
     <row r="125" spans="1:9">
@@ -4036,22 +4062,22 @@
         <v>6</v>
       </c>
       <c r="B126" s="8"/>
-      <c r="C126" s="21" t="s">
+      <c r="C126" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="D126" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="E126" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="F126" s="20" t="s">
         <v>223</v>
       </c>
-      <c r="D126" s="21" t="s">
+      <c r="G126" s="20" t="s">
         <v>224</v>
       </c>
-      <c r="E126" s="21" t="s">
-        <v>225</v>
-      </c>
-      <c r="F126" s="21" t="s">
-        <v>226</v>
-      </c>
-      <c r="G126" s="21" t="s">
-        <v>227</v>
-      </c>
-      <c r="I126" s="22" t="str">
+      <c r="I126" s="21" t="str">
         <f>CONCATENATE("insert into kc_car_fleet_dll.",A126," (",A127,", ",B127,", ",C127,", ",D127,", ",E127,", ",F127,", ",G127,", ",H127,") ")</f>
         <v xml:space="preserve">insert into kc_car_fleet_dll.car_table (car_id, dt_purchased, model_id, color_id, license_plate_id, ins_pol_id, service_id, total_km) </v>
       </c>
@@ -4072,14 +4098,14 @@
       <c r="E127" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="F127" s="19" t="s">
+      <c r="F127" s="18" t="s">
         <v>93</v>
       </c>
       <c r="G127" s="6" t="s">
         <v>92</v>
       </c>
       <c r="H127" s="6" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="I127" s="10" t="s">
         <v>99</v>
@@ -4089,21 +4115,21 @@
       <c r="A128" s="1">
         <v>1</v>
       </c>
-      <c r="B128" s="17" t="s">
+      <c r="B128" s="16" t="s">
         <v>187</v>
       </c>
       <c r="C128" s="1">
         <f ca="1">RANDBETWEEN(1,14)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D128" s="1">
         <f ca="1">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E128" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="F128" s="16" t="s">
+      <c r="F128" s="15" t="s">
         <v>142</v>
       </c>
       <c r="G128" s="1" t="s">
@@ -4114,28 +4140,28 @@
       </c>
       <c r="I128" t="str">
         <f ca="1">CONCATENATE($I$126,"values('",A128,"','",B128,"','",C128,"','",D128,"','",E128,"','",F128,"','",G128,"','",H128,"');")</f>
-        <v>insert into kc_car_fleet_dll.car_table (car_id, dt_purchased, model_id, color_id, license_plate_id, ins_pol_id, service_id, total_km) values('1','2018-10-26','10','4','BGM937','P31162','S009','49657');</v>
+        <v>insert into kc_car_fleet_dll.car_table (car_id, dt_purchased, model_id, color_id, license_plate_id, ins_pol_id, service_id, total_km) values('1','2018-10-26','11','3','BGM937','P31162','S009','49657');</v>
       </c>
     </row>
     <row r="129" spans="1:9" ht="15">
       <c r="A129" s="1">
         <v>2</v>
       </c>
-      <c r="B129" s="17" t="s">
+      <c r="B129" s="16" t="s">
         <v>188</v>
       </c>
       <c r="C129" s="1">
-        <f t="shared" ref="C129:C137" ca="1" si="8">RANDBETWEEN(1,14)</f>
-        <v>7</v>
+        <f t="shared" ref="C129:C137" ca="1" si="9">RANDBETWEEN(1,14)</f>
+        <v>6</v>
       </c>
       <c r="D129" s="1">
-        <f t="shared" ref="D129:D137" ca="1" si="9">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <f t="shared" ref="D129:D137" ca="1" si="10">RANDBETWEEN(1,4)</f>
+        <v>1</v>
       </c>
       <c r="E129" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="F129" s="16" t="s">
+      <c r="F129" s="15" t="s">
         <v>137</v>
       </c>
       <c r="G129" s="1" t="s">
@@ -4145,29 +4171,29 @@
         <v>64896</v>
       </c>
       <c r="I129" t="str">
-        <f t="shared" ref="I129:I137" ca="1" si="10">CONCATENATE($I$126,"values('",A129,"','",B129,"','",C129,"','",D129,"','",E129,"','",F129,"','",G129,"','",H129,"');")</f>
-        <v>insert into kc_car_fleet_dll.car_table (car_id, dt_purchased, model_id, color_id, license_plate_id, ins_pol_id, service_id, total_km) values('2','2018-05-29','7','2','TYC246','P83723','S007','64896');</v>
+        <f t="shared" ref="I129:I137" ca="1" si="11">CONCATENATE($I$126,"values('",A129,"','",B129,"','",C129,"','",D129,"','",E129,"','",F129,"','",G129,"','",H129,"');")</f>
+        <v>insert into kc_car_fleet_dll.car_table (car_id, dt_purchased, model_id, color_id, license_plate_id, ins_pol_id, service_id, total_km) values('2','2018-05-29','6','1','TYC246','P83723','S007','64896');</v>
       </c>
     </row>
     <row r="130" spans="1:9" ht="15">
       <c r="A130" s="1">
         <v>3</v>
       </c>
-      <c r="B130" s="17" t="s">
+      <c r="B130" s="16" t="s">
         <v>189</v>
       </c>
       <c r="C130" s="1">
-        <f t="shared" ca="1" si="8"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>9</v>
       </c>
       <c r="D130" s="1">
-        <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
       </c>
       <c r="E130" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="F130" s="16" t="s">
+      <c r="F130" s="15" t="s">
         <v>143</v>
       </c>
       <c r="G130" s="1" t="s">
@@ -4177,29 +4203,29 @@
         <v>52524</v>
       </c>
       <c r="I130" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>insert into kc_car_fleet_dll.car_table (car_id, dt_purchased, model_id, color_id, license_plate_id, ins_pol_id, service_id, total_km) values('3','2018-09-10','5','4','VXK5925','P73660','S008','52524');</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>insert into kc_car_fleet_dll.car_table (car_id, dt_purchased, model_id, color_id, license_plate_id, ins_pol_id, service_id, total_km) values('3','2018-09-10','9','1','VXK5925','P73660','S008','52524');</v>
       </c>
     </row>
     <row r="131" spans="1:9" ht="15">
       <c r="A131" s="1">
         <v>4</v>
       </c>
-      <c r="B131" s="17" t="s">
+      <c r="B131" s="16" t="s">
         <v>190</v>
       </c>
       <c r="C131" s="1">
-        <f t="shared" ca="1" si="8"/>
-        <v>6</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>7</v>
       </c>
       <c r="D131" s="1">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v>2</v>
       </c>
       <c r="E131" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="F131" s="16" t="s">
+      <c r="F131" s="15" t="s">
         <v>144</v>
       </c>
       <c r="G131" s="1" t="s">
@@ -4209,29 +4235,29 @@
         <v>77935</v>
       </c>
       <c r="I131" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>insert into kc_car_fleet_dll.car_table (car_id, dt_purchased, model_id, color_id, license_plate_id, ins_pol_id, service_id, total_km) values('4','2018-03-13','6','2','UQO8298','P85940','S010','77935');</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>insert into kc_car_fleet_dll.car_table (car_id, dt_purchased, model_id, color_id, license_plate_id, ins_pol_id, service_id, total_km) values('4','2018-03-13','7','2','UQO8298','P85940','S010','77935');</v>
       </c>
     </row>
     <row r="132" spans="1:9" ht="15">
       <c r="A132" s="1">
         <v>5</v>
       </c>
-      <c r="B132" s="17" t="s">
+      <c r="B132" s="16" t="s">
         <v>191</v>
       </c>
       <c r="C132" s="1">
-        <f t="shared" ca="1" si="8"/>
-        <v>7</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>13</v>
       </c>
       <c r="D132" s="1">
-        <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>4</v>
       </c>
       <c r="E132" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="F132" s="16" t="s">
+      <c r="F132" s="15" t="s">
         <v>146</v>
       </c>
       <c r="G132" s="1" t="s">
@@ -4241,29 +4267,29 @@
         <v>49589</v>
       </c>
       <c r="I132" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>insert into kc_car_fleet_dll.car_table (car_id, dt_purchased, model_id, color_id, license_plate_id, ins_pol_id, service_id, total_km) values('5','2016-03-22','7','1','ELO2020','P31802','S002','49589');</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>insert into kc_car_fleet_dll.car_table (car_id, dt_purchased, model_id, color_id, license_plate_id, ins_pol_id, service_id, total_km) values('5','2016-03-22','13','4','ELO2020','P31802','S002','49589');</v>
       </c>
     </row>
     <row r="133" spans="1:9" ht="15">
       <c r="A133" s="1">
         <v>6</v>
       </c>
-      <c r="B133" s="17" t="s">
+      <c r="B133" s="16" t="s">
         <v>135</v>
       </c>
       <c r="C133" s="1">
-        <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
       </c>
       <c r="D133" s="1">
-        <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>4</v>
       </c>
       <c r="E133" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="F133" s="16" t="s">
+      <c r="F133" s="15" t="s">
         <v>145</v>
       </c>
       <c r="G133" s="1" t="s">
@@ -4273,29 +4299,29 @@
         <v>66840</v>
       </c>
       <c r="I133" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>insert into kc_car_fleet_dll.car_table (car_id, dt_purchased, model_id, color_id, license_plate_id, ins_pol_id, service_id, total_km) values('6','2018-06-23','2','3','ZTW2748','P43571','S006','66840');</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>insert into kc_car_fleet_dll.car_table (car_id, dt_purchased, model_id, color_id, license_plate_id, ins_pol_id, service_id, total_km) values('6','2018-06-23','1','4','ZTW2748','P43571','S006','66840');</v>
       </c>
     </row>
     <row r="134" spans="1:9" ht="15">
       <c r="A134" s="1">
         <v>7</v>
       </c>
-      <c r="B134" s="17" t="s">
+      <c r="B134" s="16" t="s">
         <v>192</v>
       </c>
       <c r="C134" s="1">
-        <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>14</v>
       </c>
       <c r="D134" s="1">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v>1</v>
       </c>
       <c r="E134" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="F134" s="16" t="s">
+      <c r="F134" s="15" t="s">
         <v>141</v>
       </c>
       <c r="G134" s="1" t="s">
@@ -4305,29 +4331,29 @@
         <v>79469</v>
       </c>
       <c r="I134" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>insert into kc_car_fleet_dll.car_table (car_id, dt_purchased, model_id, color_id, license_plate_id, ins_pol_id, service_id, total_km) values('7','2020-02-02','2','1','RSP6195','P36494','S004','79469');</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>insert into kc_car_fleet_dll.car_table (car_id, dt_purchased, model_id, color_id, license_plate_id, ins_pol_id, service_id, total_km) values('7','2020-02-02','14','1','RSP6195','P36494','S004','79469');</v>
       </c>
     </row>
     <row r="135" spans="1:9" ht="15">
       <c r="A135" s="1">
         <v>8</v>
       </c>
-      <c r="B135" s="17" t="s">
+      <c r="B135" s="16" t="s">
         <v>193</v>
       </c>
       <c r="C135" s="1">
-        <f t="shared" ca="1" si="8"/>
-        <v>8</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>3</v>
       </c>
       <c r="D135" s="1">
-        <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>4</v>
       </c>
       <c r="E135" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="F135" s="16" t="s">
+      <c r="F135" s="15" t="s">
         <v>139</v>
       </c>
       <c r="G135" s="1" t="s">
@@ -4337,29 +4363,29 @@
         <v>42893</v>
       </c>
       <c r="I135" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>insert into kc_car_fleet_dll.car_table (car_id, dt_purchased, model_id, color_id, license_plate_id, ins_pol_id, service_id, total_km) values('8','2016-11-10','8','2','LUH4314','P25409','S005','42893');</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>insert into kc_car_fleet_dll.car_table (car_id, dt_purchased, model_id, color_id, license_plate_id, ins_pol_id, service_id, total_km) values('8','2016-11-10','3','4','LUH4314','P25409','S005','42893');</v>
       </c>
     </row>
     <row r="136" spans="1:9" ht="15">
       <c r="A136" s="1">
         <v>9</v>
       </c>
-      <c r="B136" s="17" t="s">
+      <c r="B136" s="16" t="s">
         <v>194</v>
       </c>
       <c r="C136" s="1">
-        <f t="shared" ca="1" si="8"/>
-        <v>7</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>10</v>
       </c>
       <c r="D136" s="1">
-        <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>3</v>
       </c>
       <c r="E136" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="F136" s="16" t="s">
+      <c r="F136" s="15" t="s">
         <v>140</v>
       </c>
       <c r="G136" s="1" t="s">
@@ -4369,29 +4395,29 @@
         <v>31526</v>
       </c>
       <c r="I136" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>insert into kc_car_fleet_dll.car_table (car_id, dt_purchased, model_id, color_id, license_plate_id, ins_pol_id, service_id, total_km) values('9','2019-08-09','7','1','HZI6923','P71722','S003','31526');</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>insert into kc_car_fleet_dll.car_table (car_id, dt_purchased, model_id, color_id, license_plate_id, ins_pol_id, service_id, total_km) values('9','2019-08-09','10','3','HZI6923','P71722','S003','31526');</v>
       </c>
     </row>
     <row r="137" spans="1:9" ht="15">
       <c r="A137" s="1">
         <v>10</v>
       </c>
-      <c r="B137" s="17" t="s">
+      <c r="B137" s="16" t="s">
         <v>195</v>
       </c>
       <c r="C137" s="1">
-        <f t="shared" ca="1" si="8"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>8</v>
       </c>
       <c r="D137" s="1">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v>2</v>
       </c>
       <c r="E137" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="F137" s="16" t="s">
+      <c r="F137" s="15" t="s">
         <v>138</v>
       </c>
       <c r="G137" s="1" t="s">
@@ -4401,53 +4427,53 @@
         <v>37321</v>
       </c>
       <c r="I137" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>insert into kc_car_fleet_dll.car_table (car_id, dt_purchased, model_id, color_id, license_plate_id, ins_pol_id, service_id, total_km) values('10','2016-02-26','9','2','ZLO5123','P32508','S001','37321');</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>insert into kc_car_fleet_dll.car_table (car_id, dt_purchased, model_id, color_id, license_plate_id, ins_pol_id, service_id, total_km) values('10','2016-02-26','8','2','ZLO5123','P32508','S001','37321');</v>
       </c>
     </row>
     <row r="140" spans="1:9">
-      <c r="H140" s="21" t="s">
-        <v>223</v>
+      <c r="H140" s="20" t="s">
+        <v>220</v>
       </c>
       <c r="I140" t="str">
         <f>_xlfn.CONCAT("alter table kc_car_fleet_dll.",A126," add constraint ",C127,"_FK foreign key (",C127,") references kc_car_fleet_dll.",F21,"(",C127,");")</f>
-        <v>alter table kc_car_fleet_dll.car_table add constraint model_id_FK foreign key (model_id) references kc_car_fleet_dll.model_table(model_id);</v>
+        <v>alter table kc_car_fleet_dll.car_table add constraint model_id_FK foreign key (model_id) references kc_car_fleet_dll.model(model_id);</v>
       </c>
     </row>
     <row r="141" spans="1:9">
-      <c r="H141" s="21" t="s">
-        <v>224</v>
+      <c r="H141" s="20" t="s">
+        <v>221</v>
       </c>
       <c r="I141" t="str">
         <f>_xlfn.CONCAT("alter table kc_car_fleet_dll.",A126," add constraint ",D127,"_FK foreign key (",D127,") references kc_car_fleet_dll.",G39,"(",D127,");")</f>
-        <v>alter table kc_car_fleet_dll.car_table add constraint color_id_FK foreign key (color_id) references kc_car_fleet_dll.color_table(color_id);</v>
+        <v>alter table kc_car_fleet_dll.car_table add constraint color_id_FK foreign key (color_id) references kc_car_fleet_dll.color(color_id);</v>
       </c>
     </row>
     <row r="142" spans="1:9">
-      <c r="H142" s="21" t="s">
-        <v>225</v>
+      <c r="H142" s="20" t="s">
+        <v>222</v>
       </c>
       <c r="I142" t="str">
         <f>_xlfn.CONCAT("alter table kc_car_fleet_dll.",A126," add constraint ",E127,"_FK foreign key (",E127,") references kc_car_fleet_dll.",C65,"(",E127,");")</f>
-        <v>alter table kc_car_fleet_dll.car_table add constraint license_plate_id_FK foreign key (license_plate_id) references kc_car_fleet_dll.registration_table(license_plate_id);</v>
+        <v>alter table kc_car_fleet_dll.car_table add constraint license_plate_id_FK foreign key (license_plate_id) references kc_car_fleet_dll.registration(license_plate_id);</v>
       </c>
     </row>
     <row r="143" spans="1:9">
-      <c r="H143" s="21" t="s">
-        <v>226</v>
+      <c r="H143" s="20" t="s">
+        <v>223</v>
       </c>
       <c r="I143" t="str">
         <f>_xlfn.CONCAT("alter table kc_car_fleet_dll.",A126," add constraint ",F127,"_FK foreign key (",F127,") references kc_car_fleet_dll.",D85,"(",F127,");")</f>
-        <v>alter table kc_car_fleet_dll.car_table add constraint ins_pol_id_FK foreign key (ins_pol_id) references kc_car_fleet_dll.insurance_policy_table(ins_pol_id);</v>
+        <v>alter table kc_car_fleet_dll.car_table add constraint ins_pol_id_FK foreign key (ins_pol_id) references kc_car_fleet_dll.insurance_policy(ins_pol_id);</v>
       </c>
     </row>
     <row r="144" spans="1:9">
-      <c r="H144" s="21" t="s">
-        <v>227</v>
+      <c r="H144" s="20" t="s">
+        <v>224</v>
       </c>
       <c r="I144" t="str">
         <f>_xlfn.CONCAT("alter table kc_car_fleet_dll.",A126," add constraint ",G127,"_FK foreign key (",G127,") references kc_car_fleet_dll.",C105,"(",G127,");")</f>
-        <v>alter table kc_car_fleet_dll.car_table add constraint service_id_FK foreign key (service_id) references kc_car_fleet_dll.service_table(service_id);</v>
+        <v>alter table kc_car_fleet_dll.car_table add constraint service_id_FK foreign key (service_id) references kc_car_fleet_dll.service(service_id);</v>
       </c>
     </row>
     <row r="145" spans="8:8">
@@ -4479,11 +4505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{304935D2-0CBF-5044-B3DC-3854351AD42F}">
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-    <sheetView workbookViewId="1">
-      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -4498,7 +4521,7 @@
       <c r="A1" t="s">
         <v>132</v>
       </c>
-      <c r="C1" s="15">
+      <c r="C1" s="14">
         <v>44956</v>
       </c>
       <c r="D1" s="1">
@@ -4510,11 +4533,11 @@
       <c r="F1" s="1">
         <v>10</v>
       </c>
-      <c r="I1" s="15">
+      <c r="I1" s="14">
         <f>J1-364</f>
         <v>44927</v>
       </c>
-      <c r="J1" s="15">
+      <c r="J1" s="14">
         <v>45291</v>
       </c>
     </row>
@@ -4522,7 +4545,7 @@
       <c r="A2" t="s">
         <v>133</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="14">
         <v>43101</v>
       </c>
       <c r="D2" s="1">
@@ -4534,11 +4557,11 @@
       <c r="F2" s="1">
         <v>1</v>
       </c>
-      <c r="I2" s="15">
+      <c r="I2" s="14">
         <f>J2-364</f>
         <v>44563</v>
       </c>
-      <c r="J2" s="15">
+      <c r="J2" s="14">
         <v>44927</v>
       </c>
     </row>
@@ -4567,10 +4590,10 @@
       <c r="H4" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="I4" s="18" t="s">
+      <c r="I4" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="J4" s="18" t="s">
+      <c r="J4" s="17" t="s">
         <v>148</v>
       </c>
     </row>
@@ -4578,327 +4601,327 @@
       <c r="A5" s="4">
         <v>1</v>
       </c>
-      <c r="B5" s="16" t="str">
-        <f ca="1">CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;RANDBETWEEN(0,99)&amp;RANDBETWEEN(10,99)</f>
-        <v>NDA8724</v>
-      </c>
-      <c r="C5" s="15">
+      <c r="B5" s="15" t="str">
+        <f t="shared" ref="B5:B14" ca="1" si="0">CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;RANDBETWEEN(0,99)&amp;RANDBETWEEN(10,99)</f>
+        <v>SDX2057</v>
+      </c>
+      <c r="C5" s="14">
         <v>44479</v>
       </c>
       <c r="D5" s="1">
-        <f ca="1">RANDBETWEEN(D$2,D$1)</f>
-        <v>5</v>
+        <f t="shared" ref="D5:D14" ca="1" si="1">RANDBETWEEN(D$2,D$1)</f>
+        <v>6</v>
       </c>
       <c r="E5" s="1">
-        <f t="shared" ref="E5:F14" ca="1" si="0">RANDBETWEEN(E$2,E$1)</f>
-        <v>1</v>
+        <f t="shared" ref="E5:F14" ca="1" si="2">RANDBETWEEN(E$2,E$1)</f>
+        <v>2</v>
       </c>
       <c r="F5" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="I5" s="15">
-        <f t="shared" ref="I5:I14" ca="1" si="1">RANDBETWEEN(I$2,I$1)</f>
-        <v>44890</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="I5" s="14">
+        <f t="shared" ref="I5:I14" ca="1" si="3">RANDBETWEEN(I$2,I$1)</f>
+        <v>44848</v>
       </c>
       <c r="J5" s="11">
         <f ca="1">I5+364</f>
-        <v>45254</v>
+        <v>45212</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15">
       <c r="A6" s="4">
         <v>2</v>
       </c>
-      <c r="B6" s="16" t="str">
-        <f ca="1">CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;RANDBETWEEN(0,99)&amp;RANDBETWEEN(10,99)</f>
-        <v>IWQ6759</v>
-      </c>
-      <c r="C6" s="15">
+      <c r="B6" s="15" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>SLJ8062</v>
+      </c>
+      <c r="C6" s="14">
         <v>44329</v>
       </c>
       <c r="D6" s="1">
-        <f ca="1">RANDBETWEEN(D$2,D$1)</f>
-        <v>3</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>8</v>
       </c>
       <c r="E6" s="1">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>2</v>
       </c>
       <c r="F6" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I6" s="15">
-        <f t="shared" ca="1" si="1"/>
-        <v>44901</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="I6" s="14">
+        <f t="shared" ca="1" si="3"/>
+        <v>44911</v>
       </c>
       <c r="J6" s="11">
-        <f t="shared" ref="J6:J14" ca="1" si="2">I6+364</f>
-        <v>45265</v>
+        <f t="shared" ref="J6:J14" ca="1" si="4">I6+364</f>
+        <v>45275</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15">
       <c r="A7" s="4">
         <v>3</v>
       </c>
-      <c r="B7" s="16" t="str">
-        <f ca="1">CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;RANDBETWEEN(0,99)&amp;RANDBETWEEN(10,99)</f>
-        <v>RRN761</v>
-      </c>
-      <c r="C7" s="15">
+      <c r="B7" s="15" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>ZSS526</v>
+      </c>
+      <c r="C7" s="14">
         <v>44433</v>
       </c>
       <c r="D7" s="1">
-        <f ca="1">RANDBETWEEN(D$2,D$1)</f>
-        <v>13</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>10</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>4</v>
       </c>
       <c r="F7" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="I7" s="15">
-        <f t="shared" ca="1" si="1"/>
-        <v>44629</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="I7" s="14">
+        <f t="shared" ca="1" si="3"/>
+        <v>44624</v>
       </c>
       <c r="J7" s="11">
-        <f t="shared" ca="1" si="2"/>
-        <v>44993</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>44988</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15">
       <c r="A8" s="4">
         <v>4</v>
       </c>
-      <c r="B8" s="16" t="str">
-        <f ca="1">CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;RANDBETWEEN(0,99)&amp;RANDBETWEEN(10,99)</f>
-        <v>UUZ8623</v>
-      </c>
-      <c r="C8" s="15">
+      <c r="B8" s="15" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>MKT5939</v>
+      </c>
+      <c r="C8" s="14">
         <v>44252</v>
       </c>
       <c r="D8" s="1">
-        <f ca="1">RANDBETWEEN(D$2,D$1)</f>
-        <v>3</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>13</v>
       </c>
       <c r="E8" s="1">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>2</v>
       </c>
       <c r="F8" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="I8" s="15">
-        <f t="shared" ca="1" si="1"/>
-        <v>44673</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I8" s="14">
+        <f t="shared" ca="1" si="3"/>
+        <v>44765</v>
       </c>
       <c r="J8" s="11">
-        <f t="shared" ca="1" si="2"/>
-        <v>45037</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>45129</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15">
       <c r="A9" s="4">
         <v>5</v>
       </c>
-      <c r="B9" s="16" t="str">
-        <f ca="1">CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;RANDBETWEEN(0,99)&amp;RANDBETWEEN(10,99)</f>
-        <v>NOG5436</v>
-      </c>
-      <c r="C9" s="15">
+      <c r="B9" s="15" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>IJA675</v>
+      </c>
+      <c r="C9" s="14">
         <v>43531</v>
       </c>
       <c r="D9" s="1">
-        <f ca="1">RANDBETWEEN(D$2,D$1)</f>
-        <v>11</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
       </c>
       <c r="E9" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="F9" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="I9" s="15">
-        <f t="shared" ca="1" si="1"/>
-        <v>44744</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="I9" s="14">
+        <f t="shared" ca="1" si="3"/>
+        <v>44886</v>
       </c>
       <c r="J9" s="11">
-        <f t="shared" ca="1" si="2"/>
-        <v>45108</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>45250</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15">
       <c r="A10" s="4">
         <v>6</v>
       </c>
-      <c r="B10" s="16" t="str">
-        <f ca="1">CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;RANDBETWEEN(0,99)&amp;RANDBETWEEN(10,99)</f>
-        <v>MKA9437</v>
-      </c>
-      <c r="C10" s="15">
+      <c r="B10" s="15" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>XKJ9627</v>
+      </c>
+      <c r="C10" s="14">
         <v>43984</v>
       </c>
       <c r="D10" s="1">
-        <f ca="1">RANDBETWEEN(D$2,D$1)</f>
-        <v>12</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>8</v>
       </c>
       <c r="E10" s="1">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>3</v>
       </c>
       <c r="F10" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I10" s="15">
-        <f t="shared" ca="1" si="1"/>
-        <v>44716</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="I10" s="14">
+        <f t="shared" ca="1" si="3"/>
+        <v>44692</v>
       </c>
       <c r="J10" s="11">
-        <f t="shared" ca="1" si="2"/>
-        <v>45080</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>45056</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15">
       <c r="A11" s="4">
         <v>7</v>
       </c>
-      <c r="B11" s="16" t="str">
-        <f ca="1">CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;RANDBETWEEN(0,99)&amp;RANDBETWEEN(10,99)</f>
-        <v>UOU7818</v>
-      </c>
-      <c r="C11" s="15">
+      <c r="B11" s="15" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>VZB7649</v>
+      </c>
+      <c r="C11" s="14">
         <v>44943</v>
       </c>
       <c r="D11" s="1">
-        <f ca="1">RANDBETWEEN(D$2,D$1)</f>
-        <v>8</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
       </c>
       <c r="E11" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="F11" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="I11" s="15">
-        <f t="shared" ca="1" si="1"/>
-        <v>44923</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="I11" s="14">
+        <f t="shared" ca="1" si="3"/>
+        <v>44789</v>
       </c>
       <c r="J11" s="11">
-        <f t="shared" ca="1" si="2"/>
-        <v>45287</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>45153</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15">
       <c r="A12" s="4">
         <v>8</v>
       </c>
-      <c r="B12" s="16" t="str">
-        <f ca="1">CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;RANDBETWEEN(0,99)&amp;RANDBETWEEN(10,99)</f>
-        <v>FWC9465</v>
-      </c>
-      <c r="C12" s="15">
+      <c r="B12" s="15" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>VBL2341</v>
+      </c>
+      <c r="C12" s="14">
         <v>43394</v>
       </c>
       <c r="D12" s="1">
-        <f ca="1">RANDBETWEEN(D$2,D$1)</f>
-        <v>5</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
       </c>
       <c r="E12" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="F12" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="I12" s="15">
-        <f t="shared" ca="1" si="1"/>
-        <v>44670</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="I12" s="14">
+        <f t="shared" ca="1" si="3"/>
+        <v>44692</v>
       </c>
       <c r="J12" s="11">
-        <f t="shared" ca="1" si="2"/>
-        <v>45034</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>45056</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15">
       <c r="A13" s="4">
         <v>9</v>
       </c>
-      <c r="B13" s="16" t="str">
-        <f ca="1">CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;RANDBETWEEN(0,99)&amp;RANDBETWEEN(10,99)</f>
-        <v>PUC3635</v>
-      </c>
-      <c r="C13" s="15">
+      <c r="B13" s="15" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>BYL789</v>
+      </c>
+      <c r="C13" s="14">
         <v>44396</v>
       </c>
       <c r="D13" s="1">
-        <f ca="1">RANDBETWEEN(D$2,D$1)</f>
-        <v>9</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>12</v>
       </c>
       <c r="E13" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
       </c>
       <c r="F13" s="1">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>6</v>
       </c>
-      <c r="I13" s="15">
-        <f t="shared" ca="1" si="1"/>
-        <v>44732</v>
+      <c r="I13" s="14">
+        <f t="shared" ca="1" si="3"/>
+        <v>44579</v>
       </c>
       <c r="J13" s="11">
-        <f t="shared" ca="1" si="2"/>
-        <v>45096</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>44943</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15">
       <c r="A14" s="4">
         <v>10</v>
       </c>
-      <c r="B14" s="16" t="str">
-        <f ca="1">CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;RANDBETWEEN(0,99)&amp;RANDBETWEEN(10,99)</f>
-        <v>DNT2695</v>
-      </c>
-      <c r="C14" s="15">
+      <c r="B14" s="15" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>FZH4188</v>
+      </c>
+      <c r="C14" s="14">
         <v>43136</v>
       </c>
       <c r="D14" s="1">
-        <f ca="1">RANDBETWEEN(D$2,D$1)</f>
-        <v>8</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>9</v>
       </c>
       <c r="E14" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
       </c>
       <c r="F14" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="I14" s="15">
-        <f t="shared" ca="1" si="1"/>
-        <v>44677</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="I14" s="14">
+        <f t="shared" ca="1" si="3"/>
+        <v>44816</v>
       </c>
       <c r="J14" s="11">
-        <f t="shared" ca="1" si="2"/>
-        <v>45041</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>45180</v>
       </c>
     </row>
     <row r="18" spans="2:10">
-      <c r="I18" s="17" t="s">
+      <c r="I18" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="J18" s="17" t="s">
+      <c r="J18" s="16" t="s">
         <v>168</v>
       </c>
     </row>
@@ -4906,10 +4929,10 @@
       <c r="B19" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="I19" s="17" t="s">
+      <c r="I19" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="J19" s="17" t="s">
+      <c r="J19" s="16" t="s">
         <v>170</v>
       </c>
     </row>
@@ -4917,113 +4940,113 @@
       <c r="B20" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="I20" s="17" t="s">
+      <c r="I20" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="J20" s="17" t="s">
+      <c r="J20" s="16" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="21" spans="2:10" ht="15">
-      <c r="B21" s="16" t="str">
-        <f t="shared" ref="B21:B30" ca="1" si="3">"P"&amp;RANDBETWEEN(10000,99999)</f>
-        <v>P86290</v>
-      </c>
-      <c r="I21" s="17" t="s">
+      <c r="B21" s="15" t="str">
+        <f t="shared" ref="B21" ca="1" si="5">"P"&amp;RANDBETWEEN(10000,99999)</f>
+        <v>P46320</v>
+      </c>
+      <c r="I21" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="J21" s="17" t="s">
+      <c r="J21" s="16" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="22" spans="2:10" ht="15">
-      <c r="B22" s="16" t="str">
+      <c r="B22" s="15" t="str">
         <f ca="1">"P"&amp;RANDBETWEEN(10000,99999)</f>
-        <v>P77788</v>
-      </c>
-      <c r="I22" s="17" t="s">
+        <v>P99724</v>
+      </c>
+      <c r="I22" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="J22" s="17" t="s">
+      <c r="J22" s="16" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="23" spans="2:10" ht="15">
-      <c r="B23" s="16" t="str">
-        <f t="shared" ref="B23:B30" ca="1" si="4">"P"&amp;RANDBETWEEN(10000,99999)</f>
-        <v>P22528</v>
-      </c>
-      <c r="I23" s="17" t="s">
+      <c r="B23" s="15" t="str">
+        <f t="shared" ref="B23:B30" ca="1" si="6">"P"&amp;RANDBETWEEN(10000,99999)</f>
+        <v>P37894</v>
+      </c>
+      <c r="I23" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="J23" s="17" t="s">
+      <c r="J23" s="16" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="24" spans="2:10" ht="15">
-      <c r="B24" s="16" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>P92574</v>
-      </c>
-      <c r="I24" s="17" t="s">
+      <c r="B24" s="15" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>P38177</v>
+      </c>
+      <c r="I24" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="J24" s="17" t="s">
+      <c r="J24" s="16" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="25" spans="2:10" ht="15">
-      <c r="B25" s="16" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>P59245</v>
-      </c>
-      <c r="I25" s="17" t="s">
+      <c r="B25" s="15" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>P46892</v>
+      </c>
+      <c r="I25" s="16" t="s">
         <v>181</v>
       </c>
-      <c r="J25" s="17" t="s">
+      <c r="J25" s="16" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="26" spans="2:10" ht="15">
-      <c r="B26" s="16" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>P57254</v>
-      </c>
-      <c r="I26" s="17" t="s">
+      <c r="B26" s="15" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>P98013</v>
+      </c>
+      <c r="I26" s="16" t="s">
         <v>183</v>
       </c>
-      <c r="J26" s="17" t="s">
+      <c r="J26" s="16" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="27" spans="2:10" ht="15">
-      <c r="B27" s="16" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>P25286</v>
-      </c>
-      <c r="I27" s="17" t="s">
+      <c r="B27" s="15" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>P53544</v>
+      </c>
+      <c r="I27" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="J27" s="17" t="s">
+      <c r="J27" s="16" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="28" spans="2:10" ht="15">
-      <c r="B28" s="16" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>P45675</v>
+      <c r="B28" s="15" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>P97059</v>
       </c>
     </row>
     <row r="29" spans="2:10" ht="15">
-      <c r="B29" s="16" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>P93329</v>
+      <c r="B29" s="15" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>P64331</v>
       </c>
     </row>
     <row r="30" spans="2:10" ht="15">
-      <c r="B30" s="16" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>P96035</v>
+      <c r="B30" s="15" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>P83110</v>
       </c>
     </row>
     <row r="33" spans="4:5">
@@ -5040,7 +5063,7 @@
       </c>
       <c r="E34" s="1" cm="1">
         <f t="array" aca="1" ref="E34:E43" ca="1">_xlfn.SORTBY(D34:D43,_xlfn.RANDARRAY(COUNTA(D34:D43)))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="4:5">
@@ -5049,7 +5072,7 @@
       </c>
       <c r="E35" s="1">
         <f ca="1"/>
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="4:5">
@@ -5058,7 +5081,7 @@
       </c>
       <c r="E36" s="1">
         <f ca="1"/>
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="4:5">
@@ -5067,7 +5090,7 @@
       </c>
       <c r="E37" s="1">
         <f ca="1"/>
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="4:5">
@@ -5076,7 +5099,7 @@
       </c>
       <c r="E38" s="1">
         <f ca="1"/>
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="4:5">
@@ -5085,7 +5108,7 @@
       </c>
       <c r="E39" s="1">
         <f ca="1"/>
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="4:5">
@@ -5094,7 +5117,7 @@
       </c>
       <c r="E40" s="1">
         <f ca="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="4:5">
@@ -5112,7 +5135,7 @@
       </c>
       <c r="E42" s="1">
         <f ca="1"/>
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="4:5">
@@ -5121,7 +5144,7 @@
       </c>
       <c r="E43" s="1">
         <f ca="1"/>
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -5137,7 +5160,6 @@
     <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C9:C11"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
@@ -5480,7 +5502,6 @@
     <sheetView workbookViewId="0">
       <selection sqref="A1:C37"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
@@ -5517,331 +5538,331 @@
     <row r="5" spans="1:3">
       <c r="B5" s="11">
         <f ca="1">RANDBETWEEN($B$1,$B$2)</f>
-        <v>44082</v>
+        <v>44660</v>
       </c>
       <c r="C5" s="11">
         <f ca="1">B5+364</f>
-        <v>44446</v>
+        <v>45024</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="B6" s="11">
         <f t="shared" ref="B6:B37" ca="1" si="0">RANDBETWEEN($B$1,$B$2)</f>
-        <v>43406</v>
+        <v>44012</v>
       </c>
       <c r="C6" s="11">
         <f t="shared" ref="C6:C37" ca="1" si="1">B6+364</f>
-        <v>43770</v>
+        <v>44376</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="B7" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>43470</v>
+        <v>43613</v>
       </c>
       <c r="C7" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>43834</v>
+        <v>43977</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="B8" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>44333</v>
+        <v>43304</v>
       </c>
       <c r="C8" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44697</v>
+        <v>43668</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="B9" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>44827</v>
+        <v>44753</v>
       </c>
       <c r="C9" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45191</v>
+        <v>45117</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="B10" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>43883</v>
+        <v>44502</v>
       </c>
       <c r="C10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44247</v>
+        <v>44866</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="B11" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>44404</v>
+        <v>44372</v>
       </c>
       <c r="C11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44768</v>
+        <v>44736</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="B12" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>43839</v>
+        <v>44152</v>
       </c>
       <c r="C12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44203</v>
+        <v>44516</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="B13" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>43316</v>
+        <v>44741</v>
       </c>
       <c r="C13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>43680</v>
+        <v>45105</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="B14" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>43609</v>
+        <v>44812</v>
       </c>
       <c r="C14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>43973</v>
+        <v>45176</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="B15" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>43720</v>
+        <v>44860</v>
       </c>
       <c r="C15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44084</v>
+        <v>45224</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="B16" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>43317</v>
+        <v>43818</v>
       </c>
       <c r="C16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>43681</v>
+        <v>44182</v>
       </c>
     </row>
     <row r="17" spans="2:3">
       <c r="B17" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>44900</v>
+        <v>44556</v>
       </c>
       <c r="C17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45264</v>
+        <v>44920</v>
       </c>
     </row>
     <row r="18" spans="2:3">
       <c r="B18" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>44160</v>
+        <v>43497</v>
       </c>
       <c r="C18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44524</v>
+        <v>43861</v>
       </c>
     </row>
     <row r="19" spans="2:3">
       <c r="B19" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>44524</v>
+        <v>43254</v>
       </c>
       <c r="C19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44888</v>
+        <v>43618</v>
       </c>
     </row>
     <row r="20" spans="2:3">
       <c r="B20" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>44779</v>
+        <v>43342</v>
       </c>
       <c r="C20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45143</v>
+        <v>43706</v>
       </c>
     </row>
     <row r="21" spans="2:3">
       <c r="B21" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>44947</v>
+        <v>44574</v>
       </c>
       <c r="C21" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45311</v>
+        <v>44938</v>
       </c>
     </row>
     <row r="22" spans="2:3">
       <c r="B22" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>44435</v>
+        <v>43751</v>
       </c>
       <c r="C22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44799</v>
+        <v>44115</v>
       </c>
     </row>
     <row r="23" spans="2:3">
       <c r="B23" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>43691</v>
+        <v>44455</v>
       </c>
       <c r="C23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44055</v>
+        <v>44819</v>
       </c>
     </row>
     <row r="24" spans="2:3">
       <c r="B24" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>44651</v>
+        <v>44126</v>
       </c>
       <c r="C24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45015</v>
+        <v>44490</v>
       </c>
     </row>
     <row r="25" spans="2:3">
       <c r="B25" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>44848</v>
+        <v>43807</v>
       </c>
       <c r="C25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45212</v>
+        <v>44171</v>
       </c>
     </row>
     <row r="26" spans="2:3">
       <c r="B26" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>43626</v>
+        <v>43943</v>
       </c>
       <c r="C26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>43990</v>
+        <v>44307</v>
       </c>
     </row>
     <row r="27" spans="2:3">
       <c r="B27" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>44008</v>
+        <v>43402</v>
       </c>
       <c r="C27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44372</v>
+        <v>43766</v>
       </c>
     </row>
     <row r="28" spans="2:3">
       <c r="B28" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>43692</v>
+        <v>43197</v>
       </c>
       <c r="C28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44056</v>
+        <v>43561</v>
       </c>
     </row>
     <row r="29" spans="2:3">
       <c r="B29" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>44414</v>
+        <v>43471</v>
       </c>
       <c r="C29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44778</v>
+        <v>43835</v>
       </c>
     </row>
     <row r="30" spans="2:3">
       <c r="B30" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>43780</v>
+        <v>44883</v>
       </c>
       <c r="C30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44144</v>
+        <v>45247</v>
       </c>
     </row>
     <row r="31" spans="2:3">
       <c r="B31" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>43547</v>
+        <v>44866</v>
       </c>
       <c r="C31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>43911</v>
+        <v>45230</v>
       </c>
     </row>
     <row r="32" spans="2:3">
       <c r="B32" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>44895</v>
+        <v>43694</v>
       </c>
       <c r="C32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45259</v>
+        <v>44058</v>
       </c>
     </row>
     <row r="33" spans="2:3">
       <c r="B33" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>43268</v>
+        <v>44728</v>
       </c>
       <c r="C33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>43632</v>
+        <v>45092</v>
       </c>
     </row>
     <row r="34" spans="2:3">
       <c r="B34" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>43654</v>
+        <v>44194</v>
       </c>
       <c r="C34" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44018</v>
+        <v>44558</v>
       </c>
     </row>
     <row r="35" spans="2:3">
       <c r="B35" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>43305</v>
+        <v>43925</v>
       </c>
       <c r="C35" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>43669</v>
+        <v>44289</v>
       </c>
     </row>
     <row r="36" spans="2:3">
       <c r="B36" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>43813</v>
+        <v>43963</v>
       </c>
       <c r="C36" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44177</v>
+        <v>44327</v>
       </c>
     </row>
     <row r="37" spans="2:3">
       <c r="B37" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>44494</v>
+        <v>43510</v>
       </c>
       <c r="C37" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44858</v>
+        <v>43874</v>
       </c>
     </row>
   </sheetData>
